--- a/raw/out.xlsx
+++ b/raw/out.xlsx
@@ -1,29 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianesamson/Projects/cnet-analysis/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9B0AD4-640F-6346-8CA9-B87E74101337}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05C1FDC-801B-0947-9899-CB0F36E7CF61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16940" yWindow="460" windowWidth="11600" windowHeight="16520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out" sheetId="1" r:id="rId1"/>
     <sheet name="Nodes" sheetId="3" r:id="rId2"/>
     <sheet name="MERGED_TO" sheetId="4" r:id="rId3"/>
-    <sheet name="ACTIVE_IN" sheetId="2" r:id="rId4"/>
+    <sheet name="SPLIT_INTO" sheetId="5" r:id="rId4"/>
+    <sheet name="ACTIVE_IN" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="1416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="1580">
   <si>
     <t>Active</t>
   </si>
@@ -4272,6 +4281,498 @@
   </si>
   <si>
     <t>Macina Liberation Front</t>
+  </si>
+  <si>
+    <t>Hay'at Tahrir al-Sham</t>
+  </si>
+  <si>
+    <t>AAI</t>
+  </si>
+  <si>
+    <t>Sheikh Omar Hadid Brigade</t>
+  </si>
+  <si>
+    <t>Islamic State of Iraq and the Levant - Sinai Province</t>
+  </si>
+  <si>
+    <t>ISIL-SP</t>
+  </si>
+  <si>
+    <t>Al-Mourabitoun, Ansar Dine, Al-Qaeda in the Islamic Maghreb (Sahara Branch), Macina Liberation Front</t>
+  </si>
+  <si>
+    <t>Turkistan Islamic Party in Syria</t>
+  </si>
+  <si>
+    <t>TIP</t>
+  </si>
+  <si>
+    <t>Guardians of Religion</t>
+  </si>
+  <si>
+    <t>oldGroup</t>
+  </si>
+  <si>
+    <t>Ansar al-Tawhid</t>
+  </si>
+  <si>
+    <t>Sarayat al-Quds</t>
+  </si>
+  <si>
+    <t>Al-Qaeda in the Islamic Maghreb faction</t>
+  </si>
+  <si>
+    <t>White Flags</t>
+  </si>
+  <si>
+    <t>PDB</t>
+  </si>
+  <si>
+    <t>Mahdi Army, Muqawimun</t>
+  </si>
+  <si>
+    <t>Army of Jihad</t>
+  </si>
+  <si>
+    <t>Islamic Muthanna Movement</t>
+  </si>
+  <si>
+    <t>active_start</t>
+  </si>
+  <si>
+    <t>active_end</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>operates_in</t>
+  </si>
+  <si>
+    <t>Middle East;Lebanon</t>
+  </si>
+  <si>
+    <t>Philippines;Malaysia</t>
+  </si>
+  <si>
+    <t>Northeast India;Uttar Pradesh;Bihar</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Egypt;Croatia</t>
+  </si>
+  <si>
+    <t>Kismayo;Somalia;Ogaden</t>
+  </si>
+  <si>
+    <t>Middle East;Somalia;Syria;Yemen</t>
+  </si>
+  <si>
+    <t>Idlib;Syria;Aleppo;Lebanon</t>
+  </si>
+  <si>
+    <t>Mukalla;Wadi Belharith;Azzan;Wadi Obaidah;Rada'a District;Mudiyah;Lawdar;Yemen</t>
+  </si>
+  <si>
+    <t>Algeria;Mali;Libya;Niger;Mauritania</t>
+  </si>
+  <si>
+    <t>Tripura;India</t>
+  </si>
+  <si>
+    <t>Benghazi;Libya</t>
+  </si>
+  <si>
+    <t>Iraqi Kurdistan;Iraq;Syria</t>
+  </si>
+  <si>
+    <t>Sinai Peninsula;Egypt;Gaza Strip</t>
+  </si>
+  <si>
+    <t>Mal;Senegal;Mauritania</t>
+  </si>
+  <si>
+    <t>Algeria;France</t>
+  </si>
+  <si>
+    <t>North-West Iraq;West Iraq;Sunni Triangle</t>
+  </si>
+  <si>
+    <t>Sadr City;Iraq;Syria</t>
+  </si>
+  <si>
+    <t>Canada;Germany;Pakistan;United Kingdom;India;United States of America</t>
+  </si>
+  <si>
+    <t>Balochistan;Pakistan;Afghanistan;India</t>
+  </si>
+  <si>
+    <t>Nigeria;Northern Cameroon;Niger;Chad</t>
+  </si>
+  <si>
+    <t>North Caucasus;Russia;Syria;Iraq;Georgia;Azerbaijan</t>
+  </si>
+  <si>
+    <t>Northern Ireland;Republic of Ireland</t>
+  </si>
+  <si>
+    <t>Asif Nagar;India;Saudi Arabia;Pakistan</t>
+  </si>
+  <si>
+    <t>Germany;East Turkestan</t>
+  </si>
+  <si>
+    <t>North Waziristan;Pakistan;China;Pakistan;Afghanistan;Central Asia;Syria</t>
+  </si>
+  <si>
+    <t>Xinjiang;China</t>
+  </si>
+  <si>
+    <t>United States;Turkey</t>
+  </si>
+  <si>
+    <t>Iraq;Aleppo;East Ghouta;Damascus;Latakia;Al-Ghab Plain;Hama</t>
+  </si>
+  <si>
+    <t>Beiru;Lebanon</t>
+  </si>
+  <si>
+    <t>Saudi Arabia;Bahrain;Kuwait</t>
+  </si>
+  <si>
+    <t>Muzaffarabad;Azad Kashmir</t>
+  </si>
+  <si>
+    <t>Yemen;Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Ireland;Great Britain</t>
+  </si>
+  <si>
+    <t>North Waziristan;Pakistan;Pakistan;Afghanistan;Xinjiang;China</t>
+  </si>
+  <si>
+    <t>Baqubah;Iraq;Raqqa;Syria;Mayadin;Al-Qa'im;Abu Kamal;Hajin;Al-Susah;Al-Marashidah</t>
+  </si>
+  <si>
+    <t>Afghanistan;Pakistan;Tajikistan;Kashmir</t>
+  </si>
+  <si>
+    <t>Derna;Sirte;Benghazi;Sabha;Libya</t>
+  </si>
+  <si>
+    <t>Bahawalpur;Punjab;Pakistan</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Kunar;Afghanistan</t>
+  </si>
+  <si>
+    <t>Mali;Algeria;Niger;Libya;Mauritania;Tunisia;Chad;Burkina Faso</t>
+  </si>
+  <si>
+    <t>Nangarhar Province;Afghanistan;Khyber Pakhtunkhwa</t>
+  </si>
+  <si>
+    <t>Southeast Asia;Indonesia;Malaysia;Philippines;Singapore</t>
+  </si>
+  <si>
+    <t>Sarmin;Syria;Khan Shaykhun</t>
+  </si>
+  <si>
+    <t>Jerusalem;Israel</t>
+  </si>
+  <si>
+    <t>India;European Union;India</t>
+  </si>
+  <si>
+    <t>Pyongyang;North Korea</t>
+  </si>
+  <si>
+    <t>Muridke;Punjab;Pakistan;Afghanistan;,Kashmir;Bangladesh</t>
+  </si>
+  <si>
+    <t>Afghanistan;Pakistan</t>
+  </si>
+  <si>
+    <t>Portadown;Northern Ireland;Republic of Ireland</t>
+  </si>
+  <si>
+    <t>Morocco;Spain;Western Europe;Afghanistan;Iraq;Syria;Canada;Brazil</t>
+  </si>
+  <si>
+    <t>Algeria;Mali;Niger</t>
+  </si>
+  <si>
+    <t>Poso;Indonesia;Sulawesi</t>
+  </si>
+  <si>
+    <t>Cairo;Egypt</t>
+  </si>
+  <si>
+    <t>Myanmar;Assam;India</t>
+  </si>
+  <si>
+    <t>Ramallah;Palestine</t>
+  </si>
+  <si>
+    <t>Manipur;Northeast India</t>
+  </si>
+  <si>
+    <t>Albania;Paris;France;Tirana;Albania;Camp Liberty;Iraq;Camp Ashraf;Tehran;Iran</t>
+  </si>
+  <si>
+    <t>Damascus;Syria</t>
+  </si>
+  <si>
+    <t>Sadr City;Baghdad;Iraq;Syria</t>
+  </si>
+  <si>
+    <t>Ireland;England;Europe</t>
+  </si>
+  <si>
+    <t>Northern Ireland;Ireland;United Kingdom</t>
+  </si>
+  <si>
+    <t>Belfast;Northern Ireland;Republic of Ireland</t>
+  </si>
+  <si>
+    <t>Casa Verde;Los Pozos;Colombia;Peru;Venezuela;Brazil;Panama;Ecuador;Mexico;Paraguay;Bolivia</t>
+  </si>
+  <si>
+    <t>Turkish Kurdistan;Turkey;Iraqi Kurdistan</t>
+  </si>
+  <si>
+    <t>Idlib;Syria;Lebanon</t>
+  </si>
+  <si>
+    <t>Kandahar;Afghanistan;Quetta;Pakistan;Peshawar</t>
+  </si>
+  <si>
+    <t>Myanmar;China;Bhutan;Assam;India</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Toronto;Canada</t>
+  </si>
+  <si>
+    <t>Munich;Germany</t>
+  </si>
+  <si>
+    <t>Jamlah;Syria</t>
+  </si>
+  <si>
+    <t>part_of</t>
+  </si>
+  <si>
+    <t>Al-Qaeda in the Indian Subcontinent</t>
+  </si>
+  <si>
+    <t>Al-Qaeda;Mujahideen Shura Council;Army of Conquest</t>
+  </si>
+  <si>
+    <t>Ansar al-Sharia;Shura Council of Benghazi Revolutionaries;Mujahideen Shura Council;Ajdabiya Shura Council</t>
+  </si>
+  <si>
+    <t>Rouse the Believers</t>
+  </si>
+  <si>
+    <t>Boko Haram;Al-Qaeda</t>
+  </si>
+  <si>
+    <t>Special Groups;Popular Mobilization Forces</t>
+  </si>
+  <si>
+    <t>Battle of Victory;Army of Conquest</t>
+  </si>
+  <si>
+    <t>Tahrir al-Sham;Rouse the Believers</t>
+  </si>
+  <si>
+    <t>Muhajirin wa-Ansar Alliance;Army of Conquest;Al-Qaeda;Al-Nusra Front</t>
+  </si>
+  <si>
+    <t>Taliban;Al-Nusra Front;Army of Conquest;Al-Qaeda;Tahrir al-Sham</t>
+  </si>
+  <si>
+    <t>Southern Front;Islamic State of Iraq and the Levant</t>
+  </si>
+  <si>
+    <t>affiliated_with</t>
+  </si>
+  <si>
+    <t>National Iraqi Alliance;State of Law Coalition;Fatah Alliance;Axis of Resistance</t>
+  </si>
+  <si>
+    <t>Peoples' United Revolutionary Movement;International Conference of Marxist-Leninist Parties and Organizations;International Freedom Battalion</t>
+  </si>
+  <si>
+    <t>Republican Sinn Féin;Cumann na mBan;Continuity Irish Republican Army</t>
+  </si>
+  <si>
+    <t>Republican Sinn Féin;Fianna Éireann;Continuity Irish Republican Army</t>
+  </si>
+  <si>
+    <t>Sunni;Sufism</t>
+  </si>
+  <si>
+    <t>Muslim Brotherhood;Axis of Resistance</t>
+  </si>
+  <si>
+    <t>March 8 Alliance;Axis of Resistance</t>
+  </si>
+  <si>
+    <t>Islamic Movement of Turkestan</t>
+  </si>
+  <si>
+    <t>4th Armoured Division</t>
+  </si>
+  <si>
+    <t>Peoples' United Revolutionary Movement;Kurdistan Communities Union</t>
+  </si>
+  <si>
+    <t>Palestine Liberation Organization;Democratic Alliance List;International Communist Seminar</t>
+  </si>
+  <si>
+    <t>Syrian Government</t>
+  </si>
+  <si>
+    <t>Democratic Front for the Reunification of the Fatherland;International Meeting of Communist and Workers' Parties</t>
+  </si>
+  <si>
+    <t>World Uyghur Youth Congress;East Turkestan National Congress;Unrepresented Nations and Peoples Organization</t>
+  </si>
+  <si>
+    <t>allied_with</t>
+  </si>
+  <si>
+    <t>Maute group;14K Triad;Al-Qaeda</t>
+  </si>
+  <si>
+    <t>AQAP;Ansar al-Sharia;al-Shabaab</t>
+  </si>
+  <si>
+    <t>Qatar;Jund al-Aqsa;Turkistan Islamic Party;Caucasus Emirate;Ajnad al-Kavkaz;Malhama Tactical;Ashida'a Mujahideen Brigade;Ansar al-Din Front;Ansar al-Islam;Free Syrian Army</t>
+  </si>
+  <si>
+    <t>Saudi Arabia;Qatar;Taliban;Tehrik-i-Taliban Pakistan;Islamic Movement of Uzbekistan;Turkistan Islamic Party;Lashkar-e-Taiba;Caucasus Emirate;Haqqani network;Jaish-e-Mohammed;Jemaah Islamiyah;Egyptian Islamic Jihad</t>
+  </si>
+  <si>
+    <t>Qatar;al-Shabaab;Al-Qaeda in the Islamic Maghreb;Al-Qaeda in the Indian Subcontinent;Al-Nusra Front;Khorasan</t>
+  </si>
+  <si>
+    <t>Pakistan;Tehrik-i-Taliban Pakistan;Caucasus Emirate;Al-Qaeda in the Arabian Peninsula;Al-Shabaab;Lashkar-e-Taiba;Muslim United Liberation Tigers of Assam</t>
+  </si>
+  <si>
+    <t>Ansar al-Sharia;Al-Qaeda in the Islamic Maghreb;Libya Shield;Rafallah al-Sahati Brigade;Abu Salim Martyrs Brigade</t>
+  </si>
+  <si>
+    <t>Ansaru;Ansar Dine;Movement for Oneness and Jihad in West Africa;Ansar al-Sharia;Al-Qaeda in Sinai Peninsula;Al-Qaeda in the Arabian Peninsula;Al-Mulathameen</t>
+  </si>
+  <si>
+    <t>Ansar al-Sharia</t>
+  </si>
+  <si>
+    <t>Al-Qaeda;Tahrir al-Sham;Al-Nusra Front;Turkistan Islamic Party;Ajnad al-Kavkaz;Islamic Front</t>
+  </si>
+  <si>
+    <t>Army of the Men of the Naqshbandi Order;1920 Revolution Brigade;Jaish al-Rashideen;Islamic Front for the Iraqi Resistance;Hamas of Iraq;Jeish Muhammad</t>
+  </si>
+  <si>
+    <t>Boko Haram;Al-Qaeda in the Islamic Maghreb;Al-Shabaab</t>
+  </si>
+  <si>
+    <t>MCIR;Free Iraqi Army;Islamic State of Iraq and Levant;Anbar Tribal Councils</t>
+  </si>
+  <si>
+    <t>Iraq;Syria;Iran;Kata'ib Hezbollah;Promised Day Brigades;Liwa Abu al-Fadhal al-Abbas;Hezbollah;Liwa al-Quds;Sheibani Network;Harakat Hezbollah al-Nujaba;Kata'ib Sayyid al-Shuhada;Saraya al-Mukhtar;Al-Ashtar Brigades</t>
+  </si>
+  <si>
+    <t>Baloch Liberation Front;Baloch Republican Army;Lashkar-e-Balochistan;Balochistan Liberation United Front;BSO</t>
+  </si>
+  <si>
+    <t>Al-Qaeda;Jaish al-Muhajireen wal-Ansar;Taliban;Al-Nusra Front</t>
+  </si>
+  <si>
+    <t>Al-Qaeda;Hayyat Tahrir al-Sham;Islamic Movement of Uzbekistan;East Turkistan Education and Solidarity Association</t>
+  </si>
+  <si>
+    <t>Al-Qaeda;Pakistan</t>
+  </si>
+  <si>
+    <t>Iraq;Syria;NDF;Iran;Kata'ib Hezbollah;Liwa Abu al-Fadhal al-Abbas;Hezbollah;Asaib Ahl al-Haq;Liwa Dhulfiqar;Liwa Fatemiyoun;Baqir Brigade;Houthis</t>
+  </si>
+  <si>
+    <t>Al-Nusra Front;Turkistan Islamic Party in Syria</t>
+  </si>
+  <si>
+    <t>Yemen;Syria;North Korea;Iraq;Houthi-aligned Popular Committees;General People's Congress;Hezbollah;Ahrar al-Najran Movement;Pro-Houthi;Popular Committees</t>
+  </si>
+  <si>
+    <t>Marxist;Catalan Liberation Front;Action directe</t>
+  </si>
+  <si>
+    <t>Taliban;Al-Qaeda;Turkistan Islamic Party;Islamic Movement of Uzbekistan;Caucasus Emirate</t>
+  </si>
+  <si>
+    <t>Khorasan Province;Tehrik-i-Taliban Pakistan;Turkistan Islamic Party;Caucasus Emirate;Al-Qaeda;Taliban</t>
+  </si>
+  <si>
+    <t>Al-Nusra Front;Suqour al-Ezz;Jabhat Ansar al-Din;Harakat Sham al-Islam;Jund al-Aqsa;Caucasus Emirate;Ajnad al-Kavkaz;Turkistan Islamic Party;Ansar al-Islam;Islamic Front;Syria Revolutionaries Front;Army of Mujahideen;13th Division</t>
+  </si>
+  <si>
+    <t>Al-Qaeda;Lashkar-e-Taiba</t>
+  </si>
+  <si>
+    <t>Ansar ul Islam</t>
+  </si>
+  <si>
+    <t>Islamic State of Iraq and the Levant;Turkistan Islamic Party in Syria;Jaysh al-Sunna</t>
+  </si>
+  <si>
+    <t>Iraq;Iran;Syria;Hezbollah;Asa'ib Ahl al-Haq;Kata'ib Sayyid al-Shuhada;Badr Organization;Harakat Hezbollah al-Nujaba;Promised Day Brigade;Liwa Abu al-Fadhal al-Abbas;Saraya Ansar al-Aqeeda;Peshmerga;National Defence Forces;Al-Ashtar Brigades</t>
+  </si>
+  <si>
+    <t>Red Hand Defenders;Combat 18</t>
+  </si>
+  <si>
+    <t>Al-Qaeda;Al-Qaeda in the Islamic Maghreb;Salafia Jihadia;Libyan Islamic Fighting Group;Tunisian Combatant Group</t>
+  </si>
+  <si>
+    <t>Ansar Dine;Al-Qaeda in the Islamic Maghreb</t>
+  </si>
+  <si>
+    <t>Sinai Province;Sheikh Omar Hadid Brigade</t>
+  </si>
+  <si>
+    <t>Syria;Iran;Asa'ib Ahl al-Haq;Kata'ib Hezbollah;Other Special Groups</t>
+  </si>
+  <si>
+    <t>Continuity Irish Republican Army;Óglaigh na hÉireann</t>
+  </si>
+  <si>
+    <t>Euskadi Ta Askatasuna;National Liberation Army;Provisional Irish Republican Army</t>
+  </si>
+  <si>
+    <t>Syrian Salvation Governmen;Turkistan Islamic Party;Ansar al-Islam;Soldiers of the Caucasus;Katiba Abd Ar-Rahman;Katibat Jabal al-Islam;Caucasus Emirate;Junud al-Makhdi;Malhama Tactical;Katibat al-Ghuraba al-Turkistan;Army of Glory</t>
+  </si>
+  <si>
+    <t>Pakistan;Saudi Arabia;Tehrik-i-Taliban Pakistan;Haqqani network;Al-Qaeda;Tehreek-e-Nafaz-e-Shariat-e-Mohammadi;Caucasus Emirate;Lashkar-e-Jhangvi;Hezb-e Islami Gulbuddin;Islamic Movement of Uzbekistan</t>
+  </si>
+  <si>
+    <t>Afghanistan;India;Al-Qaeda;IMU;Sipah-e-Sahaba Pakistan;Lashkar-e-Jhangvi;Harkat-ul-Jihad al-Islami</t>
+  </si>
+  <si>
+    <t>Loyalist Volunteer Force;Red Hand Defenders</t>
+  </si>
+  <si>
+    <t>Islamic State of Iraq and the Levant;Jaysh al-Jihad;Islamic Muthanna Movement</t>
   </si>
 </sst>
 </file>
@@ -4774,7 +5275,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4806,8 +5307,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -5166,20 +5674,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FF183"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="BD2" sqref="BD2:BE183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="55.83203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="2" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="52.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="36.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="36.83203125" style="2" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="23.33203125" style="2" customWidth="1"/>
@@ -5200,27 +5708,27 @@
     <col min="28" max="28" width="20.33203125" style="1" customWidth="1"/>
     <col min="29" max="29" width="21" style="1" customWidth="1"/>
     <col min="30" max="31" width="22" style="1" customWidth="1"/>
-    <col min="32" max="33" width="10.83203125" style="1"/>
-    <col min="34" max="34" width="54.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.33203125" style="1" customWidth="1"/>
-    <col min="36" max="36" width="10.83203125" style="1"/>
-    <col min="37" max="37" width="15.33203125" style="1" customWidth="1"/>
-    <col min="38" max="39" width="10.83203125" style="1"/>
-    <col min="40" max="40" width="71.33203125" style="2" customWidth="1"/>
-    <col min="41" max="41" width="10.83203125" style="8"/>
-    <col min="42" max="42" width="20.83203125" style="8" customWidth="1"/>
-    <col min="43" max="43" width="30.83203125" style="8" customWidth="1"/>
-    <col min="44" max="44" width="35.6640625" style="8" customWidth="1"/>
-    <col min="45" max="45" width="68" style="7" customWidth="1"/>
-    <col min="46" max="46" width="33.83203125" style="7" customWidth="1"/>
-    <col min="47" max="48" width="10.83203125" style="7"/>
-    <col min="49" max="49" width="21.5" style="7" customWidth="1"/>
-    <col min="50" max="50" width="10.83203125" style="7"/>
-    <col min="51" max="51" width="29.5" style="7" customWidth="1"/>
-    <col min="52" max="52" width="60" style="7" customWidth="1"/>
-    <col min="53" max="53" width="34.1640625" style="8" customWidth="1"/>
-    <col min="54" max="54" width="30.83203125" style="7" customWidth="1"/>
-    <col min="55" max="55" width="23.1640625" style="8" customWidth="1"/>
+    <col min="32" max="33" width="10.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="54.5" style="1" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="15.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="10.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="15.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="38" max="39" width="10.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="71.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="20.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="30.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="35.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="68" style="7" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="33.83203125" style="7" hidden="1" customWidth="1"/>
+    <col min="47" max="48" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="21.5" style="7" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="29.5" style="7" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="60" style="7" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="34.1640625" style="8" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="30.83203125" style="7" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="23.1640625" style="8" hidden="1" customWidth="1"/>
     <col min="56" max="56" width="37" style="7" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="101.6640625" style="7" customWidth="1"/>
     <col min="58" max="58" width="20.1640625" style="7" customWidth="1"/>
@@ -6439,7 +6947,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:100" ht="170" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:100" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>288</v>
       </c>
@@ -6489,7 +6997,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="27" spans="1:100" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:100" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>298</v>
       </c>
@@ -6527,7 +7035,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="1:100" ht="102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:100" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>307</v>
       </c>
@@ -8507,7 +9015,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="104" spans="1:151" ht="356" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:151" ht="136" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>740</v>
       </c>
@@ -10561,20 +11069,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14473BC5-CA06-354C-93C5-FC7E59939184}">
-  <dimension ref="A1:F441"/>
+  <dimension ref="A1:I440"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="43.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="44" customWidth="1"/>
+    <col min="7" max="8" width="38.33203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="47.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1379</v>
       </c>
@@ -10584,28 +11097,70 @@
       <c r="C1" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>150</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" s="2">
+        <v>2009</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>155</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>156</v>
       </c>
@@ -10613,91 +11168,181 @@
         <v>1402</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" s="2">
+        <v>1991</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>165</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="2">
+        <v>1996</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>174</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6" s="2">
+        <v>2013</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="I6" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="I7" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>184</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="2">
+        <v>1997</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="I8" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>191</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="I9" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>194</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="I10" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>198</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="2">
+        <v>1992</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1998</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="I11" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>204</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D12" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="I12" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>205</v>
       </c>
@@ -10705,334 +11350,721 @@
         <v>206</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D13" s="2">
+        <v>1988</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2004</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="I13" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>211</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D14" s="2">
+        <v>1992</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2006</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="I14" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D15" s="2">
+        <v>1957</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="I15" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>225</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>1513</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>234</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D17" s="2">
+        <v>1988</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="I17" s="2" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>238</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D18" s="2">
+        <v>2009</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>245</v>
+        <v>1512</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D19" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>252</v>
+        <v>892</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2007</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>260</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D21" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="I21" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>261</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1971</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="I22" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>266</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D23" s="2">
+        <v>1990</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="I23" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>271</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>1514</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>280</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D25" s="2">
+        <v>2013</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2001</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>298</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2003</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2007</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="I27" s="2" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>307</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D28" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>316</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D29" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>321</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D30" s="2">
+        <v>2004</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>324</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D31" s="2">
+        <v>2009</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>331</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D32" s="2">
+        <v>1993</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2004</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>337</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D33" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>338</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D34" s="2">
+        <v>2006</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>347</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D35" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>1517</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>357</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D36" s="2">
+        <v>1994</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="I36" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>1404</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="I37" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>377</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D38" s="2">
+        <v>1982</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>384</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>1403</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2">
+        <v>1980</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="I39" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>394</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D40" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>402</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D41" s="2">
+        <v>2002</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>1458</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>409</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2007</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>1459</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>1241</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D43" s="2">
+        <v>1969</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1972</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>416</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D44" s="2">
+        <v>1968</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>1243</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D45" s="2">
+        <v>1972</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14" t="s">
+        <v>1525</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>434</v>
       </c>
@@ -11040,46 +12072,114 @@
         <v>436</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D46" s="2">
+        <v>2008</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>439</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D47" s="2">
+        <v>1986</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>449</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D48" s="2">
+        <v>1914</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>454</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D49" s="2">
+        <v>1924</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G49" s="13"/>
+      <c r="H49" s="14" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>463</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D50" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>476</v>
       </c>
@@ -11087,91 +12187,222 @@
         <v>478</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D51" s="2">
+        <v>1993</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="G51" s="13"/>
+      <c r="H51" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>483</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D52" s="2">
+        <v>1996</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>489</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D53" s="2">
+        <v>1988</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>1518</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>499</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D54" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2003</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>505</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D55" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>506</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D56" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F56" s="12"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>507</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D57" s="2">
+        <v>1909</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14" t="s">
+        <v>1526</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>512</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D58" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F58" s="12"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>513</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D59" s="2">
+        <v>1970</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="G59" s="13"/>
+      <c r="H59" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>519</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D60" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F60" s="12"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>1390</v>
       </c>
@@ -11179,560 +12410,1256 @@
         <v>1405</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D61" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>526</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D62" s="2">
+        <v>1987</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="G62" s="13"/>
+      <c r="H62" s="14" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>1250</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D63" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F63" s="12"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>538</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D64" s="2">
+        <v>1980</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>545</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C65" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2013</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>1532</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>553</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D66" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F66" s="12"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>556</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D67" s="2">
+        <v>1985</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="G67" s="13"/>
+      <c r="H67" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>559</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D68" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E68" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F68" s="12"/>
+      <c r="G68" s="13" t="s">
+        <v>1519</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D69" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="G69" s="13"/>
+      <c r="H69" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>571</v>
       </c>
       <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C70" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1975</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="G70" s="13"/>
+      <c r="H70" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>576</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D71" s="2">
+        <v>1985</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G71" s="13"/>
+      <c r="H71" s="14" t="s">
+        <v>1530</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>585</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D72" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F72" s="12"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>586</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D73" s="2">
+        <v>1983</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="G73" s="13"/>
+      <c r="H73" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>590</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D74" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F74" s="12"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>591</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D75" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F75" s="12"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>592</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D76" s="2">
+        <v>1987</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G76" s="13"/>
+      <c r="H76" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
         <v>596</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D77" s="2">
+        <v>1953</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F77" s="12"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
         <v>602</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D78" s="2">
+        <v>1989</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G78" s="13"/>
+      <c r="H78" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
         <v>605</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D79" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F79" s="12"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
         <v>606</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D80" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F80" s="12"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
         <v>607</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D81" s="2">
+        <v>1994</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G81" s="13"/>
+      <c r="H81" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
         <v>614</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D82" s="2">
+        <v>2007</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F82" s="12"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
         <v>619</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D83" s="2">
+        <v>1987</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="G83" s="13"/>
+      <c r="H83" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>627</v>
       </c>
       <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C84" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1974</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G84" s="13"/>
+      <c r="H84" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
         <v>636</v>
       </c>
       <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C85" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1986</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1992</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="G85" s="13"/>
+      <c r="H85" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
         <v>643</v>
       </c>
       <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C86" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2002</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="G86" s="13"/>
+      <c r="H86" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
         <v>649</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D87" s="2">
+        <v>1998</v>
+      </c>
+      <c r="E87" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>1531</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
         <v>660</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D88" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F88" s="12"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C89" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1999</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>1473</v>
+      </c>
+      <c r="G89" s="13"/>
+      <c r="H89" s="14" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
         <v>1287</v>
       </c>
       <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C90" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D90" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
         <v>1289</v>
       </c>
       <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C91" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D91" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>680</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D92" s="11">
+        <v>2014</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
         <v>1293</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D93" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
         <v>691</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D94" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G94" s="13"/>
+      <c r="H94" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
         <v>694</v>
       </c>
       <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C95" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D95" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E95" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G95" s="13"/>
+      <c r="H95" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>700</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D96" s="2">
+        <v>1980</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
         <v>707</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C97" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D97" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
         <v>715</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D98" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F98" s="12"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
         <v>716</v>
       </c>
       <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="2"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C99" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="D99" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>1480</v>
+      </c>
+      <c r="G99" s="13"/>
+      <c r="H99" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>723</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="2"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D100" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F100" s="12"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>724</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="2"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D101" s="2">
+        <v>1972</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F101" s="12"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
         <v>733</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="2"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D102" s="2">
+        <v>1993</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G102" s="13"/>
+      <c r="H102" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
         <v>739</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D103" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F103" s="12"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
         <v>740</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C104" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D104" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E104" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
         <v>1309</v>
       </c>
       <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="2"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C105" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D105" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
         <v>755</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="2"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D106" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F106" s="12"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
         <v>756</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="2"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D107" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F107" s="12"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
         <v>757</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D108" s="2">
+        <v>1971</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>1483</v>
+      </c>
+      <c r="G108" s="13"/>
+      <c r="I108" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>767</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="2"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D109" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F109" s="12"/>
+      <c r="G109" s="13" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
         <v>771</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="2"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D110" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F110" s="12"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>772</v>
       </c>
       <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="2"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C111" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="D111" s="2">
+        <v>2003</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F111" s="12"/>
+      <c r="G111" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
         <v>781</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="2"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D112" s="2">
+        <v>1987</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1993</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="G112" s="13"/>
+      <c r="I112" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
         <v>784</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="2"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D113" s="2">
+        <v>1988</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G113" s="13"/>
+      <c r="H113" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>792</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="2"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D114" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F114" s="12"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>793</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="2"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D115" s="2">
+        <v>1932</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G115" s="13"/>
+      <c r="H115" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>805</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="2"/>
-    </row>
-    <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D116" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F116" s="12"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
         <v>810</v>
       </c>
@@ -11740,51 +13667,116 @@
         <v>1179</v>
       </c>
       <c r="C117" s="2"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="2"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D117" s="2">
+        <v>1992</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="G117" s="13"/>
+      <c r="H117" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
         <v>816</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="2"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D118" s="2">
+        <v>2004</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="G118" s="13"/>
+      <c r="H118" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
         <v>820</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D119" s="2">
+        <v>1978</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="G119" s="13"/>
+      <c r="H119" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
         <v>828</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="2"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D120" s="2">
+        <v>1986</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G120" s="13"/>
+      <c r="H120" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
         <v>838</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="2"/>
-    </row>
-    <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D121" s="2">
+        <v>1996</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G121" s="13"/>
+      <c r="H121" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
         <v>846</v>
       </c>
@@ -11792,220 +13784,493 @@
         <v>847</v>
       </c>
       <c r="C122" s="2"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D122" s="2">
+        <v>1976</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F122" s="12"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
         <v>854</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="2"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D123" s="2">
+        <v>1995</v>
+      </c>
+      <c r="E123" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="G123" s="13"/>
+      <c r="H123" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
         <v>859</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="2"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C124" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="D124" s="2">
+        <v>1996</v>
+      </c>
+      <c r="E124" s="2">
+        <v>2005</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G124" s="13"/>
+      <c r="H124" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
         <v>868</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="2"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D125" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F125" s="12"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
         <v>880</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="2"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D126" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F126" s="12"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
         <v>881</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="2"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D127" s="2">
+        <v>1975</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F127" s="12"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
         <v>1325</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="2"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D128" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F128" s="12"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
         <v>884</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="2"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D129" s="2">
+        <v>1990</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G129" s="13"/>
+      <c r="H129" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>887</v>
       </c>
       <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="2"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C130" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="D130" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E130" s="2">
+        <v>2013</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G130" s="13"/>
+      <c r="H130" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
         <v>893</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="2"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D131" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>1491</v>
+      </c>
+      <c r="G131" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
         <v>899</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="2"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D132" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
         <v>905</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="2"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D133" s="2">
+        <v>1928</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G133" s="13"/>
+      <c r="H133" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
         <v>912</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="2"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D134" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F134" s="12"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
         <v>913</v>
       </c>
       <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="2"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C135" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="D135" s="2">
+        <v>1986</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G135" s="13"/>
+      <c r="H135" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
         <v>929</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="2"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D136" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F136" s="12"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
         <v>930</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="2"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D137" s="2">
+        <v>1989</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G137" s="13"/>
+      <c r="H137" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>934</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="2"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D138" s="2">
+        <v>1998</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="G138" s="13"/>
+      <c r="H138" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
         <v>939</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="2"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D139" s="2">
+        <v>1961</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G139" s="13"/>
+      <c r="H139" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
         <v>945</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="2"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D140" s="2">
+        <v>1987</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="G140" s="13"/>
+      <c r="H140" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
         <v>1332</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="2"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D141" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F141" s="12"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
         <v>951</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="2"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D142" s="2">
+        <v>2004</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F142" s="12"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
         <v>958</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="2"/>
-    </row>
-    <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D143" s="2">
+        <v>1978</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G143" s="13"/>
+      <c r="H143" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="10" t="s">
         <v>963</v>
       </c>
@@ -12013,131 +14278,303 @@
         <v>964</v>
       </c>
       <c r="C144" s="2"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="2"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D144" s="2">
+        <v>1965</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G144" s="13"/>
+      <c r="H144" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
         <v>973</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="2"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D145" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F145" s="12"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
         <v>974</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="2"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D146" s="2">
+        <v>1967</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F146" s="12"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="14" t="s">
+        <v>1534</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
         <v>1336</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="2"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D147" s="2">
+        <v>1968</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G147" s="13"/>
+      <c r="H147" s="14" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
         <v>987</v>
       </c>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="2"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B148" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D148" s="2">
+        <v>2008</v>
+      </c>
+      <c r="E148" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G148" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="10" t="s">
         <v>448</v>
       </c>
       <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="2"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C149" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D149" s="2">
+        <v>1969</v>
+      </c>
+      <c r="E149" s="2">
+        <v>1998</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G149" s="13"/>
+      <c r="H149" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
         <v>1002</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="2"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D150" s="2">
+        <v>1980</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G150" s="13"/>
+      <c r="H150" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
         <v>1009</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="2"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D151" s="2">
+        <v>1997</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G151" s="13"/>
+      <c r="H151" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
         <v>1015</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="2"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D152" s="2">
+        <v>1972</v>
+      </c>
+      <c r="E152" s="2">
+        <v>2009</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G152" s="13"/>
+      <c r="H152" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
         <v>1023</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="2"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D153" s="2">
+        <v>1998</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="G153" s="13"/>
+      <c r="H153" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="2"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D154" s="2">
+        <v>1964</v>
+      </c>
+      <c r="E154" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G154" s="13"/>
+      <c r="H154" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
         <v>1030</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="2"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D155" s="2">
+        <v>1975</v>
+      </c>
+      <c r="E155" s="2">
+        <v>2002</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="G155" s="13"/>
+      <c r="H155" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
         <v>1035</v>
       </c>
       <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="2"/>
-    </row>
-    <row r="157" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="C156" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D156" s="2">
+        <v>1960</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G156" s="13"/>
+      <c r="H156" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
         <v>1039</v>
       </c>
@@ -12145,51 +14582,107 @@
         <v>1040</v>
       </c>
       <c r="C157" s="2"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="2"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D157" s="2">
+        <v>1994</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F157" s="12"/>
+      <c r="G157" s="13"/>
+      <c r="I157" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
         <v>1047</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="2"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D158" s="2">
+        <v>2003</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="G158" s="13"/>
+      <c r="H158" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
         <v>1052</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="2"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D159" s="2">
+        <v>1931</v>
+      </c>
+      <c r="E159" s="2">
+        <v>1931</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="G159" s="13"/>
+      <c r="H159" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
         <v>1057</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="2"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D160" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F160" s="12"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
         <v>1058</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="2"/>
-    </row>
-    <row r="162" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D161" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F161" s="12"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
         <v>1059</v>
       </c>
@@ -12197,41 +14690,85 @@
         <v>1060</v>
       </c>
       <c r="C162" s="2"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="2"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D162" s="2">
+        <v>1966</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F162" s="12"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="14" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="10" t="s">
         <v>1066</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="2"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D163" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F163" s="12"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
         <v>1071</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="2"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D164" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F164" s="12"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
         <v>1072</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="2"/>
-    </row>
-    <row r="166" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D165" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F165" s="12"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="10" t="s">
         <v>1073</v>
       </c>
@@ -12239,113 +14776,251 @@
         <v>1074</v>
       </c>
       <c r="C166" s="2"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="2"/>
-    </row>
-    <row r="167" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D166" s="2">
+        <v>1977</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="G166" s="13"/>
+      <c r="H166" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A167" s="10" t="s">
         <v>1077</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>1407</v>
       </c>
-      <c r="C167" s="2"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="2"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C167" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D167" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G167" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A168" s="10" t="s">
         <v>1086</v>
       </c>
       <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="2"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C168" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D168" s="2">
+        <v>1994</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>1505</v>
+      </c>
+      <c r="G168" s="13"/>
+      <c r="H168" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
         <v>1093</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="2"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D169" s="2">
+        <v>1992</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="G169" s="13"/>
+      <c r="H169" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
         <v>1095</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="2"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D170" s="2">
+        <v>2007</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F170" s="12"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="10" t="s">
         <v>1101</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="2"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D171" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F171" s="12"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
         <v>1102</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="2"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D172" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F172" s="12"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
         <v>1103</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="2"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D173" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F173" s="12"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
         <v>1104</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="2"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D174" s="2">
+        <v>1971</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F174" s="12" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G174" s="13"/>
+      <c r="H174" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
         <v>867</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="2"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D175" s="2">
+        <v>1966</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F175" s="12" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G175" s="13"/>
+      <c r="H175" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
         <v>1116</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="2"/>
-    </row>
-    <row r="177" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D176" s="2">
+        <v>1979</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F176" s="12" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G176" s="13"/>
+      <c r="H176" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>1127</v>
       </c>
@@ -12353,11 +15028,24 @@
         <v>1128</v>
       </c>
       <c r="C177" s="2"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="2"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D177" s="2">
+        <v>1964</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>960</v>
+      </c>
+      <c r="G177" s="13"/>
+      <c r="H177" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
         <v>1134</v>
       </c>
@@ -12365,40 +15053,89 @@
         <v>1139</v>
       </c>
       <c r="C178" s="2"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="2"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D178" s="2">
+        <v>1997</v>
+      </c>
+      <c r="E178" s="2">
+        <v>2008</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G178" s="13"/>
+      <c r="H178" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="2"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D179" s="2"/>
+      <c r="E179" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F179" s="12"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
         <v>1143</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="2"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D180" s="2">
+        <v>1949</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G180" s="13"/>
+      <c r="H180" s="14" t="s">
+        <v>1536</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
         <v>1158</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="2"/>
-    </row>
-    <row r="182" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D181" s="2">
+        <v>1986</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F181" s="12" t="s">
+        <v>1508</v>
+      </c>
+      <c r="G181" s="13"/>
+      <c r="H181" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
         <v>1162</v>
       </c>
@@ -12406,45 +15143,109 @@
         <v>1163</v>
       </c>
       <c r="C182" s="2"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="2"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D182" s="2">
+        <v>2004</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F182" s="12" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G182" s="13"/>
+      <c r="H182" s="14" t="s">
+        <v>1537</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
         <v>1173</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="2"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D183" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E183" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F183" s="12" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G183" s="13" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" s="10" t="s">
+        <v>1418</v>
+      </c>
       <c r="B184" s="2"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B185" s="2"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B186" s="2"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A185" s="10" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+    </row>
+    <row r="186" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A186" s="10" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" s="10" t="s">
+        <v>1424</v>
+      </c>
       <c r="B187" s="2"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" s="10" t="s">
+        <v>1429</v>
+      </c>
       <c r="B188" s="2"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" s="10" t="s">
+        <v>991</v>
+      </c>
       <c r="B189" s="2"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C189" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" s="10" t="s">
+        <v>1175</v>
+      </c>
       <c r="B190" s="2"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C190" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" s="10" t="s">
+        <v>1432</v>
+      </c>
       <c r="B191" s="2"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" s="10" t="s">
+        <v>1433</v>
+      </c>
       <c r="B192" s="2"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.2">
@@ -13190,9 +15991,6 @@
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B440" s="2"/>
-    </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B441" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13201,108 +15999,161 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD19CD7-CE7C-B442-91AE-F8F6CB6B4909}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B2" t="s">
-        <v>1077</v>
+      <c r="B2" s="1" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B3" t="s">
-        <v>1077</v>
+      <c r="B3" s="1" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="B4" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C4" s="1">
         <v>2017</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>2017</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="B5" t="s">
-        <v>1077</v>
+      <c r="B5" s="1" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="B6" t="s">
-        <v>1077</v>
+      <c r="B6" s="1" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2016</v>
       </c>
     </row>
   </sheetData>
@@ -13311,11 +16162,94 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE031B1-D715-B041-940B-3288B964D934}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>740</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>740</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9884796C-EF2B-8040-B72D-9E5712D51CC0}">
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/raw/out.xlsx
+++ b/raw/out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianesamson/Projects/cnet-analysis/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05C1FDC-801B-0947-9899-CB0F36E7CF61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0251A630-E836-2747-BDBB-86DE9D8F4C23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="1580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="1594">
   <si>
     <t>Active</t>
   </si>
@@ -4773,6 +4773,48 @@
   </si>
   <si>
     <t>Islamic State of Iraq and the Levant;Jaysh al-Jihad;Islamic Muthanna Movement</t>
+  </si>
+  <si>
+    <t>designated_terrorist_by</t>
+  </si>
+  <si>
+    <t>United Nations;New Zealand;UAE;Israel;United Kingdom;United Stated of America</t>
+  </si>
+  <si>
+    <t>Canada;Russia;United States of America;United Kingdom;European Union</t>
+  </si>
+  <si>
+    <t>Australia;Russia;United States of America;United Kingdom;United Nations</t>
+  </si>
+  <si>
+    <t>China;Kazakhstan;Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>European Union;United States of America</t>
+  </si>
+  <si>
+    <t>Turkey;Northern Cyprus;Pakistan;Gulf Cooperation Council;Organization of Islamic Cooperation</t>
+  </si>
+  <si>
+    <t>India;United States of America;New Zealand;United Kingdom</t>
+  </si>
+  <si>
+    <t>United States of America;Australia;India;United Kingdom;European Union</t>
+  </si>
+  <si>
+    <t>Australia;Canada;European Union;Pakistan;United Kingdom;United States of America</t>
+  </si>
+  <si>
+    <t>United States of America;United Kingdom;United Nations</t>
+  </si>
+  <si>
+    <t>Australia;Canada;European Union;Japan;New Zealand;United Kingdom;United States of America</t>
+  </si>
+  <si>
+    <t>United Nations;European Union;Australia;Canada;UAE;United Kingdom;United States of America</t>
+  </si>
+  <si>
+    <t>United Nations</t>
   </si>
 </sst>
 </file>
@@ -5275,7 +5317,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5317,6 +5359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5674,8 +5717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FF183"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="BD2" sqref="BD2:BE183"/>
+    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
+      <selection activeCell="BT4" sqref="BT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5729,8 +5772,8 @@
     <col min="53" max="53" width="34.1640625" style="8" hidden="1" customWidth="1"/>
     <col min="54" max="54" width="30.83203125" style="7" hidden="1" customWidth="1"/>
     <col min="55" max="55" width="23.1640625" style="8" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="37" style="7" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="101.6640625" style="7" customWidth="1"/>
+    <col min="56" max="56" width="37" style="7" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="101.6640625" style="7" hidden="1" customWidth="1"/>
     <col min="58" max="58" width="20.1640625" style="7" customWidth="1"/>
     <col min="59" max="59" width="18.33203125" style="8" customWidth="1"/>
     <col min="60" max="60" width="18.6640625" style="8" customWidth="1"/>
@@ -5744,8 +5787,8 @@
     <col min="68" max="68" width="25.1640625" style="8" customWidth="1"/>
     <col min="69" max="71" width="10.83203125" style="8"/>
     <col min="72" max="72" width="19.83203125" style="8" customWidth="1"/>
-    <col min="73" max="73" width="62.1640625" style="7" customWidth="1"/>
-    <col min="74" max="74" width="51.33203125" style="7" customWidth="1"/>
+    <col min="73" max="73" width="62.1640625" style="7" hidden="1" customWidth="1"/>
+    <col min="74" max="74" width="51.33203125" style="7" hidden="1" customWidth="1"/>
     <col min="75" max="75" width="10.83203125" style="8"/>
     <col min="76" max="76" width="36.5" style="8" customWidth="1"/>
     <col min="77" max="77" width="86.33203125" style="7" customWidth="1"/>
@@ -11069,10 +11112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14473BC5-CA06-354C-93C5-FC7E59939184}">
-  <dimension ref="A1:I440"/>
+  <dimension ref="A1:J440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11085,9 +11128,10 @@
     <col min="6" max="6" width="44" customWidth="1"/>
     <col min="7" max="8" width="38.33203125" style="14" customWidth="1"/>
     <col min="9" max="9" width="47.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="49.6640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1379</v>
       </c>
@@ -11115,8 +11159,11 @@
       <c r="I1" s="2" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J1" s="15" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>150</v>
       </c>
@@ -11138,8 +11185,11 @@
       <c r="I2" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J2" s="13" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>155</v>
       </c>
@@ -11159,8 +11209,9 @@
       <c r="I3" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>156</v>
       </c>
@@ -11183,8 +11234,9 @@
       <c r="I4" s="2" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>165</v>
       </c>
@@ -11205,8 +11257,9 @@
       <c r="I5" s="2" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>174</v>
       </c>
@@ -11225,8 +11278,9 @@
       <c r="I6" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>179</v>
       </c>
@@ -11245,8 +11299,11 @@
       <c r="I7" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J7" s="13" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>184</v>
       </c>
@@ -11265,8 +11322,11 @@
       <c r="I8" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J8" s="13" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>191</v>
       </c>
@@ -11283,8 +11343,9 @@
       <c r="I9" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>194</v>
       </c>
@@ -11303,8 +11364,9 @@
       <c r="I10" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>198</v>
       </c>
@@ -11323,8 +11385,11 @@
       <c r="I11" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J11" s="13" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>204</v>
       </c>
@@ -11341,8 +11406,9 @@
       <c r="I12" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>205</v>
       </c>
@@ -11363,8 +11429,11 @@
       <c r="I13" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J13" s="13" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>211</v>
       </c>
@@ -11383,8 +11452,9 @@
       <c r="I14" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>219</v>
       </c>
@@ -11403,8 +11473,9 @@
       <c r="I15" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>225</v>
       </c>
@@ -11427,8 +11498,9 @@
       <c r="I16" s="2" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>234</v>
       </c>
@@ -11447,8 +11519,9 @@
       <c r="I17" s="2" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>238</v>
       </c>
@@ -11469,8 +11542,9 @@
       <c r="I18" s="2" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>1512</v>
       </c>
@@ -11491,8 +11565,9 @@
       <c r="I19" s="2" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>892</v>
       </c>
@@ -11515,8 +11590,9 @@
       <c r="I20" s="2" t="s">
         <v>1546</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>260</v>
       </c>
@@ -11533,8 +11609,9 @@
       <c r="I21" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>261</v>
       </c>
@@ -11553,8 +11630,9 @@
       <c r="I22" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>266</v>
       </c>
@@ -11573,8 +11651,9 @@
       <c r="I23" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>271</v>
       </c>
@@ -11597,8 +11676,9 @@
       <c r="I24" s="2" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>280</v>
       </c>
@@ -11619,8 +11699,9 @@
       <c r="I25" s="2" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>288</v>
       </c>
@@ -11645,8 +11726,9 @@
       <c r="I26" s="2" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>298</v>
       </c>
@@ -11667,8 +11749,9 @@
       <c r="I27" s="2" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>307</v>
       </c>
@@ -11690,8 +11773,9 @@
       <c r="I28" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>316</v>
       </c>
@@ -11713,8 +11797,9 @@
       <c r="I29" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>321</v>
       </c>
@@ -11734,8 +11819,9 @@
       <c r="I30" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>324</v>
       </c>
@@ -11756,8 +11842,9 @@
       <c r="I31" s="2" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>331</v>
       </c>
@@ -11779,8 +11866,9 @@
       <c r="I32" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>337</v>
       </c>
@@ -11800,8 +11888,9 @@
       <c r="I33" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>338</v>
       </c>
@@ -11822,8 +11911,9 @@
       <c r="I34" s="2" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>347</v>
       </c>
@@ -11844,8 +11934,9 @@
       <c r="I35" s="2" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>357</v>
       </c>
@@ -11864,8 +11955,11 @@
       <c r="I36" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J36" s="13" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>1404</v>
       </c>
@@ -11886,8 +11980,9 @@
       <c r="I37" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>377</v>
       </c>
@@ -11907,8 +12002,9 @@
       <c r="I38" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>384</v>
       </c>
@@ -11929,8 +12025,9 @@
       <c r="I39" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>394</v>
       </c>
@@ -11952,8 +12049,9 @@
       <c r="I40" s="2" t="s">
         <v>1553</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J40" s="13"/>
+    </row>
+    <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>402</v>
       </c>
@@ -11975,8 +12073,9 @@
       <c r="I41" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>409</v>
       </c>
@@ -12000,8 +12099,9 @@
       <c r="I42" s="2" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>1241</v>
       </c>
@@ -12021,8 +12121,9 @@
       <c r="I43" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J43" s="13"/>
+    </row>
+    <row r="44" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>416</v>
       </c>
@@ -12042,8 +12143,9 @@
       <c r="I44" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="J44" s="13"/>
+    </row>
+    <row r="45" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>1243</v>
       </c>
@@ -12063,8 +12165,9 @@
       <c r="I45" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J45" s="13"/>
+    </row>
+    <row r="46" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>434</v>
       </c>
@@ -12088,8 +12191,9 @@
       <c r="I46" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J46" s="13"/>
+    </row>
+    <row r="47" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>439</v>
       </c>
@@ -12111,8 +12215,9 @@
       <c r="I47" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J47" s="13"/>
+    </row>
+    <row r="48" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>449</v>
       </c>
@@ -12134,8 +12239,9 @@
       <c r="I48" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J48" s="13"/>
+    </row>
+    <row r="49" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>454</v>
       </c>
@@ -12157,8 +12263,9 @@
       <c r="I49" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J49" s="13"/>
+    </row>
+    <row r="50" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>463</v>
       </c>
@@ -12178,8 +12285,9 @@
       <c r="I50" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J50" s="13"/>
+    </row>
+    <row r="51" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>476</v>
       </c>
@@ -12203,8 +12311,11 @@
       <c r="I51" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J51" s="13" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>483</v>
       </c>
@@ -12226,8 +12337,9 @@
       <c r="I52" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="J52" s="13"/>
+    </row>
+    <row r="53" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>489</v>
       </c>
@@ -12248,8 +12360,9 @@
       <c r="I53" s="2" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J53" s="13"/>
+    </row>
+    <row r="54" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>499</v>
       </c>
@@ -12271,8 +12384,11 @@
       <c r="I54" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J54" s="13" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>505</v>
       </c>
@@ -12292,8 +12408,9 @@
       <c r="I55" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J55" s="13"/>
+    </row>
+    <row r="56" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>506</v>
       </c>
@@ -12313,8 +12430,9 @@
       <c r="I56" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J56" s="13"/>
+    </row>
+    <row r="57" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>507</v>
       </c>
@@ -12336,8 +12454,9 @@
       <c r="I57" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J57" s="13"/>
+    </row>
+    <row r="58" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>512</v>
       </c>
@@ -12357,8 +12476,9 @@
       <c r="I58" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J58" s="13"/>
+    </row>
+    <row r="59" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>513</v>
       </c>
@@ -12380,8 +12500,11 @@
       <c r="I59" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J59" s="13" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>519</v>
       </c>
@@ -12401,8 +12524,9 @@
       <c r="I60" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J60" s="13"/>
+    </row>
+    <row r="61" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>1390</v>
       </c>
@@ -12426,8 +12550,11 @@
       <c r="I61" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J61" s="13" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>526</v>
       </c>
@@ -12449,8 +12576,9 @@
       <c r="I62" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J62" s="13"/>
+    </row>
+    <row r="63" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>1250</v>
       </c>
@@ -12470,8 +12598,9 @@
       <c r="I63" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J63" s="13"/>
+    </row>
+    <row r="64" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>538</v>
       </c>
@@ -12492,8 +12621,9 @@
       <c r="I64" s="2" t="s">
         <v>1556</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="J64" s="13"/>
+    </row>
+    <row r="65" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>545</v>
       </c>
@@ -12519,8 +12649,9 @@
       <c r="I65" s="2" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J65" s="13"/>
+    </row>
+    <row r="66" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>553</v>
       </c>
@@ -12540,8 +12671,9 @@
       <c r="I66" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J66" s="13"/>
+    </row>
+    <row r="67" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>556</v>
       </c>
@@ -12563,8 +12695,9 @@
       <c r="I67" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J67" s="13"/>
+    </row>
+    <row r="68" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>559</v>
       </c>
@@ -12583,8 +12716,9 @@
       <c r="I68" s="2" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J68" s="13"/>
+    </row>
+    <row r="69" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>567</v>
       </c>
@@ -12606,8 +12740,9 @@
       <c r="I69" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J69" s="13"/>
+    </row>
+    <row r="70" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>571</v>
       </c>
@@ -12631,8 +12766,9 @@
       <c r="I70" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J70" s="13"/>
+    </row>
+    <row r="71" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>576</v>
       </c>
@@ -12654,8 +12790,9 @@
       <c r="I71" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J71" s="13"/>
+    </row>
+    <row r="72" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>585</v>
       </c>
@@ -12675,8 +12812,9 @@
       <c r="I72" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J72" s="13"/>
+    </row>
+    <row r="73" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>586</v>
       </c>
@@ -12698,8 +12836,9 @@
       <c r="I73" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J73" s="13"/>
+    </row>
+    <row r="74" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>590</v>
       </c>
@@ -12719,8 +12858,9 @@
       <c r="I74" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J74" s="13"/>
+    </row>
+    <row r="75" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>591</v>
       </c>
@@ -12740,8 +12880,9 @@
       <c r="I75" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J75" s="13"/>
+    </row>
+    <row r="76" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>592</v>
       </c>
@@ -12763,8 +12904,9 @@
       <c r="I76" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J76" s="13"/>
+    </row>
+    <row r="77" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
         <v>596</v>
       </c>
@@ -12784,8 +12926,9 @@
       <c r="I77" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J77" s="13"/>
+    </row>
+    <row r="78" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
         <v>602</v>
       </c>
@@ -12807,8 +12950,9 @@
       <c r="I78" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J78" s="13"/>
+    </row>
+    <row r="79" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
         <v>605</v>
       </c>
@@ -12828,8 +12972,9 @@
       <c r="I79" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J79" s="13"/>
+    </row>
+    <row r="80" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
         <v>606</v>
       </c>
@@ -12849,8 +12994,9 @@
       <c r="I80" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="J80" s="13"/>
+    </row>
+    <row r="81" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
         <v>607</v>
       </c>
@@ -12872,8 +13018,9 @@
       <c r="I81" s="2" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J81" s="13"/>
+    </row>
+    <row r="82" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
         <v>614</v>
       </c>
@@ -12893,8 +13040,11 @@
       <c r="I82" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J82" s="13" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
         <v>619</v>
       </c>
@@ -12916,8 +13066,11 @@
       <c r="I83" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J83" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>627</v>
       </c>
@@ -12941,8 +13094,9 @@
       <c r="I84" s="2" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J84" s="13"/>
+    </row>
+    <row r="85" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
         <v>636</v>
       </c>
@@ -12966,8 +13120,9 @@
       <c r="I85" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J85" s="13"/>
+    </row>
+    <row r="86" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
         <v>643</v>
       </c>
@@ -12991,8 +13146,9 @@
       <c r="I86" s="2" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J86" s="13"/>
+    </row>
+    <row r="87" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
         <v>649</v>
       </c>
@@ -13016,8 +13172,9 @@
       <c r="I87" s="2" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J87" s="13"/>
+    </row>
+    <row r="88" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
         <v>660</v>
       </c>
@@ -13037,8 +13194,9 @@
       <c r="I88" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J88" s="13"/>
+    </row>
+    <row r="89" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
         <v>163</v>
       </c>
@@ -13059,8 +13217,9 @@
       <c r="H89" s="14" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J89" s="13"/>
+    </row>
+    <row r="90" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
         <v>1287</v>
       </c>
@@ -13083,8 +13242,9 @@
       <c r="I90" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J90" s="13"/>
+    </row>
+    <row r="91" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
         <v>1289</v>
       </c>
@@ -13107,8 +13267,9 @@
       <c r="I91" s="2" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J91" s="13"/>
+    </row>
+    <row r="92" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>680</v>
       </c>
@@ -13129,8 +13290,9 @@
       <c r="I92" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J92" s="13"/>
+    </row>
+    <row r="93" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
         <v>1293</v>
       </c>
@@ -13151,8 +13313,9 @@
       <c r="I93" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J93" s="13"/>
+    </row>
+    <row r="94" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
         <v>691</v>
       </c>
@@ -13174,8 +13337,9 @@
       <c r="I94" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="J94" s="13"/>
+    </row>
+    <row r="95" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
         <v>694</v>
       </c>
@@ -13199,8 +13363,9 @@
       <c r="I95" s="2" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J95" s="13"/>
+    </row>
+    <row r="96" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>700</v>
       </c>
@@ -13221,8 +13386,9 @@
       <c r="I96" s="2" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J96" s="13"/>
+    </row>
+    <row r="97" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
         <v>707</v>
       </c>
@@ -13245,8 +13411,9 @@
       <c r="I97" s="2" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J97" s="13"/>
+    </row>
+    <row r="98" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
         <v>715</v>
       </c>
@@ -13266,8 +13433,9 @@
       <c r="I98" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J98" s="13"/>
+    </row>
+    <row r="99" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
         <v>716</v>
       </c>
@@ -13291,8 +13459,9 @@
       <c r="I99" s="2" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J99" s="13"/>
+    </row>
+    <row r="100" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>723</v>
       </c>
@@ -13312,8 +13481,9 @@
       <c r="I100" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J100" s="13"/>
+    </row>
+    <row r="101" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>724</v>
       </c>
@@ -13333,8 +13503,9 @@
       <c r="I101" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J101" s="13"/>
+    </row>
+    <row r="102" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
         <v>733</v>
       </c>
@@ -13356,8 +13527,9 @@
       <c r="I102" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J102" s="13"/>
+    </row>
+    <row r="103" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
         <v>739</v>
       </c>
@@ -13377,8 +13549,9 @@
       <c r="I103" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J103" s="13"/>
+    </row>
+    <row r="104" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
         <v>740</v>
       </c>
@@ -13401,8 +13574,9 @@
       <c r="I104" s="2" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J104" s="13"/>
+    </row>
+    <row r="105" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
         <v>1309</v>
       </c>
@@ -13425,8 +13599,9 @@
       <c r="I105" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J105" s="13"/>
+    </row>
+    <row r="106" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
         <v>755</v>
       </c>
@@ -13446,8 +13621,9 @@
       <c r="I106" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J106" s="13"/>
+    </row>
+    <row r="107" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
         <v>756</v>
       </c>
@@ -13467,8 +13643,9 @@
       <c r="I107" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J107" s="13"/>
+    </row>
+    <row r="108" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
         <v>757</v>
       </c>
@@ -13487,8 +13664,9 @@
       <c r="I108" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J108" s="13"/>
+    </row>
+    <row r="109" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>767</v>
       </c>
@@ -13507,8 +13685,9 @@
       <c r="I109" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J109" s="13"/>
+    </row>
+    <row r="110" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
         <v>771</v>
       </c>
@@ -13528,8 +13707,9 @@
       <c r="I110" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="J110" s="13"/>
+    </row>
+    <row r="111" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>772</v>
       </c>
@@ -13550,8 +13730,9 @@
       <c r="I111" s="2" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J111" s="13"/>
+    </row>
+    <row r="112" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
         <v>781</v>
       </c>
@@ -13570,8 +13751,11 @@
       <c r="I112" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J112" s="13" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
         <v>784</v>
       </c>
@@ -13593,8 +13777,9 @@
       <c r="I113" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J113" s="13"/>
+    </row>
+    <row r="114" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>792</v>
       </c>
@@ -13614,8 +13799,9 @@
       <c r="I114" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J114" s="13"/>
+    </row>
+    <row r="115" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>793</v>
       </c>
@@ -13637,8 +13823,9 @@
       <c r="I115" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J115" s="13"/>
+    </row>
+    <row r="116" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>805</v>
       </c>
@@ -13658,8 +13845,9 @@
       <c r="I116" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J116" s="13"/>
+    </row>
+    <row r="117" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
         <v>810</v>
       </c>
@@ -13683,8 +13871,9 @@
       <c r="I117" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J117" s="13"/>
+    </row>
+    <row r="118" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
         <v>816</v>
       </c>
@@ -13706,8 +13895,9 @@
       <c r="I118" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J118" s="13"/>
+    </row>
+    <row r="119" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
         <v>820</v>
       </c>
@@ -13729,8 +13919,9 @@
       <c r="I119" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J119" s="13"/>
+    </row>
+    <row r="120" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
         <v>828</v>
       </c>
@@ -13752,8 +13943,11 @@
       <c r="I120" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J120" s="13" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
         <v>838</v>
       </c>
@@ -13775,8 +13969,11 @@
       <c r="I121" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J121" s="13" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
         <v>846</v>
       </c>
@@ -13798,8 +13995,9 @@
       <c r="I122" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J122" s="13"/>
+    </row>
+    <row r="123" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
         <v>854</v>
       </c>
@@ -13821,8 +14019,11 @@
       <c r="I123" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J123" s="13" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
         <v>859</v>
       </c>
@@ -13846,8 +14047,9 @@
       <c r="I124" s="2" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J124" s="13"/>
+    </row>
+    <row r="125" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
         <v>868</v>
       </c>
@@ -13867,8 +14069,9 @@
       <c r="I125" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J125" s="13"/>
+    </row>
+    <row r="126" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
         <v>880</v>
       </c>
@@ -13888,8 +14091,9 @@
       <c r="I126" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J126" s="13"/>
+    </row>
+    <row r="127" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
         <v>881</v>
       </c>
@@ -13909,8 +14113,9 @@
       <c r="I127" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J127" s="13"/>
+    </row>
+    <row r="128" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
         <v>1325</v>
       </c>
@@ -13930,8 +14135,9 @@
       <c r="I128" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="J128" s="13"/>
+    </row>
+    <row r="129" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
         <v>884</v>
       </c>
@@ -13953,8 +14159,9 @@
       <c r="I129" s="2" t="s">
         <v>1569</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J129" s="13"/>
+    </row>
+    <row r="130" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>887</v>
       </c>
@@ -13978,8 +14185,9 @@
       <c r="I130" s="2" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J130" s="13"/>
+    </row>
+    <row r="131" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
         <v>893</v>
       </c>
@@ -14000,8 +14208,9 @@
       <c r="I131" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J131" s="13"/>
+    </row>
+    <row r="132" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
         <v>899</v>
       </c>
@@ -14022,8 +14231,9 @@
       <c r="I132" s="2" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J132" s="13"/>
+    </row>
+    <row r="133" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
         <v>905</v>
       </c>
@@ -14045,8 +14255,9 @@
       <c r="I133" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J133" s="13"/>
+    </row>
+    <row r="134" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
         <v>912</v>
       </c>
@@ -14066,8 +14277,9 @@
       <c r="I134" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J134" s="13"/>
+    </row>
+    <row r="135" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
         <v>913</v>
       </c>
@@ -14091,8 +14303,9 @@
       <c r="I135" s="2" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J135" s="13"/>
+    </row>
+    <row r="136" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
         <v>929</v>
       </c>
@@ -14112,8 +14325,9 @@
       <c r="I136" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J136" s="13"/>
+    </row>
+    <row r="137" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
         <v>930</v>
       </c>
@@ -14135,8 +14349,9 @@
       <c r="I137" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J137" s="13"/>
+    </row>
+    <row r="138" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>934</v>
       </c>
@@ -14158,8 +14373,9 @@
       <c r="I138" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J138" s="13"/>
+    </row>
+    <row r="139" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
         <v>939</v>
       </c>
@@ -14181,8 +14397,9 @@
       <c r="I139" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J139" s="13"/>
+    </row>
+    <row r="140" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
         <v>945</v>
       </c>
@@ -14204,8 +14421,11 @@
       <c r="I140" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J140" s="13" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
         <v>1332</v>
       </c>
@@ -14225,8 +14445,9 @@
       <c r="I141" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J141" s="13"/>
+    </row>
+    <row r="142" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
         <v>951</v>
       </c>
@@ -14246,8 +14467,9 @@
       <c r="I142" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J142" s="13"/>
+    </row>
+    <row r="143" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
         <v>958</v>
       </c>
@@ -14269,8 +14491,9 @@
       <c r="I143" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J143" s="13"/>
+    </row>
+    <row r="144" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="10" t="s">
         <v>963</v>
       </c>
@@ -14294,8 +14517,9 @@
       <c r="I144" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J144" s="13"/>
+    </row>
+    <row r="145" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
         <v>973</v>
       </c>
@@ -14315,8 +14539,9 @@
       <c r="I145" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="J145" s="13"/>
+    </row>
+    <row r="146" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
         <v>974</v>
       </c>
@@ -14336,8 +14561,9 @@
       <c r="I146" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J146" s="13"/>
+    </row>
+    <row r="147" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
         <v>1336</v>
       </c>
@@ -14359,8 +14585,9 @@
       <c r="I147" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J147" s="13"/>
+    </row>
+    <row r="148" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
         <v>987</v>
       </c>
@@ -14385,8 +14612,9 @@
       <c r="I148" s="2" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J148" s="13"/>
+    </row>
+    <row r="149" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="10" t="s">
         <v>448</v>
       </c>
@@ -14410,8 +14638,9 @@
       <c r="I149" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J149" s="13"/>
+    </row>
+    <row r="150" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
         <v>1002</v>
       </c>
@@ -14433,8 +14662,9 @@
       <c r="I150" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J150" s="13"/>
+    </row>
+    <row r="151" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
         <v>1009</v>
       </c>
@@ -14456,8 +14686,9 @@
       <c r="I151" s="2" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J151" s="13"/>
+    </row>
+    <row r="152" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
         <v>1015</v>
       </c>
@@ -14479,8 +14710,9 @@
       <c r="I152" s="2" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J152" s="13"/>
+    </row>
+    <row r="153" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
         <v>1023</v>
       </c>
@@ -14502,8 +14734,9 @@
       <c r="I153" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J153" s="13"/>
+    </row>
+    <row r="154" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
         <v>1025</v>
       </c>
@@ -14525,8 +14758,9 @@
       <c r="I154" s="2" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J154" s="13"/>
+    </row>
+    <row r="155" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
         <v>1030</v>
       </c>
@@ -14548,8 +14782,9 @@
       <c r="I155" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J155" s="13"/>
+    </row>
+    <row r="156" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
         <v>1035</v>
       </c>
@@ -14573,8 +14808,9 @@
       <c r="I156" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J156" s="13"/>
+    </row>
+    <row r="157" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
         <v>1039</v>
       </c>
@@ -14593,8 +14829,9 @@
       <c r="I157" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J157" s="13"/>
+    </row>
+    <row r="158" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
         <v>1047</v>
       </c>
@@ -14616,8 +14853,9 @@
       <c r="I158" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J158" s="13"/>
+    </row>
+    <row r="159" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
         <v>1052</v>
       </c>
@@ -14639,8 +14877,9 @@
       <c r="I159" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J159" s="13"/>
+    </row>
+    <row r="160" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
         <v>1057</v>
       </c>
@@ -14660,8 +14899,9 @@
       <c r="I160" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J160" s="13"/>
+    </row>
+    <row r="161" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
         <v>1058</v>
       </c>
@@ -14681,8 +14921,9 @@
       <c r="I161" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J161" s="13"/>
+    </row>
+    <row r="162" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
         <v>1059</v>
       </c>
@@ -14704,8 +14945,9 @@
       <c r="I162" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J162" s="13"/>
+    </row>
+    <row r="163" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="10" t="s">
         <v>1066</v>
       </c>
@@ -14725,8 +14967,9 @@
       <c r="I163" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J163" s="13"/>
+    </row>
+    <row r="164" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
         <v>1071</v>
       </c>
@@ -14746,8 +14989,9 @@
       <c r="I164" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J164" s="13"/>
+    </row>
+    <row r="165" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
         <v>1072</v>
       </c>
@@ -14767,8 +15011,9 @@
       <c r="I165" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J165" s="13"/>
+    </row>
+    <row r="166" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="10" t="s">
         <v>1073</v>
       </c>
@@ -14792,8 +15037,9 @@
       <c r="I166" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="J166" s="13"/>
+    </row>
+    <row r="167" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A167" s="10" t="s">
         <v>1077</v>
       </c>
@@ -14818,8 +15064,9 @@
       <c r="I167" s="2" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="J167" s="13"/>
+    </row>
+    <row r="168" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A168" s="10" t="s">
         <v>1086</v>
       </c>
@@ -14843,8 +15090,9 @@
       <c r="I168" s="2" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J168" s="13"/>
+    </row>
+    <row r="169" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
         <v>1093</v>
       </c>
@@ -14866,8 +15114,9 @@
       <c r="I169" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J169" s="13"/>
+    </row>
+    <row r="170" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
         <v>1095</v>
       </c>
@@ -14887,8 +15136,9 @@
       <c r="I170" s="2" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J170" s="13"/>
+    </row>
+    <row r="171" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="10" t="s">
         <v>1101</v>
       </c>
@@ -14908,8 +15158,9 @@
       <c r="I171" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J171" s="13"/>
+    </row>
+    <row r="172" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
         <v>1102</v>
       </c>
@@ -14929,8 +15180,9 @@
       <c r="I172" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J172" s="13"/>
+    </row>
+    <row r="173" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
         <v>1103</v>
       </c>
@@ -14950,8 +15202,9 @@
       <c r="I173" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J173" s="13"/>
+    </row>
+    <row r="174" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
         <v>1104</v>
       </c>
@@ -14973,8 +15226,9 @@
       <c r="I174" s="2" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J174" s="13"/>
+    </row>
+    <row r="175" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
         <v>867</v>
       </c>
@@ -14996,8 +15250,9 @@
       <c r="I175" s="2" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J175" s="13"/>
+    </row>
+    <row r="176" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
         <v>1116</v>
       </c>
@@ -15019,8 +15274,9 @@
       <c r="I176" s="2" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J176" s="13"/>
+    </row>
+    <row r="177" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>1127</v>
       </c>
@@ -15044,8 +15300,9 @@
       <c r="I177" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J177" s="13"/>
+    </row>
+    <row r="178" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
         <v>1134</v>
       </c>
@@ -15069,8 +15326,9 @@
       <c r="I178" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J178" s="13"/>
+    </row>
+    <row r="179" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
         <v>1142</v>
       </c>
@@ -15088,8 +15346,9 @@
       <c r="I179" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="J179" s="13"/>
+    </row>
+    <row r="180" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
         <v>1143</v>
       </c>
@@ -15111,8 +15370,9 @@
       <c r="I180" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J180" s="13"/>
+    </row>
+    <row r="181" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
         <v>1158</v>
       </c>
@@ -15134,8 +15394,9 @@
       <c r="I181" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="J181" s="13"/>
+    </row>
+    <row r="182" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
         <v>1162</v>
       </c>
@@ -15159,8 +15420,9 @@
       <c r="I182" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J182" s="13"/>
+    </row>
+    <row r="183" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
         <v>1173</v>
       </c>
@@ -15181,14 +15443,15 @@
       <c r="I183" s="2" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J183" s="13"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="10" t="s">
         <v>1418</v>
       </c>
       <c r="B184" s="2"/>
     </row>
-    <row r="185" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
         <v>1419</v>
       </c>
@@ -15198,7 +15461,7 @@
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
     </row>
-    <row r="186" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
         <v>1422</v>
       </c>
@@ -15206,19 +15469,19 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
         <v>1424</v>
       </c>
       <c r="B187" s="2"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
         <v>1429</v>
       </c>
       <c r="B188" s="2"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
         <v>991</v>
       </c>
@@ -15227,7 +15490,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
         <v>1175</v>
       </c>
@@ -15236,13 +15499,13 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
         <v>1432</v>
       </c>
       <c r="B191" s="2"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
         <v>1433</v>
       </c>

--- a/raw/out.xlsx
+++ b/raw/out.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianesamson/Projects/cnet-analysis/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1373D9-633A-8146-84ED-99D2F19C26DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EE8C2E-DE01-4744-9015-055465B5EBE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out" sheetId="1" r:id="rId1"/>
     <sheet name="Nodes" sheetId="3" r:id="rId2"/>
-    <sheet name="MERGED_TO" sheetId="4" r:id="rId3"/>
-    <sheet name="SPLIT_INTO" sheetId="5" r:id="rId4"/>
-    <sheet name="ACTIVE_IN" sheetId="2" r:id="rId5"/>
+    <sheet name="Process" sheetId="6" r:id="rId3"/>
+    <sheet name="MERGED_TO" sheetId="4" r:id="rId4"/>
+    <sheet name="SPLIT_INTO" sheetId="5" r:id="rId5"/>
+    <sheet name="ACTIVE_IN" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="1678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="1725">
   <si>
     <t>Active</t>
   </si>
@@ -5067,6 +5068,147 @@
   </si>
   <si>
     <t>Juche;Songun</t>
+  </si>
+  <si>
+    <t>Al-Qaeda Central</t>
+  </si>
+  <si>
+    <t>Al-Qaeda in Iraq</t>
+  </si>
+  <si>
+    <t>Mujahideen Shura Council</t>
+  </si>
+  <si>
+    <t>Al-Qaeda in Palestine</t>
+  </si>
+  <si>
+    <t>Al-Qaeda in Somalia</t>
+  </si>
+  <si>
+    <t>Al-Qaeda in the Levant</t>
+  </si>
+  <si>
+    <t>Tahrir al-Sham</t>
+  </si>
+  <si>
+    <t>Khorasan Group</t>
+  </si>
+  <si>
+    <t>Al-Qaeda in Sinai Peninsula</t>
+  </si>
+  <si>
+    <t>Imam Shamil Battalion</t>
+  </si>
+  <si>
+    <t>Guardians of Religion Organization</t>
+  </si>
+  <si>
+    <t>Al-Qaeda Kurdish Battalions</t>
+  </si>
+  <si>
+    <t>Al Qaeda in the Lands Beyond the Sahel</t>
+  </si>
+  <si>
+    <t>Al-Qaeda in Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Al-Qaeda in Mali</t>
+  </si>
+  <si>
+    <t>Al-Qaeda in Spain</t>
+  </si>
+  <si>
+    <t>Al-Qaeda in the Malay Archipelago</t>
+  </si>
+  <si>
+    <t>Uqba bin Nafi Battalion</t>
+  </si>
+  <si>
+    <t>Liberation Army of the Workers and Peasants of Turkey</t>
+  </si>
+  <si>
+    <t>Marxist-Leninist Youth Union of Turkey</t>
+  </si>
+  <si>
+    <t>Republican Sinn Féin,</t>
+  </si>
+  <si>
+    <t>Fianna Éireann</t>
+  </si>
+  <si>
+    <t>Ansar al-Din Front - Harakat Fajr ash-Sham al-Islamiya</t>
+  </si>
+  <si>
+    <t>Liwa Suyuf al-Sham</t>
+  </si>
+  <si>
+    <t>Islamic Dawn Movement of the Levant,al-Murabitin Battalion</t>
+  </si>
+  <si>
+    <t>Osama Battalion</t>
+  </si>
+  <si>
+    <t>Abu Ali Yemeni Battalion</t>
+  </si>
+  <si>
+    <t>Abu Hilal Zitan Battalion</t>
+  </si>
+  <si>
+    <t>Abna Sharia</t>
+  </si>
+  <si>
+    <t>Ansar al-Haqq</t>
+  </si>
+  <si>
+    <t>Fursan al-Iman</t>
+  </si>
+  <si>
+    <t>KPA Ground Force</t>
+  </si>
+  <si>
+    <t>KPA Air Force,]</t>
+  </si>
+  <si>
+    <t>KPA Naval Forc,Strategic Force</t>
+  </si>
+  <si>
+    <t>Special Operation Force</t>
+  </si>
+  <si>
+    <t>People's Defence Forces</t>
+  </si>
+  <si>
+    <t>Free Women's Units</t>
+  </si>
+  <si>
+    <t>Young Loyalist Volunteers</t>
+  </si>
+  <si>
+    <t>National Council  Wing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boroland Army </t>
+  </si>
+  <si>
+    <t>Eastern Kurdistan Units</t>
+  </si>
+  <si>
+    <t>Women's Defence Forces</t>
+  </si>
+  <si>
+    <t>National Council of Resistance</t>
+  </si>
+  <si>
+    <t>Primarily,Pashtuns,</t>
+  </si>
+  <si>
+    <t>,[9],[10],Tajiks,,,Uzbeks,and,Turkmens,[11]</t>
+  </si>
+  <si>
+    <t>Kimilsungist-Kimjongilist Youth League</t>
+  </si>
+  <si>
+    <t>Korean Children's Union</t>
   </si>
 </sst>
 </file>
@@ -5972,8 +6114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FF183"/>
   <sheetViews>
-    <sheetView topLeftCell="CB1" workbookViewId="0">
-      <selection activeCell="CF2" sqref="CF2:CG180"/>
+    <sheetView topLeftCell="CD159" workbookViewId="0">
+      <selection activeCell="CH37" sqref="CH37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11290,8 +11432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14473BC5-CA06-354C-93C5-FC7E59939184}">
   <dimension ref="A1:L440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I175" workbookViewId="0">
-      <selection activeCell="L181" sqref="L181"/>
+    <sheetView topLeftCell="I89" workbookViewId="0">
+      <selection activeCell="K64" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17820,6 +17962,335 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114909E6-841D-654F-AF7F-6EF99A4F5B2F}">
+  <dimension ref="A1:X34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="404" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" t="s">
+        <v>878</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H3" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="L3" t="s">
+        <v>216</v>
+      </c>
+      <c r="M3" t="s">
+        <v>729</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1687</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" t="s">
+        <v>696</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="B6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="170" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1707</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="289" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+    </row>
+    <row r="33" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD19CD7-CE7C-B442-91AE-F8F6CB6B4909}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -17983,7 +18454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE031B1-D715-B041-940B-3288B964D934}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -18066,7 +18537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9884796C-EF2B-8040-B72D-9E5712D51CC0}">
   <dimension ref="A1:B36"/>
   <sheetViews>

--- a/raw/out.xlsx
+++ b/raw/out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianesamson/Projects/cnet-analysis/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EE8C2E-DE01-4744-9015-055465B5EBE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1453D0-95F0-384E-BA43-5F82A4A2210B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="1725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="1733">
   <si>
     <t>Active</t>
   </si>
@@ -3255,9 +3255,6 @@
     <t>Under control of the,Afghan Government,,,NATO,, and,Allies,Under control of the Taliban,,Al-Qaeda,, and,Allies,Under control of the,Islamic State,(ISIL) and,Allies</t>
   </si>
   <si>
-    <t>Primarily,Pashtuns,;,[9],[10],Tajiks,,,Uzbeks,and,Turkmens,[11]</t>
-  </si>
-  <si>
     <t>Deobandi,fundamentalism,[1],[2],[3],[4],Pashtunwali,[1],[5],[6],[7],Religious nationalism,[8],Salafism</t>
   </si>
   <si>
@@ -4800,9 +4797,6 @@
     <t>Republican Socialist Collective</t>
   </si>
   <si>
-    <t>Islamic State of Iraq and the Levant - Libyan Province,Islamic State of Iraq and the Levant - Sinai Province,Islamic State of Iraq and the Levant - Yemen Province,Islamic State of Iraq and the Levant - Algerian Province,Islamic State of Iraq and the Levant - Khorasan Province,Islamic State of Iraq and the Levant - West Africa Province,Islamic State of Iraq and the Levant - Caucasus Province,Islamic State of Iraq and the Levant - Somalia Province</t>
-  </si>
-  <si>
     <t>Ansar ut-Turkistan</t>
   </si>
   <si>
@@ -4812,9 +4806,6 @@
     <t xml:space="preserve">National Council  Wing;Boroland Army </t>
   </si>
   <si>
-    <t>KPA Ground Force;KPA Air Force,];KPA Naval Forc,Strategic Force;Special Operation Force</t>
-  </si>
-  <si>
     <t>National Liberation Army;National Council of Resistance</t>
   </si>
   <si>
@@ -5209,6 +5200,39 @@
   </si>
   <si>
     <t>Korean Children's Union</t>
+  </si>
+  <si>
+    <t>Islamic State of Iraq and the Levant - Libyan Province</t>
+  </si>
+  <si>
+    <t>Islamic State of Iraq and the Levant - Algerian Province</t>
+  </si>
+  <si>
+    <t>Islamic State of Iraq and the Levant - West Africa Province</t>
+  </si>
+  <si>
+    <t>Islamic State of Iraq and the Levant - Somalia Province</t>
+  </si>
+  <si>
+    <t>Islamic State of Iraq and the Levant - Libyan Province;Islamic State of Iraq and the Levant - Sinai Province;Islamic State of Iraq and the Levant - Yemen Province;Islamic State of Iraq and the Levant - Algerian Province;Islamic State of Iraq and the Levant - Khorasan Province;Islamic State of Iraq and the Levant - West Africa Province;Islamic State of Iraq and the Levant - Caucasus Province;Islamic State of Iraq and the Levant - Somalia Province</t>
+  </si>
+  <si>
+    <t>KPA Ground Force;KPA Air Force;KPA Naval Force;Strategic Force;Special Operation Force</t>
+  </si>
+  <si>
+    <t>Kurdistan Workers' Party (Turkey);Democratic Union Party (Syria);Kurdistan Free Life Party (Iran);Kurdistan Democratic Solution Party (Iraq);Kurdistan Communities of Women (KJK)</t>
+  </si>
+  <si>
+    <t>RHC Youth;Progressive Unionist Party</t>
+  </si>
+  <si>
+    <t>Ulster Young Militants;Ulster Political Research Group</t>
+  </si>
+  <si>
+    <t>Young Citizen Volunteers;Protestant Action Force;Progressive Unionist Party</t>
+  </si>
+  <si>
+    <t>Political Wing;Sanjukta Mukti Fouj</t>
   </si>
 </sst>
 </file>
@@ -6264,10 +6288,10 @@
   <sheetData>
     <row r="1" spans="1:162" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1362</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1363</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>42</v>
@@ -6315,10 +6339,10 @@
         <v>141</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>46</v>
@@ -6327,7 +6351,7 @@
         <v>49</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>102</v>
@@ -6366,13 +6390,13 @@
         <v>32</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>1364</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>1365</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>34</v>
@@ -6381,7 +6405,7 @@
         <v>38</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="AO1" s="8" t="s">
         <v>61</v>
@@ -6399,7 +6423,7 @@
         <v>6</v>
       </c>
       <c r="AT1" s="7" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="AU1" s="7" t="s">
         <v>109</v>
@@ -6549,7 +6573,7 @@
         <v>69</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="CV1" s="2" t="s">
         <v>63</v>
@@ -6615,7 +6639,7 @@
         <v>40</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="DS1" s="1" t="s">
         <v>50</v>
@@ -6746,7 +6770,7 @@
         <v>150</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AT2" s="7" t="s">
         <v>148</v>
@@ -6774,7 +6798,7 @@
         <v>1991</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="AR4" s="8" t="s">
         <v>156</v>
@@ -6809,7 +6833,7 @@
         <v>1996</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AR5" s="8" t="s">
         <v>166</v>
@@ -6844,7 +6868,7 @@
         <v>2013</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="AS6" s="7" t="s">
         <v>172</v>
@@ -6907,7 +6931,7 @@
         <v>190</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="CG9" s="7" t="s">
         <v>189</v>
@@ -6938,7 +6962,7 @@
         <v>198</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AT11" s="7" t="s">
         <v>196</v>
@@ -7007,7 +7031,7 @@
         <v>2006</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AR14" s="8" t="s">
         <v>212</v>
@@ -7068,22 +7092,22 @@
         <v>2017</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AR16" s="8" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AS16" s="7" t="s">
         <v>224</v>
       </c>
       <c r="AZ16" s="7" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="BE16" s="7" t="s">
         <v>223</v>
       </c>
       <c r="BY16" s="7" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="BZ16" s="7" t="s">
         <v>228</v>
@@ -7092,7 +7116,7 @@
         <v>226</v>
       </c>
       <c r="CO16" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="17" spans="1:100" ht="119" x14ac:dyDescent="0.2">
@@ -7100,7 +7124,7 @@
         <v>230</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AI17" s="1">
         <v>1988</v>
@@ -7115,16 +7139,16 @@
         <v>231</v>
       </c>
       <c r="BY17" s="7" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="BZ17" s="7" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="CG17" s="7" t="s">
         <v>233</v>
       </c>
       <c r="CO17" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="18" spans="1:100" ht="136" x14ac:dyDescent="0.2">
@@ -7132,13 +7156,13 @@
         <v>234</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AI18" s="1">
         <v>2009</v>
       </c>
       <c r="AN18" s="2" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AR18" s="8" t="s">
         <v>236</v>
@@ -7150,10 +7174,10 @@
         <v>209</v>
       </c>
       <c r="BE18" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="BY18" s="7" t="s">
         <v>1181</v>
-      </c>
-      <c r="BY18" s="7" t="s">
-        <v>1182</v>
       </c>
       <c r="BZ18" s="7" t="s">
         <v>239</v>
@@ -7179,7 +7203,7 @@
         <v>2014</v>
       </c>
       <c r="AN19" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AS19" s="7" t="s">
         <v>243</v>
@@ -7205,7 +7229,7 @@
         <v>248</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>252</v>
@@ -7214,7 +7238,7 @@
         <v>2007</v>
       </c>
       <c r="AN20" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AR20" s="8" t="s">
         <v>250</v>
@@ -7226,10 +7250,10 @@
         <v>230</v>
       </c>
       <c r="BE20" s="7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="BY20" s="7" t="s">
         <v>1186</v>
-      </c>
-      <c r="BY20" s="7" t="s">
-        <v>1187</v>
       </c>
       <c r="BZ20" s="7" t="s">
         <v>253</v>
@@ -7260,7 +7284,7 @@
         <v>1971</v>
       </c>
       <c r="AN22" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="BZ22" s="7" t="s">
         <v>259</v>
@@ -7280,7 +7304,7 @@
         <v>1990</v>
       </c>
       <c r="AN23" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AS23" s="7" t="s">
         <v>262</v>
@@ -7309,7 +7333,7 @@
         <v>2017</v>
       </c>
       <c r="AN24" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="AS24" s="7" t="s">
         <v>268</v>
@@ -7330,7 +7354,7 @@
         <v>270</v>
       </c>
       <c r="CO24" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="25" spans="1:100" ht="17" x14ac:dyDescent="0.2">
@@ -7344,7 +7368,7 @@
         <v>2013</v>
       </c>
       <c r="AN25" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AS25" s="7" t="s">
         <v>277</v>
@@ -7376,7 +7400,7 @@
         <v>285</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AI26" s="1">
         <v>2001</v>
@@ -7385,7 +7409,7 @@
         <v>2014</v>
       </c>
       <c r="AN26" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="AR26" s="8" t="s">
         <v>286</v>
@@ -7397,10 +7421,10 @@
         <v>290</v>
       </c>
       <c r="BE26" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="BY26" s="7" t="s">
         <v>1195</v>
-      </c>
-      <c r="BY26" s="7" t="s">
-        <v>1196</v>
       </c>
       <c r="BZ26" s="7" t="s">
         <v>288</v>
@@ -7432,7 +7456,7 @@
         <v>2007</v>
       </c>
       <c r="AN27" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AS27" s="7" t="s">
         <v>294</v>
@@ -7467,7 +7491,7 @@
         <v>2014</v>
       </c>
       <c r="AN28" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="AR28" s="8" t="s">
         <v>306</v>
@@ -7488,7 +7512,7 @@
         <v>307</v>
       </c>
       <c r="CO28" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="29" spans="1:100" ht="51" x14ac:dyDescent="0.2">
@@ -7505,7 +7529,7 @@
         <v>2017</v>
       </c>
       <c r="AN29" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AS29" s="7" t="s">
         <v>311</v>
@@ -7546,13 +7570,13 @@
         <v>2015</v>
       </c>
       <c r="AN31" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AS31" s="7" t="s">
         <v>320</v>
       </c>
       <c r="AZ31" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="BE31" s="7" t="s">
         <v>319</v>
@@ -7567,7 +7591,7 @@
         <v>322</v>
       </c>
       <c r="CO31" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="32" spans="1:100" ht="34" x14ac:dyDescent="0.2">
@@ -7575,7 +7599,7 @@
         <v>325</v>
       </c>
       <c r="AH32" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AT32" s="7" t="s">
         <v>326</v>
@@ -7609,7 +7633,7 @@
         <v>2006</v>
       </c>
       <c r="AN34" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="AS34" s="7" t="s">
         <v>334</v>
@@ -7621,7 +7645,7 @@
         <v>333</v>
       </c>
       <c r="BY34" s="7" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="BZ34" s="7" t="s">
         <v>337</v>
@@ -7641,7 +7665,7 @@
         <v>341</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AR35" s="8" t="s">
         <v>345</v>
@@ -7653,7 +7677,7 @@
         <v>347</v>
       </c>
       <c r="BD35" s="7" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="BE35" s="7" t="s">
         <v>342</v>
@@ -7662,10 +7686,10 @@
         <v>349</v>
       </c>
       <c r="BY35" s="7" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="BZ35" s="7" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="CG35" s="7" t="s">
         <v>346</v>
@@ -7685,7 +7709,7 @@
         <v>354</v>
       </c>
       <c r="AH36" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="AT36" s="7" t="s">
         <v>352</v>
@@ -7755,10 +7779,10 @@
         <v>375</v>
       </c>
       <c r="AF38" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="BA38" s="8" t="s">
         <v>1213</v>
-      </c>
-      <c r="BA38" s="8" t="s">
-        <v>1214</v>
       </c>
       <c r="BB38" s="7" t="s">
         <v>374</v>
@@ -7848,10 +7872,10 @@
         <v>2002</v>
       </c>
       <c r="AN41" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AR41" s="8" t="s">
         <v>1215</v>
-      </c>
-      <c r="AR41" s="8" t="s">
-        <v>1216</v>
       </c>
       <c r="AS41" s="7" t="s">
         <v>397</v>
@@ -7866,7 +7890,7 @@
         <v>400</v>
       </c>
       <c r="CO41" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="42" spans="1:157" ht="85" x14ac:dyDescent="0.2">
@@ -7874,10 +7898,10 @@
         <v>403</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AI42" s="1">
         <v>2007</v>
@@ -7886,7 +7910,7 @@
         <v>2016</v>
       </c>
       <c r="AN42" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AR42" s="8" t="s">
         <v>405</v>
@@ -7895,13 +7919,13 @@
         <v>404</v>
       </c>
       <c r="BE42" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="BY42" s="7" t="s">
         <v>1219</v>
       </c>
-      <c r="BY42" s="7" t="s">
-        <v>1220</v>
-      </c>
       <c r="BZ42" s="7" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="CG42" s="7" t="s">
         <v>406</v>
@@ -7909,7 +7933,7 @@
     </row>
     <row r="43" spans="1:157" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>408</v>
@@ -7953,7 +7977,7 @@
         <v>417</v>
       </c>
       <c r="CG44" s="7" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="CJ44" s="1" t="s">
         <v>415</v>
@@ -7967,7 +7991,7 @@
     </row>
     <row r="45" spans="1:157" ht="85" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>421</v>
@@ -7994,7 +8018,7 @@
         <v>426</v>
       </c>
       <c r="CG45" s="7" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="CJ45" s="1" t="s">
         <v>415</v>
@@ -8011,7 +8035,7 @@
         <v>430</v>
       </c>
       <c r="AH46" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AT46" s="7" t="s">
         <v>429</v>
@@ -8069,7 +8093,7 @@
         <v>445</v>
       </c>
       <c r="BA48" s="8" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="CG48" s="7" t="s">
         <v>446</v>
@@ -8165,7 +8189,7 @@
         <v>473</v>
       </c>
       <c r="AH51" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AT51" s="7" t="s">
         <v>470</v>
@@ -8226,7 +8250,7 @@
         <v>1988</v>
       </c>
       <c r="AN53" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AR53" s="8" t="s">
         <v>486</v>
@@ -8261,7 +8285,7 @@
         <v>495</v>
       </c>
       <c r="AH54" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AT54" s="7" t="s">
         <v>493</v>
@@ -8319,7 +8343,7 @@
         <v>509</v>
       </c>
       <c r="AH59" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="AT59" s="7" t="s">
         <v>507</v>
@@ -8341,7 +8365,7 @@
     </row>
     <row r="61" spans="1:159" ht="68" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>513</v>
@@ -8408,7 +8432,7 @@
     </row>
     <row r="63" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="64" spans="1:159" ht="34" x14ac:dyDescent="0.2">
@@ -8422,7 +8446,7 @@
         <v>1980</v>
       </c>
       <c r="AN64" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AS64" s="7" t="s">
         <v>533</v>
@@ -8434,7 +8458,7 @@
         <v>532</v>
       </c>
       <c r="BY64" s="7" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="BZ64" s="7" t="s">
         <v>536</v>
@@ -8443,7 +8467,7 @@
         <v>534</v>
       </c>
       <c r="CO64" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="65" spans="1:157" ht="85" x14ac:dyDescent="0.2">
@@ -8460,7 +8484,7 @@
         <v>2013</v>
       </c>
       <c r="AN65" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AS65" s="7" t="s">
         <v>540</v>
@@ -8469,16 +8493,16 @@
         <v>544</v>
       </c>
       <c r="BD65" s="7" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="BE65" s="7" t="s">
         <v>539</v>
       </c>
       <c r="BY65" s="7" t="s">
+        <v>1238</v>
+      </c>
+      <c r="BZ65" s="7" t="s">
         <v>1239</v>
-      </c>
-      <c r="BZ65" s="7" t="s">
-        <v>1240</v>
       </c>
       <c r="CG65" s="7" t="s">
         <v>541</v>
@@ -8509,7 +8533,7 @@
         <v>551</v>
       </c>
       <c r="AH67" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="AR67" s="8" t="s">
         <v>550</v>
@@ -8529,7 +8553,7 @@
         <v>2017</v>
       </c>
       <c r="AN68" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="AS68" s="7" t="s">
         <v>554</v>
@@ -8541,7 +8565,7 @@
         <v>553</v>
       </c>
       <c r="BY68" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="BZ68" s="7" t="s">
         <v>557</v>
@@ -8558,13 +8582,13 @@
         <v>2015</v>
       </c>
       <c r="AN69" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="AS69" s="7" t="s">
         <v>560</v>
       </c>
       <c r="BY69" s="7" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="BZ69" s="7" t="s">
         <v>562</v>
@@ -8587,19 +8611,19 @@
         <v>1975</v>
       </c>
       <c r="AN70" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="AS70" s="7" t="s">
         <v>533</v>
       </c>
       <c r="BY70" s="7" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="CG70" s="7" t="s">
         <v>564</v>
       </c>
       <c r="CO70" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="71" spans="1:157" ht="85" x14ac:dyDescent="0.2">
@@ -8653,7 +8677,7 @@
         <v>1983</v>
       </c>
       <c r="AN73" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="AS73" s="7" t="s">
         <v>507</v>
@@ -8683,10 +8707,10 @@
         <v>585</v>
       </c>
       <c r="AH76" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="AT76" s="7" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="CG76" s="7" t="s">
         <v>584</v>
@@ -8718,7 +8742,7 @@
         <v>592</v>
       </c>
       <c r="CQ77" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="78" spans="1:157" ht="51" x14ac:dyDescent="0.2">
@@ -8729,7 +8753,7 @@
         <v>595</v>
       </c>
       <c r="AH78" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="AR78" s="8" t="s">
         <v>594</v>
@@ -8756,7 +8780,7 @@
         <v>1994</v>
       </c>
       <c r="AN81" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="AR81" s="8" t="s">
         <v>600</v>
@@ -8765,10 +8789,10 @@
         <v>599</v>
       </c>
       <c r="BE81" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="BZ81" s="7" t="s">
         <v>1255</v>
-      </c>
-      <c r="BZ81" s="7" t="s">
-        <v>1256</v>
       </c>
       <c r="CG81" s="7" t="s">
         <v>601</v>
@@ -8788,7 +8812,7 @@
         <v>607</v>
       </c>
       <c r="AH82" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="BV82" s="7" t="s">
         <v>609</v>
@@ -8846,7 +8870,7 @@
         <v>1974</v>
       </c>
       <c r="AN84" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="AR84" s="8" t="s">
         <v>622</v>
@@ -8864,7 +8888,7 @@
         <v>624</v>
       </c>
       <c r="CG84" s="7" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="CO84" s="1" t="s">
         <v>626</v>
@@ -8887,7 +8911,7 @@
         <v>1992</v>
       </c>
       <c r="AN85" s="2" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="AS85" s="7" t="s">
         <v>628</v>
@@ -8902,7 +8926,7 @@
         <v>630</v>
       </c>
       <c r="CO85" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="86" spans="1:157" ht="34" x14ac:dyDescent="0.2">
@@ -8919,7 +8943,7 @@
         <v>2002</v>
       </c>
       <c r="AN86" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="AR86" s="8" t="s">
         <v>635</v>
@@ -8928,7 +8952,7 @@
         <v>634</v>
       </c>
       <c r="BY86" s="7" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="BZ86" s="7" t="s">
         <v>638</v>
@@ -8957,7 +8981,7 @@
         <v>2015</v>
       </c>
       <c r="AN87" s="2" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="AR87" s="8" t="s">
         <v>486</v>
@@ -8978,7 +9002,7 @@
         <v>649</v>
       </c>
       <c r="BY87" s="7" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="BZ87" s="7" t="s">
         <v>646</v>
@@ -8987,7 +9011,7 @@
         <v>644</v>
       </c>
       <c r="CO87" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="88" spans="1:157" ht="51" x14ac:dyDescent="0.2">
@@ -9021,10 +9045,10 @@
         <v>1999</v>
       </c>
       <c r="AN89" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AR89" s="8" t="s">
         <v>1266</v>
-      </c>
-      <c r="AR89" s="8" t="s">
-        <v>1267</v>
       </c>
       <c r="AS89" s="7" t="s">
         <v>655</v>
@@ -9033,18 +9057,18 @@
         <v>344</v>
       </c>
       <c r="BZ89" s="7" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="CG89" s="7" t="s">
         <v>656</v>
       </c>
       <c r="CO89" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="90" spans="1:157" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>663</v>
@@ -9056,7 +9080,7 @@
         <v>2015</v>
       </c>
       <c r="AN90" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="AS90" s="7" t="s">
         <v>405</v>
@@ -9076,16 +9100,16 @@
     </row>
     <row r="91" spans="1:157" ht="102" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="AI91" s="1">
         <v>2015</v>
       </c>
       <c r="AN91" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="AS91" s="7" t="s">
         <v>665</v>
@@ -9109,7 +9133,7 @@
         <v>660</v>
       </c>
       <c r="CO91" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="92" spans="1:157" ht="85" x14ac:dyDescent="0.2">
@@ -9146,7 +9170,7 @@
     </row>
     <row r="93" spans="1:157" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>678</v>
@@ -9155,7 +9179,7 @@
         <v>2014</v>
       </c>
       <c r="AN93" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="AR93" s="8" t="s">
         <v>169</v>
@@ -9176,7 +9200,7 @@
         <v>660</v>
       </c>
       <c r="CO93" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="94" spans="1:157" ht="17" x14ac:dyDescent="0.2">
@@ -9187,7 +9211,7 @@
         <v>682</v>
       </c>
       <c r="AH94" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AR94" s="8" t="s">
         <v>681</v>
@@ -9204,7 +9228,7 @@
         <v>687</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="AI95" s="1">
         <v>2012</v>
@@ -9213,16 +9237,16 @@
         <v>2015</v>
       </c>
       <c r="AN95" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="AS95" s="7" t="s">
         <v>684</v>
       </c>
       <c r="BE95" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="BY95" s="7" t="s">
         <v>1280</v>
-      </c>
-      <c r="BY95" s="7" t="s">
-        <v>1281</v>
       </c>
       <c r="BZ95" s="7" t="s">
         <v>686</v>
@@ -9245,7 +9269,7 @@
         <v>1980</v>
       </c>
       <c r="AN96" s="2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="AS96" s="7" t="s">
         <v>691</v>
@@ -9257,7 +9281,7 @@
         <v>690</v>
       </c>
       <c r="BY96" s="7" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="BZ96" s="7" t="s">
         <v>694</v>
@@ -9280,7 +9304,7 @@
         <v>2017</v>
       </c>
       <c r="AN97" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="AS97" s="7" t="s">
         <v>698</v>
@@ -9320,7 +9344,7 @@
         <v>2014</v>
       </c>
       <c r="AN99" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AR99" s="8" t="s">
         <v>708</v>
@@ -9329,7 +9353,7 @@
         <v>706</v>
       </c>
       <c r="BE99" s="7" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="BY99" s="7" t="s">
         <v>707</v>
@@ -9386,7 +9410,7 @@
         <v>1993</v>
       </c>
       <c r="AN102" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AS102" s="7" t="s">
         <v>723</v>
@@ -9429,22 +9453,22 @@
         <v>2017</v>
       </c>
       <c r="AN104" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="AR104" s="8" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AS104" s="7" t="s">
         <v>731</v>
       </c>
       <c r="AZ104" s="7" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="BE104" s="7" t="s">
         <v>730</v>
       </c>
       <c r="BY104" s="7" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="BZ104" s="7" t="s">
         <v>734</v>
@@ -9458,7 +9482,7 @@
     </row>
     <row r="105" spans="1:151" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>741</v>
@@ -9470,7 +9494,7 @@
         <v>2014</v>
       </c>
       <c r="AN105" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="AS105" s="7" t="s">
         <v>737</v>
@@ -9547,7 +9571,7 @@
         <v>758</v>
       </c>
       <c r="BY109" s="7" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="BZ109" s="7" t="s">
         <v>757</v>
@@ -9572,7 +9596,7 @@
         <v>2003</v>
       </c>
       <c r="AN111" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="AZ111" s="7" t="s">
         <v>766</v>
@@ -9581,10 +9605,10 @@
         <v>761</v>
       </c>
       <c r="BY111" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="BZ111" s="7" t="s">
         <v>1296</v>
-      </c>
-      <c r="BZ111" s="7" t="s">
-        <v>1297</v>
       </c>
       <c r="CG111" s="7" t="s">
         <v>763</v>
@@ -9601,10 +9625,10 @@
         <v>769</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="AH112" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="AT112" s="7" t="s">
         <v>611</v>
@@ -9722,7 +9746,7 @@
         <v>797</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AF117" s="1" t="s">
         <v>798</v>
@@ -9748,7 +9772,7 @@
         <v>2004</v>
       </c>
       <c r="AN118" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="AR118" s="8" t="s">
         <v>804</v>
@@ -9760,7 +9784,7 @@
         <v>806</v>
       </c>
       <c r="BY118" s="7" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="BZ118" s="7" t="s">
         <v>507</v>
@@ -9809,7 +9833,7 @@
         <v>819</v>
       </c>
       <c r="AH120" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="AR120" s="8" t="s">
         <v>817</v>
@@ -9844,7 +9868,7 @@
         <v>829</v>
       </c>
       <c r="AH121" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="AR121" s="8" t="s">
         <v>827</v>
@@ -9876,7 +9900,7 @@
         <v>836</v>
       </c>
       <c r="AH122" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="BV122" s="7" t="s">
         <v>839</v>
@@ -9891,7 +9915,7 @@
         <v>837</v>
       </c>
       <c r="CZ122" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="FA122" s="1" t="s">
         <v>840</v>
@@ -9905,7 +9929,7 @@
         <v>842</v>
       </c>
       <c r="AH123" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="AT123" s="7" t="s">
         <v>671</v>
@@ -9940,7 +9964,7 @@
         <v>2005</v>
       </c>
       <c r="AN124" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AR124" s="8" t="s">
         <v>849</v>
@@ -10029,7 +10053,7 @@
     </row>
     <row r="128" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="129" spans="1:157" ht="34" x14ac:dyDescent="0.2">
@@ -10040,7 +10064,7 @@
         <v>1990</v>
       </c>
       <c r="AN129" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AS129" s="7" t="s">
         <v>872</v>
@@ -10049,7 +10073,7 @@
         <v>871</v>
       </c>
       <c r="BZ129" s="7" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="CG129" s="7" t="s">
         <v>685</v>
@@ -10075,7 +10099,7 @@
         <v>2013</v>
       </c>
       <c r="AN130" s="2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="AS130" s="7" t="s">
         <v>875</v>
@@ -10127,7 +10151,7 @@
         <v>2012</v>
       </c>
       <c r="AN132" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AS132" s="7" t="s">
         <v>887</v>
@@ -10236,7 +10260,7 @@
         <v>1989</v>
       </c>
       <c r="AN137" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="AS137" s="7" t="s">
         <v>262</v>
@@ -10259,7 +10283,7 @@
         <v>921</v>
       </c>
       <c r="AH138" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="AT138" s="7" t="s">
         <v>628</v>
@@ -10299,7 +10323,7 @@
         <v>930</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="AH140" s="1" t="s">
         <v>612</v>
@@ -10325,7 +10349,7 @@
     </row>
     <row r="141" spans="1:157" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="142" spans="1:157" ht="68" x14ac:dyDescent="0.2">
@@ -10362,7 +10386,7 @@
         <v>1978</v>
       </c>
       <c r="AN143" s="2" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AR143" s="8" t="s">
         <v>945</v>
@@ -10394,7 +10418,7 @@
         <v>950</v>
       </c>
       <c r="AR144" s="8" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="BG144" s="8" t="s">
         <v>953</v>
@@ -10446,7 +10470,7 @@
         <v>964</v>
       </c>
       <c r="CG146" s="7" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="CJ146" s="1" t="s">
         <v>415</v>
@@ -10454,7 +10478,7 @@
     </row>
     <row r="147" spans="1:149" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I147" s="2" t="s">
         <v>966</v>
@@ -10498,7 +10522,7 @@
         <v>2014</v>
       </c>
       <c r="AN148" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AR148" s="8" t="s">
         <v>976</v>
@@ -10516,7 +10540,7 @@
         <v>974</v>
       </c>
       <c r="BZ148" s="7" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="CO148" s="1" t="s">
         <v>979</v>
@@ -10539,7 +10563,7 @@
         <v>1998</v>
       </c>
       <c r="AN149" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="AS149" s="7" t="s">
         <v>981</v>
@@ -10554,7 +10578,7 @@
         <v>982</v>
       </c>
       <c r="CO149" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="150" spans="1:149" ht="102" x14ac:dyDescent="0.2">
@@ -10568,7 +10592,7 @@
         <v>1980</v>
       </c>
       <c r="AN150" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="AP150" s="8" t="s">
         <v>989</v>
@@ -10577,7 +10601,7 @@
         <v>992</v>
       </c>
       <c r="CA150" s="7" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="CE150" s="7" t="s">
         <v>987</v>
@@ -10597,7 +10621,7 @@
         <v>1997</v>
       </c>
       <c r="AN151" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="AS151" s="7" t="s">
         <v>995</v>
@@ -10615,7 +10639,7 @@
         <v>996</v>
       </c>
       <c r="CO151" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="DT151" s="1" t="s">
         <v>997</v>
@@ -10635,7 +10659,7 @@
         <v>2009</v>
       </c>
       <c r="AN152" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="AR152" s="8" t="s">
         <v>1002</v>
@@ -10687,10 +10711,10 @@
         <v>2017</v>
       </c>
       <c r="AN154" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AR154" s="8" t="s">
         <v>1329</v>
-      </c>
-      <c r="AR154" s="8" t="s">
-        <v>1330</v>
       </c>
       <c r="AS154" s="7" t="s">
         <v>1011</v>
@@ -10702,13 +10726,13 @@
         <v>1013</v>
       </c>
       <c r="CG154" s="7" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="CK154" s="1" t="s">
         <v>415</v>
       </c>
       <c r="CO154" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="155" spans="1:149" ht="102" x14ac:dyDescent="0.2">
@@ -10719,7 +10743,7 @@
         <v>1016</v>
       </c>
       <c r="AH155" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="AT155" s="7" t="s">
         <v>429</v>
@@ -10745,7 +10769,7 @@
         <v>1960</v>
       </c>
       <c r="AN156" s="2" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="AR156" s="8" t="s">
         <v>1021</v>
@@ -10754,13 +10778,13 @@
         <v>1020</v>
       </c>
       <c r="BY156" s="7" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="BZ156" s="7" t="s">
         <v>507</v>
       </c>
       <c r="CG156" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="CO156" s="1" t="s">
         <v>804</v>
@@ -10789,7 +10813,7 @@
         <v>1025</v>
       </c>
       <c r="CG157" s="7" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="CJ157" s="1" t="s">
         <v>415</v>
@@ -10809,7 +10833,7 @@
         <v>1033</v>
       </c>
       <c r="AH158" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="AT158" s="7" t="s">
         <v>429</v>
@@ -10889,7 +10913,7 @@
         <v>1045</v>
       </c>
       <c r="CG162" s="7" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="CJ162" s="1" t="s">
         <v>415</v>
@@ -10912,7 +10936,7 @@
         <v>2014</v>
       </c>
       <c r="AN163" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="BY163" s="7" t="s">
         <v>269</v>
@@ -10959,7 +10983,7 @@
         <v>1061</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="N167" s="2" t="s">
         <v>1067</v>
@@ -10968,7 +10992,7 @@
         <v>2017</v>
       </c>
       <c r="AN167" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="AR167" s="8" t="s">
         <v>1065</v>
@@ -10986,7 +11010,7 @@
         <v>1063</v>
       </c>
       <c r="BY167" s="7" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="BZ167" s="7" t="s">
         <v>1068</v>
@@ -10995,7 +11019,7 @@
         <v>1066</v>
       </c>
       <c r="CO167" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="168" spans="1:157" ht="102" x14ac:dyDescent="0.2">
@@ -11003,19 +11027,19 @@
         <v>1070</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="AI168" s="1">
         <v>1994</v>
       </c>
       <c r="AN168" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="AR168" s="8" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="AS168" s="7" t="s">
         <v>1072</v>
@@ -11024,27 +11048,27 @@
         <v>1071</v>
       </c>
       <c r="BY168" s="7" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="BZ168" s="7" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="CG168" s="7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="CO168" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="169" spans="1:157" ht="51" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="AH169" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="AT169" s="7" t="s">
         <v>550</v>
@@ -11053,83 +11077,83 @@
         <v>0</v>
       </c>
       <c r="CG169" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="170" spans="1:157" ht="85" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="AI170" s="1">
         <v>2007</v>
       </c>
       <c r="AN170" s="2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="BE170" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BY170" s="7" t="s">
         <v>1080</v>
       </c>
-      <c r="BY170" s="7" t="s">
+      <c r="BZ170" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CG170" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="BZ170" s="7" t="s">
+      <c r="CO170" s="1" t="s">
         <v>1083</v>
-      </c>
-      <c r="CG170" s="7" t="s">
-        <v>1082</v>
-      </c>
-      <c r="CO170" s="1" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="171" spans="1:157" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="172" spans="1:157" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="173" spans="1:157" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="174" spans="1:157" ht="136" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="AI174" s="1">
         <v>1971</v>
       </c>
       <c r="AN174" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="AR174" s="8" t="s">
         <v>1002</v>
       </c>
       <c r="AS174" s="7" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="BE174" s="7" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="BZ174" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CG174" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CO174" s="1" t="s">
         <v>1093</v>
-      </c>
-      <c r="CG174" s="7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="CO174" s="1" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="175" spans="1:157" ht="68" x14ac:dyDescent="0.2">
@@ -11137,109 +11161,109 @@
         <v>853</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AI175" s="1">
         <v>1966</v>
       </c>
       <c r="AN175" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="AR175" s="8" t="s">
         <v>1002</v>
       </c>
       <c r="AS175" s="7" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="BE175" s="7" t="s">
         <v>999</v>
       </c>
       <c r="BZ175" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CG175" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CO175" s="1" t="s">
         <v>1098</v>
-      </c>
-      <c r="CG175" s="7" t="s">
-        <v>1096</v>
-      </c>
-      <c r="CO175" s="1" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="176" spans="1:157" ht="51" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AI176" s="1">
         <v>1979</v>
       </c>
       <c r="AN176" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AR176" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AS176" s="7" t="s">
         <v>902</v>
       </c>
       <c r="BD176" s="7" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="BR176" s="8" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="BY176" s="7" t="s">
         <v>903</v>
       </c>
       <c r="BZ176" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="CG176" s="7" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="CL176" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="FA176" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="177" spans="1:157" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="Z177" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="Z177" s="1" t="s">
+      <c r="AG177" s="1" t="s">
         <v>1113</v>
-      </c>
-      <c r="AG177" s="1" t="s">
-        <v>1114</v>
       </c>
       <c r="AR177" s="8" t="s">
         <v>945</v>
       </c>
       <c r="CN177" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="CR177" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="DU177" s="1" t="s">
         <v>9</v>
       </c>
       <c r="DX177" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="178" spans="1:157" ht="68" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AI178" s="1">
         <v>1997</v>
@@ -11248,149 +11272,149 @@
         <v>2008</v>
       </c>
       <c r="AN178" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="AP178" s="8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="CA178" s="7" t="s">
         <v>1119</v>
       </c>
-      <c r="CA178" s="7" t="s">
+      <c r="CW178" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="DO178" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="CW178" s="2" t="s">
-        <v>1125</v>
-      </c>
-      <c r="DO178" s="1" t="s">
+      <c r="DS178" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="DS178" s="1" t="s">
-        <v>1122</v>
-      </c>
       <c r="EC178" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="179" spans="1:157" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="180" spans="1:157" ht="34" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="Y180" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="Y180" s="1" t="s">
+      <c r="AF180" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="AF180" s="1" t="s">
+      <c r="AR180" s="8" t="s">
         <v>1129</v>
       </c>
-      <c r="AR180" s="8" t="s">
-        <v>1130</v>
-      </c>
       <c r="BA180" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="BB180" s="7" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="BF180" s="7" t="s">
         <v>781</v>
       </c>
       <c r="BK180" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="BV180" s="7" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="CD180" s="8" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="CG180" s="7" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="CJ180" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="CS180" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="DH180" s="1" t="s">
         <v>407</v>
       </c>
       <c r="EB180" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="EK180" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="EX180" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="181" spans="1:157" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="W181" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AG181" s="1">
         <v>1986</v>
       </c>
       <c r="AR181" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="BW181" s="8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="182" spans="1:157" ht="68" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>1146</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>1147</v>
-      </c>
       <c r="K182" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="W182" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AG182" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AR182" s="8" t="s">
         <v>479</v>
       </c>
       <c r="AW182" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AY182" s="7" t="s">
+        <v>1147</v>
+      </c>
+      <c r="BW182" s="8" t="s">
         <v>1154</v>
       </c>
-      <c r="AY182" s="7" t="s">
-        <v>1148</v>
-      </c>
-      <c r="BW182" s="8" t="s">
+      <c r="CN182" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="ED182" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FA182" s="1" t="s">
         <v>1155</v>
-      </c>
-      <c r="CN182" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="ED182" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="FA182" s="1" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="183" spans="1:157" ht="68" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="N183" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="AI183" s="1">
         <v>2012</v>
@@ -11399,25 +11423,25 @@
         <v>2016</v>
       </c>
       <c r="AN183" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="AR183" s="8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AZ183" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="BE183" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="BY183" s="7" t="s">
         <v>1357</v>
       </c>
-      <c r="AR183" s="8" t="s">
+      <c r="BZ183" s="7" t="s">
         <v>1160</v>
       </c>
-      <c r="AZ183" s="7" t="s">
-        <v>1162</v>
-      </c>
-      <c r="BE183" s="7" t="s">
-        <v>1158</v>
-      </c>
-      <c r="BY183" s="7" t="s">
-        <v>1358</v>
-      </c>
-      <c r="BZ183" s="7" t="s">
-        <v>1161</v>
-      </c>
       <c r="CO183" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
   </sheetData>
@@ -11432,8 +11456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14473BC5-CA06-354C-93C5-FC7E59939184}">
   <dimension ref="A1:L440"/>
   <sheetViews>
-    <sheetView topLeftCell="I89" workbookViewId="0">
-      <selection activeCell="K64" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I17" workbookViewId="0">
+      <selection activeCell="K181" sqref="K181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11453,40 +11477,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E1" t="s">
         <v>1417</v>
       </c>
-      <c r="E1" t="s">
-        <v>1418</v>
-      </c>
       <c r="F1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -11499,26 +11523,26 @@
         <v>2009</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -11528,25 +11552,25 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
       <c r="H3" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -11554,30 +11578,30 @@
         <v>153</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
         <v>1991</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>160</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -11590,7 +11614,7 @@
         <v>1996</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>169</v>
@@ -11599,14 +11623,14 @@
         <v>170</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -11619,18 +11643,18 @@
         <v>2013</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>560</v>
       </c>
       <c r="G6" s="13"/>
       <c r="I6" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>307</v>
@@ -11643,23 +11667,23 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G7" s="13"/>
       <c r="I7" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>611</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>946</v>
@@ -11675,23 +11699,23 @@
         <v>1997</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G8" s="13"/>
       <c r="I8" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -11704,19 +11728,19 @@
         <v>2000</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
       <c r="I9" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -11726,24 +11750,24 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>192</v>
       </c>
       <c r="G10" s="13"/>
       <c r="I10" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -11759,20 +11783,20 @@
         <v>1998</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G11" s="13"/>
       <c r="I11" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -11782,22 +11806,22 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13"/>
       <c r="I12" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -11819,16 +11843,16 @@
       </c>
       <c r="G13" s="13"/>
       <c r="I13" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -11844,7 +11868,7 @@
         <v>2006</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G14" s="13"/>
       <c r="I14" s="2" t="s">
@@ -11855,7 +11879,7 @@
         <v>211</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -11868,21 +11892,21 @@
         <v>1957</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>352</v>
       </c>
       <c r="G15" s="13"/>
       <c r="I15" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="68" x14ac:dyDescent="0.2">
@@ -11900,18 +11924,18 @@
         <v>2017</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="2" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="404" x14ac:dyDescent="0.2">
@@ -11924,21 +11948,21 @@
         <v>1988</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G17" s="13"/>
       <c r="I17" s="2" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -11951,28 +11975,28 @@
         <v>2009</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>230</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -11980,7 +12004,7 @@
         <v>2014</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>611</v>
@@ -11989,14 +12013,14 @@
         <v>230</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="68" x14ac:dyDescent="0.2">
@@ -12005,29 +12029,29 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D20" s="2">
         <v>2007</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>230</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -12037,22 +12061,22 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="13"/>
       <c r="I21" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -12067,19 +12091,19 @@
         <v>1971</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="13"/>
       <c r="I22" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -12092,18 +12116,18 @@
         <v>1990</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G23" s="13"/>
       <c r="I23" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>263</v>
@@ -12124,20 +12148,20 @@
         <v>2017</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -12150,7 +12174,7 @@
         <v>2013</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>277</v>
@@ -12159,11 +12183,11 @@
         <v>230</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>278</v>
@@ -12174,7 +12198,7 @@
         <v>283</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>289</v>
@@ -12186,20 +12210,20 @@
         <v>2014</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -12221,14 +12245,14 @@
       </c>
       <c r="G27" s="13"/>
       <c r="I27" s="2" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -12244,18 +12268,18 @@
         <v>2014</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>160</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>307</v>
@@ -12274,21 +12298,21 @@
         <v>2017</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -12301,22 +12325,22 @@
         <v>2004</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="13"/>
       <c r="H30" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -12335,17 +12359,17 @@
         <v>320</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -12361,21 +12385,21 @@
         <v>2004</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -12385,25 +12409,25 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="13"/>
       <c r="H33" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -12416,23 +12440,23 @@
         <v>2006</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>338</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -12442,24 +12466,24 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="2" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -12472,52 +12496,52 @@
         <v>1994</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>352</v>
       </c>
       <c r="G36" s="13"/>
       <c r="I36" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>358</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>366</v>
       </c>
       <c r="G37" s="13"/>
       <c r="I37" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -12530,19 +12554,19 @@
         <v>1982</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="13"/>
       <c r="H38" s="14" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>376</v>
@@ -12553,28 +12577,28 @@
         <v>378</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2">
         <v>1980</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G39" s="13"/>
       <c r="I39" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -12584,24 +12608,24 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>392</v>
@@ -12617,24 +12641,24 @@
         <v>2002</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -12643,7 +12667,7 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D42" s="2">
         <v>2007</v>
@@ -12652,26 +12676,26 @@
         <v>2016</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G42" s="13"/>
       <c r="H42" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -12684,14 +12708,14 @@
       <c r="F43" s="12"/>
       <c r="G43" s="13"/>
       <c r="H43" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>409</v>
@@ -12707,7 +12731,7 @@
         <v>1968</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="13"/>
@@ -12715,19 +12739,19 @@
         <v>413</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J44" s="13"/>
       <c r="K44" s="13" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -12735,22 +12759,22 @@
         <v>1972</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="13"/>
       <c r="H45" s="14" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="13" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -12765,21 +12789,21 @@
         <v>2008</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>429</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J46" s="13"/>
       <c r="K46" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>431</v>
@@ -12795,24 +12819,24 @@
         <v>1986</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>435</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="13" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -12825,24 +12849,24 @@
         <v>1914</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>445</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="14" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -12855,24 +12879,24 @@
         <v>1924</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="14" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J49" s="13"/>
       <c r="K49" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -12885,22 +12909,22 @@
         <v>2014</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="13"/>
       <c r="H50" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J50" s="13"/>
       <c r="K50" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -12915,26 +12939,26 @@
         <v>1993</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>470</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J51" s="13" t="s">
         <v>611</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -12947,24 +12971,24 @@
         <v>1996</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="14" t="s">
         <v>477</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J52" s="13"/>
       <c r="K52" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="68" x14ac:dyDescent="0.2">
@@ -12977,23 +13001,23 @@
         <v>1988</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="J53" s="13"/>
       <c r="K53" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -13009,23 +13033,23 @@
         <v>2003</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -13035,25 +13059,25 @@
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="13"/>
       <c r="H55" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -13063,25 +13087,25 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="13"/>
       <c r="H56" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -13094,24 +13118,24 @@
         <v>1909</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>445</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="14" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -13121,25 +13145,25 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="13"/>
       <c r="H58" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J58" s="13"/>
       <c r="K58" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -13152,26 +13176,26 @@
         <v>1970</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>507</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -13181,59 +13205,59 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="13"/>
       <c r="H60" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="K61" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -13246,52 +13270,52 @@
         <v>1987</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>887</v>
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="14" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J62" s="13"/>
       <c r="K62" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="13"/>
       <c r="H63" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J63" s="13"/>
       <c r="K63" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -13304,7 +13328,7 @@
         <v>1980</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F64" s="12" t="s">
         <v>533</v>
@@ -13313,14 +13337,14 @@
         <v>1070</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="J64" s="13"/>
       <c r="K64" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -13335,24 +13359,24 @@
         <v>2013</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>766</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
       <c r="L65" s="2" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -13362,22 +13386,22 @@
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="13"/>
       <c r="H66" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J66" s="13"/>
       <c r="K66" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>547</v>
@@ -13393,24 +13417,24 @@
         <v>1985</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>550</v>
       </c>
       <c r="G67" s="13"/>
       <c r="H67" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J67" s="13"/>
       <c r="K67" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="170" x14ac:dyDescent="0.2">
@@ -13427,14 +13451,14 @@
       </c>
       <c r="F68" s="12"/>
       <c r="G68" s="13" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="J68" s="13"/>
       <c r="K68" s="13" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>307</v>
@@ -13450,24 +13474,24 @@
         <v>2015</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F69" s="12" t="s">
         <v>560</v>
       </c>
       <c r="G69" s="13"/>
       <c r="H69" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J69" s="13"/>
       <c r="K69" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -13482,22 +13506,22 @@
         <v>1975</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F70" s="12" t="s">
         <v>533</v>
       </c>
       <c r="G70" s="13"/>
       <c r="H70" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
       <c r="L70" s="2" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -13510,24 +13534,24 @@
         <v>1985</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="G71" s="13"/>
       <c r="H71" s="14" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J71" s="13"/>
       <c r="K71" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -13537,25 +13561,25 @@
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="13"/>
       <c r="H72" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J72" s="13"/>
       <c r="K72" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="68" x14ac:dyDescent="0.2">
@@ -13568,24 +13592,24 @@
         <v>1983</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F73" s="12" t="s">
         <v>507</v>
       </c>
       <c r="G73" s="13"/>
       <c r="H73" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J73" s="13"/>
       <c r="K73" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -13595,25 +13619,25 @@
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="13"/>
       <c r="H74" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J74" s="13"/>
       <c r="K74" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -13623,25 +13647,25 @@
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F75" s="12"/>
       <c r="G75" s="13"/>
       <c r="H75" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J75" s="13"/>
       <c r="K75" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -13654,24 +13678,24 @@
         <v>1987</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="G76" s="13"/>
       <c r="H76" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J76" s="13"/>
       <c r="K76" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -13684,22 +13708,22 @@
         <v>1953</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="13"/>
       <c r="H77" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J77" s="13"/>
       <c r="K77" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -13712,24 +13736,24 @@
         <v>1989</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="G78" s="13"/>
       <c r="H78" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J78" s="13"/>
       <c r="K78" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -13739,25 +13763,25 @@
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="13"/>
       <c r="H79" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J79" s="13"/>
       <c r="K79" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -13767,25 +13791,25 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J80" s="13"/>
       <c r="K80" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="68" x14ac:dyDescent="0.2">
@@ -13798,24 +13822,24 @@
         <v>1994</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="J81" s="13"/>
       <c r="K81" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -13828,24 +13852,24 @@
         <v>2007</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F82" s="12"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="K82" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -13858,23 +13882,23 @@
         <v>1987</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>611</v>
       </c>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J83" s="13" t="s">
         <v>0</v>
       </c>
       <c r="K83" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>613</v>
@@ -13892,24 +13916,24 @@
         <v>1974</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="J84" s="13"/>
       <c r="K84" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -13931,17 +13955,17 @@
       </c>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J85" s="13"/>
       <c r="K85" s="13" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -13956,21 +13980,21 @@
         <v>2002</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F86" s="12" t="s">
         <v>635</v>
       </c>
       <c r="G86" s="13"/>
       <c r="H86" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="J86" s="13"/>
       <c r="K86" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>636</v>
@@ -13989,23 +14013,23 @@
         <v>2015</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G87" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="J87" s="13"/>
       <c r="K87" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -14015,25 +14039,25 @@
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F88" s="12"/>
       <c r="G88" s="13"/>
       <c r="H88" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J88" s="13"/>
       <c r="K88" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="289" x14ac:dyDescent="0.2">
@@ -14048,26 +14072,26 @@
         <v>1999</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="G89" s="13"/>
       <c r="H89" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J89" s="13"/>
       <c r="K89" s="13" t="s">
-        <v>1588</v>
+        <v>1726</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
@@ -14077,7 +14101,7 @@
         <v>2015</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>405</v>
@@ -14086,19 +14110,19 @@
         <v>160</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J90" s="13"/>
       <c r="K90" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
@@ -14108,10 +14132,10 @@
         <v>2015</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G91" s="13" t="s">
         <v>160</v>
@@ -14121,10 +14145,10 @@
       </c>
       <c r="J91" s="13"/>
       <c r="K91" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -14137,28 +14161,28 @@
         <v>2014</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="G92" s="14" t="s">
         <v>160</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J92" s="13"/>
       <c r="K92" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -14166,7 +14190,7 @@
         <v>2014</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>169</v>
@@ -14175,14 +14199,14 @@
         <v>160</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J93" s="13"/>
       <c r="K93" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -14195,21 +14219,21 @@
         <v>2000</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="G94" s="13"/>
       <c r="H94" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J94" s="13"/>
       <c r="K94" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>547</v>
@@ -14230,18 +14254,18 @@
         <v>2015</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G95" s="13"/>
       <c r="H95" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="J95" s="13"/>
       <c r="K95" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>685</v>
@@ -14257,20 +14281,20 @@
         <v>1980</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G96" s="13" t="s">
         <v>1070</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="J96" s="13"/>
       <c r="K96" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>693</v>
@@ -14282,29 +14306,29 @@
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D97" s="2">
         <v>2017</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G97" s="13" t="s">
         <v>230</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="J97" s="13"/>
       <c r="K97" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -14314,25 +14338,25 @@
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="13"/>
       <c r="H98" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J98" s="13"/>
       <c r="K98" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -14347,24 +14371,24 @@
         <v>2014</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="G99" s="13"/>
       <c r="H99" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="J99" s="13"/>
       <c r="K99" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -14374,25 +14398,25 @@
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F100" s="12"/>
       <c r="G100" s="13"/>
       <c r="H100" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J100" s="13"/>
       <c r="K100" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -14405,22 +14429,22 @@
         <v>1972</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F101" s="12"/>
       <c r="G101" s="13"/>
       <c r="H101" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J101" s="13"/>
       <c r="K101" s="13" t="s">
         <v>714</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -14433,24 +14457,24 @@
         <v>1993</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G102" s="13"/>
       <c r="H102" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>230</v>
       </c>
       <c r="J102" s="13"/>
       <c r="K102" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -14460,25 +14484,25 @@
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F103" s="12"/>
       <c r="G103" s="13"/>
       <c r="H103" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J103" s="13"/>
       <c r="K103" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -14487,7 +14511,7 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D104" s="2">
         <v>2014</v>
@@ -14496,17 +14520,17 @@
         <v>2017</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="J104" s="13"/>
       <c r="K104" s="13" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>307</v>
@@ -14514,17 +14538,17 @@
     </row>
     <row r="105" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D105" s="2">
         <v>2014</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F105" s="12" t="s">
         <v>737</v>
@@ -14533,14 +14557,14 @@
         <v>160</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J105" s="13"/>
       <c r="K105" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -14550,25 +14574,25 @@
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="13"/>
       <c r="H106" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J106" s="13"/>
       <c r="K106" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -14578,25 +14602,25 @@
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F107" s="12"/>
       <c r="G107" s="13"/>
       <c r="H107" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J107" s="13"/>
       <c r="K107" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="119" x14ac:dyDescent="0.2">
@@ -14609,21 +14633,21 @@
         <v>1971</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="G108" s="13"/>
       <c r="I108" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J108" s="13"/>
       <c r="K108" s="13" t="s">
         <v>752</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -14633,24 +14657,24 @@
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F109" s="12"/>
       <c r="G109" s="13" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J109" s="13"/>
       <c r="K109" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -14660,25 +14684,25 @@
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F110" s="12"/>
       <c r="G110" s="13"/>
       <c r="H110" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J110" s="13"/>
       <c r="K110" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -14693,21 +14717,21 @@
         <v>2003</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F111" s="12"/>
       <c r="G111" s="13" t="s">
         <v>766</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="J111" s="13"/>
       <c r="K111" s="13" t="s">
         <v>762</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -14727,16 +14751,16 @@
       </c>
       <c r="G112" s="13"/>
       <c r="I112" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J112" s="13" t="s">
         <v>611</v>
       </c>
       <c r="K112" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -14749,21 +14773,21 @@
         <v>1988</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G113" s="13"/>
       <c r="H113" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J113" s="13"/>
       <c r="K113" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L113" s="2" t="s">
         <v>613</v>
@@ -14776,25 +14800,25 @@
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F114" s="12"/>
       <c r="G114" s="13"/>
       <c r="H114" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J114" s="13"/>
       <c r="K114" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="68" x14ac:dyDescent="0.2">
@@ -14807,24 +14831,24 @@
         <v>1932</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="G115" s="13"/>
       <c r="H115" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J115" s="13"/>
       <c r="K115" s="13" t="s">
-        <v>1592</v>
+        <v>1727</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="119" x14ac:dyDescent="0.2">
@@ -14834,25 +14858,25 @@
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F116" s="12"/>
       <c r="G116" s="13"/>
       <c r="H116" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J116" s="13"/>
       <c r="K116" s="13" t="s">
-        <v>795</v>
+        <v>1728</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -14860,31 +14884,31 @@
         <v>797</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2">
         <v>1992</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F117" s="12" t="s">
         <v>809</v>
       </c>
       <c r="G117" s="13"/>
       <c r="H117" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J117" s="13"/>
       <c r="K117" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -14897,24 +14921,24 @@
         <v>2004</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>507</v>
       </c>
       <c r="G118" s="13"/>
       <c r="H118" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J118" s="13"/>
       <c r="K118" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -14927,24 +14951,24 @@
         <v>1978</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F119" s="12" t="s">
         <v>809</v>
       </c>
       <c r="G119" s="13"/>
       <c r="H119" s="14" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J119" s="13"/>
       <c r="K119" s="13" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -14957,26 +14981,26 @@
         <v>1986</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G120" s="13"/>
       <c r="H120" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J120" s="13" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="K120" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -14989,26 +15013,26 @@
         <v>1996</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G121" s="13"/>
       <c r="H121" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J121" s="13" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="K121" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -15023,22 +15047,22 @@
         <v>1976</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F122" s="12"/>
       <c r="G122" s="13"/>
       <c r="H122" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J122" s="13"/>
       <c r="K122" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -15058,16 +15082,16 @@
       </c>
       <c r="G123" s="13"/>
       <c r="H123" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J123" s="13" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="K123" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L123" s="2" t="s">
         <v>685</v>
@@ -15088,18 +15112,18 @@
         <v>2005</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>850</v>
@@ -15115,22 +15139,22 @@
         <v>2014</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F125" s="12"/>
       <c r="G125" s="13"/>
       <c r="H125" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J125" s="13"/>
       <c r="K125" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -15140,25 +15164,25 @@
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F126" s="12"/>
       <c r="G126" s="13"/>
       <c r="H126" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J126" s="13"/>
       <c r="K126" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -15171,50 +15195,50 @@
         <v>1975</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F127" s="12"/>
       <c r="G127" s="13"/>
       <c r="H127" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J127" s="13"/>
       <c r="K127" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F128" s="12"/>
       <c r="G128" s="13"/>
       <c r="H128" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J128" s="13"/>
       <c r="K128" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -15227,21 +15251,21 @@
         <v>1990</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G129" s="13"/>
       <c r="H129" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="J129" s="13"/>
       <c r="K129" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L129" s="2" t="s">
         <v>685</v>
@@ -15262,21 +15286,21 @@
         <v>2013</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G130" s="13"/>
       <c r="H130" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J130" s="13"/>
       <c r="K130" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -15286,13 +15310,13 @@
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="G131" s="13" t="s">
         <v>160</v>
@@ -15302,10 +15326,10 @@
       </c>
       <c r="J131" s="13"/>
       <c r="K131" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -15318,7 +15342,7 @@
         <v>2012</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>887</v>
@@ -15327,14 +15351,14 @@
         <v>160</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="J132" s="13"/>
       <c r="K132" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -15347,24 +15371,24 @@
         <v>1928</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="G133" s="13"/>
       <c r="H133" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J133" s="13"/>
       <c r="K133" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -15374,25 +15398,25 @@
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F134" s="12"/>
       <c r="G134" s="13"/>
       <c r="H134" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J134" s="13"/>
       <c r="K134" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -15407,24 +15431,24 @@
         <v>1986</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="G135" s="13"/>
       <c r="H135" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="J135" s="13"/>
       <c r="K135" s="13" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -15434,25 +15458,25 @@
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F136" s="12"/>
       <c r="G136" s="13"/>
       <c r="H136" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J136" s="13"/>
       <c r="K136" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -15465,24 +15489,24 @@
         <v>1989</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G137" s="13"/>
       <c r="H137" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J137" s="13"/>
       <c r="K137" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -15495,24 +15519,24 @@
         <v>1998</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F138" s="12" t="s">
         <v>628</v>
       </c>
       <c r="G138" s="13"/>
       <c r="H138" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J138" s="13"/>
       <c r="K138" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -15525,21 +15549,21 @@
         <v>1961</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="14" t="s">
         <v>929</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>927</v>
@@ -15555,54 +15579,54 @@
         <v>1987</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>887</v>
       </c>
       <c r="G140" s="13"/>
       <c r="H140" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J140" s="13" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="K140" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F141" s="12"/>
       <c r="G141" s="13"/>
       <c r="H141" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J141" s="13"/>
       <c r="K141" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -15615,7 +15639,7 @@
         <v>2004</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F142" s="12"/>
       <c r="G142" s="13"/>
@@ -15623,14 +15647,14 @@
         <v>792</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J142" s="13"/>
       <c r="K142" s="13" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -15643,21 +15667,21 @@
         <v>1978</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="G143" s="13"/>
       <c r="H143" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J143" s="13"/>
       <c r="K143" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L143" s="2" t="s">
         <v>946</v>
@@ -15675,21 +15699,21 @@
         <v>1965</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="G144" s="13"/>
       <c r="H144" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J144" s="13"/>
       <c r="K144" s="13" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L144" s="2" t="s">
         <v>574</v>
@@ -15702,25 +15726,25 @@
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F145" s="12"/>
       <c r="G145" s="13"/>
       <c r="H145" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J145" s="13"/>
       <c r="K145" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -15733,27 +15757,27 @@
         <v>1967</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F146" s="12"/>
       <c r="G146" s="13"/>
       <c r="H146" s="14" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J146" s="13"/>
       <c r="K146" s="13" t="s">
         <v>964</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -15761,24 +15785,24 @@
         <v>1968</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="G147" s="13"/>
       <c r="H147" s="14" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J147" s="13"/>
       <c r="K147" s="13" t="s">
         <v>970</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -15786,10 +15810,10 @@
         <v>971</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>1413</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>1414</v>
       </c>
       <c r="D148" s="2">
         <v>2008</v>
@@ -15798,20 +15822,20 @@
         <v>2014</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G148" s="13" t="s">
         <v>765</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="J148" s="13"/>
       <c r="K148" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -15829,21 +15853,21 @@
         <v>1998</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="G149" s="13"/>
       <c r="H149" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I149" s="2" t="s">
         <v>435</v>
       </c>
       <c r="J149" s="13"/>
       <c r="K149" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -15856,24 +15880,24 @@
         <v>1980</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F150" s="12" t="s">
         <v>989</v>
       </c>
       <c r="G150" s="13"/>
       <c r="H150" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J150" s="13"/>
       <c r="K150" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -15886,27 +15910,27 @@
         <v>1997</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G151" s="13"/>
       <c r="H151" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="J151" s="13"/>
       <c r="K151" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
         <v>999</v>
       </c>
@@ -15919,21 +15943,21 @@
         <v>2009</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G152" s="13"/>
       <c r="H152" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I152" s="2" t="s">
         <v>853</v>
       </c>
       <c r="J152" s="13"/>
       <c r="K152" s="13" t="s">
-        <v>1001</v>
+        <v>1729</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -15946,21 +15970,21 @@
         <v>1998</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F153" s="12" t="s">
         <v>628</v>
       </c>
       <c r="G153" s="13"/>
       <c r="H153" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J153" s="13"/>
       <c r="K153" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>850</v>
@@ -15979,21 +16003,21 @@
         <v>2017</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="G154" s="13"/>
       <c r="H154" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="J154" s="13"/>
       <c r="K154" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="68" x14ac:dyDescent="0.2">
@@ -16013,17 +16037,17 @@
       </c>
       <c r="G155" s="13"/>
       <c r="H155" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J155" s="13"/>
       <c r="K155" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -16038,24 +16062,24 @@
         <v>1960</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="G156" s="13"/>
       <c r="H156" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J156" s="13"/>
       <c r="K156" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -16070,19 +16094,19 @@
         <v>1994</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F157" s="12"/>
       <c r="G157" s="13"/>
       <c r="I157" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J157" s="13"/>
       <c r="K157" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -16095,24 +16119,24 @@
         <v>2003</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F158" s="12" t="s">
         <v>429</v>
       </c>
       <c r="G158" s="13"/>
       <c r="H158" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J158" s="13"/>
       <c r="K158" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -16132,17 +16156,17 @@
       </c>
       <c r="G159" s="13"/>
       <c r="H159" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J159" s="13"/>
       <c r="K159" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -16152,25 +16176,25 @@
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F160" s="12"/>
       <c r="G160" s="13"/>
       <c r="H160" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J160" s="13"/>
       <c r="K160" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -16180,25 +16204,25 @@
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F161" s="12"/>
       <c r="G161" s="13"/>
       <c r="H161" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J161" s="13"/>
       <c r="K161" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -16213,7 +16237,7 @@
         <v>1966</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F162" s="12"/>
       <c r="G162" s="13"/>
@@ -16221,14 +16245,14 @@
         <v>1047</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J162" s="13"/>
       <c r="K162" s="13" t="s">
         <v>1045</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -16241,22 +16265,22 @@
         <v>2014</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F163" s="12"/>
       <c r="G163" s="13"/>
       <c r="H163" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J163" s="13"/>
       <c r="K163" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -16266,25 +16290,25 @@
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F164" s="12"/>
       <c r="G164" s="13"/>
       <c r="H164" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J164" s="13"/>
       <c r="K164" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -16294,25 +16318,25 @@
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F165" s="12"/>
       <c r="G165" s="13"/>
       <c r="H165" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J165" s="13"/>
       <c r="K165" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -16327,24 +16351,24 @@
         <v>1977</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F166" s="12" t="s">
         <v>611</v>
       </c>
       <c r="G166" s="13"/>
       <c r="H166" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J166" s="13"/>
       <c r="K166" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -16352,32 +16376,32 @@
         <v>1061</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D167" s="2">
         <v>2017</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="G167" s="13" t="s">
         <v>230</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="J167" s="13"/>
       <c r="K167" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="68" x14ac:dyDescent="0.2">
@@ -16386,35 +16410,33 @@
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D168" s="2">
         <v>1994</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="G168" s="13"/>
       <c r="H168" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="J168" s="13"/>
-      <c r="K168" s="13" t="s">
-        <v>1073</v>
-      </c>
+      <c r="K168" s="13"/>
       <c r="L168" s="2" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -16422,29 +16444,29 @@
         <v>1992</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F169" s="12" t="s">
         <v>550</v>
       </c>
       <c r="G169" s="13"/>
       <c r="H169" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J169" s="13"/>
       <c r="K169" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -16452,111 +16474,111 @@
         <v>2007</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F170" s="12"/>
       <c r="G170" s="13"/>
       <c r="H170" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="J170" s="13"/>
       <c r="K170" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="10" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F171" s="12"/>
       <c r="G171" s="13"/>
       <c r="H171" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J171" s="13"/>
       <c r="K171" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F172" s="12"/>
       <c r="G172" s="13"/>
       <c r="H172" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J172" s="13"/>
       <c r="K172" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F173" s="12"/>
       <c r="G173" s="13"/>
       <c r="H173" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J173" s="13"/>
       <c r="K173" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -16564,27 +16586,27 @@
         <v>1971</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F174" s="12" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G174" s="13"/>
       <c r="H174" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J174" s="13"/>
       <c r="K174" s="13" t="s">
-        <v>1091</v>
+        <v>1730</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
         <v>853</v>
       </c>
@@ -16594,29 +16616,29 @@
         <v>1966</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F175" s="12" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G175" s="13"/>
       <c r="H175" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I175" s="2" t="s">
         <v>999</v>
       </c>
       <c r="J175" s="13"/>
       <c r="K175" s="13" t="s">
-        <v>1095</v>
+        <v>1731</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -16624,64 +16646,64 @@
         <v>1979</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F176" s="12" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="G176" s="13"/>
       <c r="H176" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="J176" s="13"/>
       <c r="K176" s="13" t="s">
-        <v>1103</v>
+        <v>1732</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>1111</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>1112</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2">
         <v>1964</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F177" s="12" t="s">
         <v>945</v>
       </c>
       <c r="G177" s="13"/>
       <c r="H177" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J177" s="13"/>
       <c r="K177" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2">
@@ -16691,52 +16713,52 @@
         <v>2008</v>
       </c>
       <c r="F178" s="12" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G178" s="13"/>
       <c r="H178" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J178" s="13"/>
       <c r="K178" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F179" s="12"/>
       <c r="G179" s="13"/>
       <c r="H179" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J179" s="13"/>
       <c r="K179" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L179" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -16744,29 +16766,29 @@
         <v>1949</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F180" s="12" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="G180" s="13"/>
       <c r="H180" s="14" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J180" s="13"/>
       <c r="K180" s="13" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="L180" s="2" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -16774,61 +16796,61 @@
         <v>1986</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F181" s="12" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="G181" s="13"/>
       <c r="H181" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J181" s="13"/>
       <c r="K181" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L181" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>1146</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>1147</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2">
         <v>2004</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="G182" s="13"/>
       <c r="H182" s="14" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J182" s="13"/>
       <c r="K182" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L182" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -16839,86 +16861,86 @@
         <v>2016</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G183" s="13" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="J183" s="13"/>
       <c r="K183" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="10" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B184" s="2"/>
       <c r="K184" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>1402</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>1403</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="K185" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L185" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>1405</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>1406</v>
-      </c>
       <c r="K186" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L186" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B187" s="2"/>
       <c r="K187" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B188" s="2"/>
       <c r="K188" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -16930,499 +16952,499 @@
         <v>971</v>
       </c>
       <c r="K189" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L189" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="K190" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L190" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B191" s="2"/>
       <c r="K191" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L191" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B192" s="2"/>
       <c r="K192" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L192" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="193" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B193" s="2"/>
       <c r="K193" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L193" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="194" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B194" s="2"/>
       <c r="K194" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L194" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="195" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B195" s="2"/>
       <c r="K195" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L195" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="196" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B196" s="2"/>
       <c r="K196" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L196" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="197" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B197" s="2"/>
       <c r="K197" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L197" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="198" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B198" s="2"/>
       <c r="K198" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L198" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="199" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B199" s="2"/>
       <c r="K199" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L199" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="200" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B200" s="2"/>
       <c r="K200" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L200" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="201" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B201" s="2"/>
       <c r="K201" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="202" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B202" s="2"/>
       <c r="K202" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="203" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B203" s="2"/>
       <c r="K203" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="204" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B204" s="2"/>
       <c r="K204" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="205" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B205" s="2"/>
       <c r="K205" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="206" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B206" s="2"/>
       <c r="K206" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="207" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B207" s="2"/>
       <c r="K207" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="208" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B208" s="2"/>
       <c r="K208" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B209" s="2"/>
       <c r="K209" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B210" s="2"/>
       <c r="K210" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B211" s="2"/>
       <c r="K211" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B212" s="2"/>
       <c r="K212" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="213" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B213" s="2"/>
       <c r="K213" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B214" s="2"/>
       <c r="K214" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="215" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B215" s="2"/>
       <c r="K215" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B216" s="2"/>
       <c r="K216" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="217" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B217" s="2"/>
       <c r="K217" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B218" s="2"/>
       <c r="K218" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B219" s="2"/>
       <c r="K219" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B220" s="2"/>
       <c r="K220" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="221" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B221" s="2"/>
       <c r="K221" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="222" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B222" s="2"/>
       <c r="K222" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="223" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B223" s="2"/>
       <c r="K223" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="224" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B224" s="2"/>
       <c r="K224" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="225" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B225" s="2"/>
       <c r="K225" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="226" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B226" s="2"/>
       <c r="K226" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="227" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B227" s="2"/>
       <c r="K227" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="228" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B228" s="2"/>
       <c r="K228" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="229" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B229" s="2"/>
       <c r="K229" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="230" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B230" s="2"/>
       <c r="K230" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="231" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B231" s="2"/>
       <c r="K231" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B232" s="2"/>
       <c r="K232" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B233" s="2"/>
       <c r="K233" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="234" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B234" s="2"/>
       <c r="K234" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="235" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B235" s="2"/>
       <c r="K235" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B236" s="2"/>
       <c r="K236" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B237" s="2"/>
       <c r="K237" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B238" s="2"/>
       <c r="K238" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="239" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B239" s="2"/>
       <c r="K239" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="240" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B240" s="2"/>
       <c r="K240" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="241" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B241" s="2"/>
       <c r="K241" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="242" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B242" s="2"/>
       <c r="K242" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="243" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B243" s="2"/>
       <c r="K243" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="244" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B244" s="2"/>
       <c r="K244" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="245" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B245" s="2"/>
       <c r="K245" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="246" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B246" s="2"/>
       <c r="K246" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="247" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B247" s="2"/>
       <c r="K247" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="248" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B248" s="2"/>
       <c r="K248" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="249" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B249" s="2"/>
       <c r="K249" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="250" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B250" s="2"/>
       <c r="K250" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="251" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B251" s="2"/>
       <c r="K251" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="252" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B252" s="2"/>
       <c r="K252" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="253" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B253" s="2"/>
       <c r="K253" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="254" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B254" s="2"/>
       <c r="K254" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="255" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B255" s="2"/>
       <c r="K255" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="256" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B256" s="2"/>
       <c r="K256" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="257" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B257" s="2"/>
       <c r="K257" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="258" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B258" s="2"/>
       <c r="K258" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="259" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B259" s="2"/>
       <c r="K259" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="260" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B260" s="2"/>
       <c r="K260" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="261" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B261" s="2"/>
       <c r="K261" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="262" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B262" s="2"/>
       <c r="K262" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="263" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B263" s="2"/>
       <c r="K263" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="264" spans="2:11" x14ac:dyDescent="0.2">
@@ -17965,8 +17987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114909E6-841D-654F-AF7F-6EF99A4F5B2F}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17976,7 +17998,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -17986,13 +18008,13 @@
     </row>
     <row r="3" spans="1:24" ht="404" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="B3" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="C3" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="D3" t="s">
         <v>229</v>
@@ -18004,19 +18026,19 @@
         <v>878</v>
       </c>
       <c r="G3" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="H3" t="s">
         <v>234</v>
       </c>
       <c r="I3" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="J3" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="K3" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="L3" t="s">
         <v>216</v>
@@ -18025,37 +18047,37 @@
         <v>729</v>
       </c>
       <c r="N3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="O3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="R3" t="s">
         <v>1685</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>1686</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>1687</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>1688</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>1689</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>1690</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>1691</v>
-      </c>
-      <c r="V3" t="s">
-        <v>1692</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1693</v>
-      </c>
-      <c r="X3" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="51" x14ac:dyDescent="0.2">
@@ -18066,12 +18088,12 @@
         <v>696</v>
       </c>
       <c r="C4" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="51" x14ac:dyDescent="0.2">
@@ -18087,18 +18109,18 @@
     </row>
     <row r="7" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B8" t="s">
         <v>1696</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1699</v>
       </c>
       <c r="C8" t="s">
         <v>442</v>
@@ -18106,41 +18128,62 @@
     </row>
     <row r="9" spans="1:24" ht="170" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D9" t="s">
         <v>1700</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>1701</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>1702</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>1703</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>1704</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>1705</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1706</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1707</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="289" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>1588</v>
+        <v>1722</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1724</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1725</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -18150,7 +18193,7 @@
     </row>
     <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -18165,16 +18208,16 @@
     </row>
     <row r="16" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D16" t="s">
         <v>1709</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1711</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -18182,44 +18225,44 @@
         <v>795</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="B18" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="B19" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B21" t="s">
         <v>1716</v>
       </c>
-      <c r="B20" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>1718</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>914</v>
       </c>
       <c r="B22" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -18242,47 +18285,47 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="B27" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>781</v>
       </c>
       <c r="B31" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="C31" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
     </row>
-    <row r="33" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
     </row>
-    <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
     </row>
   </sheetData>
@@ -18307,16 +18350,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1396</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -18324,7 +18367,7 @@
         <v>222</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -18332,15 +18375,15 @@
         <v>552</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C4" s="1">
         <v>2017</v>
@@ -18351,18 +18394,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -18391,7 +18434,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>696</v>
@@ -18418,10 +18461,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C13" s="1">
         <v>2016</v>
@@ -18429,10 +18472,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C14" s="1">
         <v>2016</v>
@@ -18440,10 +18483,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C15" s="1">
         <v>2016</v>
@@ -18470,10 +18513,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -18489,7 +18532,7 @@
         <v>729</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -18497,7 +18540,7 @@
         <v>729</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -18505,7 +18548,7 @@
         <v>729</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -18513,7 +18556,7 @@
         <v>301</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -18521,7 +18564,7 @@
         <v>301</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -18529,7 +18572,7 @@
         <v>283</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
   </sheetData>
@@ -18553,7 +18596,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -18577,7 +18620,7 @@
         <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -18585,7 +18628,7 @@
         <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -18601,7 +18644,7 @@
         <v>195</v>
       </c>
       <c r="B7" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -18617,7 +18660,7 @@
         <v>325</v>
       </c>
       <c r="B9" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -18662,7 +18705,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B15" t="s">
         <v>507</v>
@@ -18670,10 +18713,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B16" t="s">
         <v>1373</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -18689,7 +18732,7 @@
         <v>583</v>
       </c>
       <c r="B18" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -18697,7 +18740,7 @@
         <v>583</v>
       </c>
       <c r="B19" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -18729,7 +18772,7 @@
         <v>772</v>
       </c>
       <c r="B23" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -18761,7 +18804,7 @@
         <v>815</v>
       </c>
       <c r="B27" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -18830,7 +18873,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B36" t="s">
         <v>550</v>

--- a/raw/out.xlsx
+++ b/raw/out.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianesamson/Projects/cnet-analysis/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1453D0-95F0-384E-BA43-5F82A4A2210B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344ED128-E9FE-5943-BE4F-B44DA29F0888}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="1733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="1739">
   <si>
     <t>Active</t>
   </si>
@@ -5233,6 +5233,24 @@
   </si>
   <si>
     <t>Political Wing;Sanjukta Mukti Fouj</t>
+  </si>
+  <si>
+    <t>opponent</t>
+  </si>
+  <si>
+    <t>Philippines;Australia;Canada;Indonesia;Japan;Malaysia;United Kingdom;United States of America;Vietnam;Moro National Liberation Front;Moro Islamic Liberation Front</t>
+  </si>
+  <si>
+    <t>Transitional Federal Government;Ethiopia;United States of America;Somali Salvation Democratic Front;Isaaq clan;Dhulbahante clan;Absguul clan</t>
+  </si>
+  <si>
+    <t>Syria;Lebanon;Iran;Russia;Iraq;United States of America;Syrian Democratic Forces;People's Protection Units;Army of Revolutionaries;Free Syrian Army;Ahrar al-Sham;Suqour al-Sham Brigade;Hezbollah;Kata'ib Hezbollah;Asa'ib Ahl al-Haq;Al-Abbas brigade;Kata'ib Sayyid al-Shuhada;Harakat Hezbollah al-Nujaba;Houthis;Islamic State and Islamic State affiliates;Islamic State of Iraq and the Levant;Yarmouk Martyrs Brigade;Jaysh al-Jihad;Islamic Muthanna Movement</t>
+  </si>
+  <si>
+    <t>NATO;ISAF;United States of America;United Kingdom;France;Russia;China;Islamic State of Iraq and the Levant;Hezbollah;Hamas;Houthis;Southern Movement</t>
+  </si>
+  <si>
+    <t>Yemen;Saudi Arabia;United Arab Emirates;United Kingdom;United States of America;NATO;Houthis;Southern Movement;Islamic State of Iraq and the Levant - Yemen Province</t>
   </si>
 </sst>
 </file>
@@ -6138,8 +6156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FF183"/>
   <sheetViews>
-    <sheetView topLeftCell="CD159" workbookViewId="0">
-      <selection activeCell="CH37" sqref="CH37"/>
+    <sheetView topLeftCell="BY1" workbookViewId="0">
+      <selection activeCell="BZ1" sqref="BZ1:BZ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6219,8 +6237,8 @@
     <col min="81" max="81" width="17.5" style="8" customWidth="1"/>
     <col min="82" max="82" width="18.33203125" style="8" customWidth="1"/>
     <col min="83" max="83" width="24.83203125" style="7" customWidth="1"/>
-    <col min="84" max="84" width="24.1640625" style="7" customWidth="1"/>
-    <col min="85" max="85" width="30.5" style="7" customWidth="1"/>
+    <col min="84" max="84" width="24.1640625" style="7" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="30.5" style="7" hidden="1" customWidth="1"/>
     <col min="86" max="87" width="10.83203125" style="1"/>
     <col min="88" max="88" width="18" style="1" customWidth="1"/>
     <col min="89" max="89" width="17.33203125" style="1" customWidth="1"/>
@@ -11454,10 +11472,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14473BC5-CA06-354C-93C5-FC7E59939184}">
-  <dimension ref="A1:L440"/>
+  <dimension ref="A1:M440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I17" workbookViewId="0">
-      <selection activeCell="K181" sqref="K181"/>
+    <sheetView tabSelected="1" topLeftCell="J17" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11473,9 +11491,10 @@
     <col min="10" max="10" width="49.6640625" style="15" customWidth="1"/>
     <col min="11" max="11" width="27" style="15" customWidth="1"/>
     <col min="12" max="12" width="29.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="51.83203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1361</v>
       </c>
@@ -11512,8 +11531,11 @@
       <c r="L1" s="2" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M1" s="13" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>147</v>
       </c>
@@ -11545,7 +11567,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>152</v>
       </c>
@@ -11573,7 +11595,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>153</v>
       </c>
@@ -11603,8 +11625,11 @@
       <c r="L4" s="2" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M4" s="13" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>162</v>
       </c>
@@ -11632,8 +11657,11 @@
       <c r="L5" s="2" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M5" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>171</v>
       </c>
@@ -11659,8 +11687,11 @@
       <c r="L6" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M6" s="13" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>176</v>
       </c>
@@ -11689,7 +11720,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>181</v>
       </c>
@@ -11718,7 +11749,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>188</v>
       </c>
@@ -11743,7 +11774,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>191</v>
       </c>
@@ -11770,7 +11801,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>195</v>
       </c>
@@ -11799,7 +11830,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>201</v>
       </c>
@@ -11824,7 +11855,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>202</v>
       </c>
@@ -11855,7 +11886,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>208</v>
       </c>
@@ -11881,8 +11912,11 @@
       <c r="L14" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M14" s="13" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>216</v>
       </c>
@@ -11909,7 +11943,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="153" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>222</v>
       </c>
@@ -11937,8 +11971,11 @@
       <c r="L16" s="2" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="404" x14ac:dyDescent="0.2">
+      <c r="M16" s="13" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="404" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>230</v>
       </c>
@@ -11964,8 +12001,11 @@
       <c r="L17" s="2" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M17" s="13" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>234</v>
       </c>
@@ -11993,8 +12033,11 @@
       <c r="L18" s="2" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M18" s="13" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>1494</v>
       </c>
@@ -12022,8 +12065,11 @@
       <c r="L19" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="M19" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>878</v>
       </c>
@@ -12053,8 +12099,11 @@
       <c r="L20" s="2" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M20" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>255</v>
       </c>
@@ -12079,7 +12128,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>256</v>
       </c>
@@ -12105,8 +12154,11 @@
       <c r="L22" s="2" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M22" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>261</v>
       </c>
@@ -12132,8 +12184,11 @@
       <c r="L23" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M23" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>266</v>
       </c>
@@ -12163,8 +12218,11 @@
       <c r="L24" s="2" t="s">
         <v>1603</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M24" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>275</v>
       </c>
@@ -12192,8 +12250,11 @@
       <c r="L25" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M25" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>283</v>
       </c>
@@ -12225,8 +12286,11 @@
       <c r="L26" s="2" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M26" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>292</v>
       </c>
@@ -12254,8 +12318,11 @@
       <c r="L27" s="2" t="s">
         <v>1605</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M27" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>301</v>
       </c>
@@ -12284,8 +12351,11 @@
       <c r="L28" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M28" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>310</v>
       </c>
@@ -12314,8 +12384,11 @@
       <c r="L29" s="2" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M29" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>315</v>
       </c>
@@ -12343,7 +12416,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>318</v>
       </c>
@@ -12371,8 +12444,11 @@
       <c r="L31" s="2" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M31" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>325</v>
       </c>
@@ -12402,7 +12478,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>331</v>
       </c>
@@ -12430,7 +12506,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>332</v>
       </c>
@@ -12458,8 +12534,11 @@
       <c r="L34" s="2" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="M34" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>341</v>
       </c>
@@ -12485,8 +12564,11 @@
       <c r="L35" s="2" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M35" s="13" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>351</v>
       </c>
@@ -12515,7 +12597,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>1386</v>
       </c>
@@ -12544,7 +12626,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>371</v>
       </c>
@@ -12572,7 +12654,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>378</v>
       </c>
@@ -12601,7 +12683,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>388</v>
       </c>
@@ -12630,8 +12712,11 @@
       <c r="L40" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M40" s="13" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>396</v>
       </c>
@@ -12660,8 +12745,11 @@
       <c r="L41" s="2" t="s">
         <v>1612</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M41" s="13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>403</v>
       </c>
@@ -12692,8 +12780,11 @@
       <c r="L42" s="2" t="s">
         <v>1613</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M42" s="13" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>1223</v>
       </c>
@@ -12721,7 +12812,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>410</v>
       </c>
@@ -12749,7 +12840,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>1225</v>
       </c>
@@ -12777,7 +12868,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>428</v>
       </c>
@@ -12809,7 +12900,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>433</v>
       </c>
@@ -12838,8 +12929,11 @@
       <c r="L47" s="2" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M47" s="13" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>442</v>
       </c>
@@ -12869,7 +12963,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>447</v>
       </c>
@@ -12899,7 +12993,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>456</v>
       </c>
@@ -12927,7 +13021,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>469</v>
       </c>
@@ -12961,7 +13055,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>476</v>
       </c>
@@ -12991,7 +13085,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="136" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>482</v>
       </c>
@@ -13019,8 +13113,11 @@
       <c r="L53" s="2" t="s">
         <v>1618</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M53" s="13" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>492</v>
       </c>
@@ -13052,7 +13149,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>498</v>
       </c>
@@ -13080,7 +13177,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>499</v>
       </c>
@@ -13108,7 +13205,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>500</v>
       </c>
@@ -13138,7 +13235,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>505</v>
       </c>
@@ -13166,7 +13263,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>506</v>
       </c>
@@ -13198,7 +13295,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>512</v>
       </c>
@@ -13226,7 +13323,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>1372</v>
       </c>
@@ -13260,7 +13357,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>519</v>
       </c>
@@ -13290,7 +13387,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>1232</v>
       </c>
@@ -13318,7 +13415,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>531</v>
       </c>
@@ -13346,8 +13443,11 @@
       <c r="L64" s="2" t="s">
         <v>1623</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M64" s="13" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>538</v>
       </c>
@@ -13378,8 +13478,11 @@
       <c r="L65" s="2" t="s">
         <v>1624</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M65" s="13" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>546</v>
       </c>
@@ -13407,7 +13510,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>549</v>
       </c>
@@ -13437,7 +13540,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="170" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>552</v>
       </c>
@@ -13463,8 +13566,11 @@
       <c r="L68" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M68" s="13" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>559</v>
       </c>
@@ -13493,8 +13599,11 @@
       <c r="L69" s="2" t="s">
         <v>1625</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M69" s="13" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>563</v>
       </c>
@@ -13524,7 +13633,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>567</v>
       </c>
@@ -13554,7 +13663,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>576</v>
       </c>
@@ -13582,7 +13691,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>577</v>
       </c>
@@ -13611,8 +13720,11 @@
       <c r="L73" s="2" t="s">
         <v>1628</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M73" s="13" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>581</v>
       </c>
@@ -13640,7 +13752,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>582</v>
       </c>
@@ -13668,7 +13780,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>583</v>
       </c>
@@ -13698,7 +13810,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
         <v>587</v>
       </c>
@@ -13726,7 +13838,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
         <v>593</v>
       </c>
@@ -13756,7 +13868,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
         <v>596</v>
       </c>
@@ -13784,7 +13896,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
         <v>597</v>
       </c>
@@ -13812,7 +13924,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
         <v>598</v>
       </c>
@@ -13841,8 +13953,11 @@
       <c r="L81" s="2" t="s">
         <v>1631</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M81" s="13" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
         <v>605</v>
       </c>
@@ -13872,7 +13987,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
         <v>610</v>
       </c>
@@ -13904,7 +14019,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>618</v>
       </c>
@@ -13935,8 +14050,11 @@
       <c r="L84" s="2" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M84" s="13" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
         <v>627</v>
       </c>
@@ -13967,8 +14085,11 @@
       <c r="L85" s="2" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M85" s="13" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
         <v>633</v>
       </c>
@@ -13999,8 +14120,11 @@
       <c r="L86" s="2" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M86" s="13" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
         <v>639</v>
       </c>
@@ -14031,8 +14155,11 @@
       <c r="L87" s="2" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M87" s="13" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
         <v>650</v>
       </c>
@@ -14060,7 +14187,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="289" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="289" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
         <v>160</v>
       </c>
@@ -14088,8 +14215,11 @@
       <c r="L89" s="2" t="s">
         <v>1636</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M89" s="13" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
         <v>1269</v>
       </c>
@@ -14119,8 +14249,11 @@
       <c r="L90" s="2" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M90" s="13" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
         <v>1271</v>
       </c>
@@ -14150,8 +14283,11 @@
       <c r="L91" s="2" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M91" s="13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>669</v>
       </c>
@@ -14179,8 +14315,11 @@
       <c r="L92" s="2" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M92" s="13" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
         <v>1275</v>
       </c>
@@ -14208,8 +14347,11 @@
       <c r="L93" s="2" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M93" s="13" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
         <v>680</v>
       </c>
@@ -14239,7 +14381,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
         <v>683</v>
       </c>
@@ -14270,8 +14412,11 @@
       <c r="L95" s="2" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M95" s="13" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>689</v>
       </c>
@@ -14299,8 +14444,11 @@
       <c r="L96" s="2" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M96" s="13" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
         <v>696</v>
       </c>
@@ -14330,8 +14478,11 @@
       <c r="L97" s="2" t="s">
         <v>1638</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M97" s="13" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
         <v>704</v>
       </c>
@@ -14359,7 +14510,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
         <v>705</v>
       </c>
@@ -14390,8 +14541,11 @@
       <c r="L99" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M99" s="13" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>712</v>
       </c>
@@ -14419,7 +14573,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>713</v>
       </c>
@@ -14447,7 +14601,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
         <v>722</v>
       </c>
@@ -14476,8 +14630,11 @@
       <c r="L102" s="2" t="s">
         <v>1640</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M102" s="13" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
         <v>728</v>
       </c>
@@ -14505,7 +14662,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
         <v>729</v>
       </c>
@@ -14535,8 +14692,11 @@
       <c r="L104" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M104" s="13" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
         <v>1291</v>
       </c>
@@ -14566,8 +14726,11 @@
       <c r="L105" s="2" t="s">
         <v>1641</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M105" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
         <v>743</v>
       </c>
@@ -14595,7 +14758,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
         <v>744</v>
       </c>
@@ -14623,7 +14786,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
         <v>745</v>
       </c>
@@ -14650,7 +14813,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>755</v>
       </c>
@@ -14676,8 +14839,11 @@
       <c r="L109" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M109" s="13" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
         <v>759</v>
       </c>
@@ -14705,7 +14871,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>760</v>
       </c>
@@ -14733,8 +14899,11 @@
       <c r="L111" s="2" t="s">
         <v>1643</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M111" s="13" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
         <v>769</v>
       </c>
@@ -14763,7 +14932,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
         <v>772</v>
       </c>
@@ -14793,7 +14962,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>780</v>
       </c>
@@ -14821,7 +14990,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>781</v>
       </c>
@@ -14851,7 +15020,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>792</v>
       </c>
@@ -14879,7 +15048,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
         <v>797</v>
       </c>
@@ -14911,7 +15080,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
         <v>803</v>
       </c>
@@ -14940,8 +15109,11 @@
       <c r="L118" s="2" t="s">
         <v>1644</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="M118" s="13" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
         <v>807</v>
       </c>
@@ -14971,7 +15143,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
         <v>815</v>
       </c>
@@ -15003,7 +15175,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
         <v>825</v>
       </c>
@@ -15035,7 +15207,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
         <v>833</v>
       </c>
@@ -15065,7 +15237,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
         <v>841</v>
       </c>
@@ -15097,7 +15269,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
         <v>846</v>
       </c>
@@ -15128,8 +15300,11 @@
       <c r="L124" s="2" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M124" s="13" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
         <v>854</v>
       </c>
@@ -15157,7 +15332,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
         <v>866</v>
       </c>
@@ -15185,7 +15360,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
         <v>867</v>
       </c>
@@ -15213,7 +15388,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
         <v>1307</v>
       </c>
@@ -15241,7 +15416,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
         <v>870</v>
       </c>
@@ -15270,8 +15445,11 @@
       <c r="L129" s="2" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M129" s="13" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>873</v>
       </c>
@@ -15303,7 +15481,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
         <v>879</v>
       </c>
@@ -15331,8 +15509,11 @@
       <c r="L131" s="2" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M131" s="13" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
         <v>885</v>
       </c>
@@ -15360,8 +15541,11 @@
       <c r="L132" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M132" s="13" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
         <v>891</v>
       </c>
@@ -15391,7 +15575,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
         <v>898</v>
       </c>
@@ -15419,7 +15603,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
         <v>899</v>
       </c>
@@ -15450,8 +15634,11 @@
       <c r="L135" s="2" t="s">
         <v>1651</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M135" s="13" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
         <v>914</v>
       </c>
@@ -15479,7 +15666,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
         <v>915</v>
       </c>
@@ -15508,8 +15695,11 @@
       <c r="L137" s="2" t="s">
         <v>1652</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M137" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>919</v>
       </c>
@@ -15539,7 +15729,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
         <v>924</v>
       </c>
@@ -15569,7 +15759,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
         <v>930</v>
       </c>
@@ -15601,7 +15791,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
         <v>1314</v>
       </c>
@@ -15629,7 +15819,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
         <v>936</v>
       </c>
@@ -15657,7 +15847,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
         <v>943</v>
       </c>
@@ -15686,8 +15876,11 @@
       <c r="L143" s="2" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M143" s="13" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A144" s="10" t="s">
         <v>948</v>
       </c>
@@ -15719,7 +15912,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
         <v>957</v>
       </c>
@@ -15747,7 +15940,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
         <v>958</v>
       </c>
@@ -15775,7 +15968,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
         <v>1318</v>
       </c>
@@ -15805,7 +15998,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
         <v>971</v>
       </c>
@@ -15837,8 +16030,11 @@
       <c r="L148" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M148" s="13" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A149" s="10" t="s">
         <v>441</v>
       </c>
@@ -15869,8 +16065,11 @@
       <c r="L149" s="2" t="s">
         <v>1658</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M149" s="13" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
         <v>986</v>
       </c>
@@ -15900,7 +16099,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
         <v>993</v>
       </c>
@@ -15929,8 +16128,11 @@
       <c r="L151" s="2" t="s">
         <v>1659</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M151" s="13" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
         <v>999</v>
       </c>
@@ -15959,8 +16161,11 @@
       <c r="L152" s="2" t="s">
         <v>1660</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M152" s="13" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
         <v>1007</v>
       </c>
@@ -15990,7 +16195,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
         <v>1009</v>
       </c>
@@ -16019,8 +16224,11 @@
       <c r="L154" s="2" t="s">
         <v>1661</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="M154" s="13" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
         <v>1014</v>
       </c>
@@ -16050,7 +16258,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
         <v>1019</v>
       </c>
@@ -16081,8 +16289,11 @@
       <c r="L156" s="2" t="s">
         <v>1663</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M156" s="13" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
         <v>1023</v>
       </c>
@@ -16109,7 +16320,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
         <v>1031</v>
       </c>
@@ -16139,7 +16350,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
         <v>1036</v>
       </c>
@@ -16169,7 +16380,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
         <v>1041</v>
       </c>
@@ -16197,7 +16408,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
         <v>1042</v>
       </c>
@@ -16225,7 +16436,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
         <v>1043</v>
       </c>
@@ -16255,7 +16466,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="10" t="s">
         <v>1050</v>
       </c>
@@ -16282,8 +16493,11 @@
       <c r="L163" s="2" t="s">
         <v>1668</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M163" s="13" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
         <v>1055</v>
       </c>
@@ -16311,7 +16525,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
         <v>1056</v>
       </c>
@@ -16339,7 +16553,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="10" t="s">
         <v>1057</v>
       </c>
@@ -16371,7 +16585,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="136" x14ac:dyDescent="0.2">
       <c r="A167" s="10" t="s">
         <v>1061</v>
       </c>
@@ -16403,8 +16617,11 @@
       <c r="L167" s="2" t="s">
         <v>1669</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="M167" s="13" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A168" s="10" t="s">
         <v>1070</v>
       </c>
@@ -16433,8 +16650,11 @@
       <c r="L168" s="2" t="s">
         <v>1670</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M168" s="13" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
         <v>1076</v>
       </c>
@@ -16464,7 +16684,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
         <v>1078</v>
       </c>
@@ -16491,8 +16711,11 @@
       <c r="L170" s="2" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M170" s="13" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="10" t="s">
         <v>1084</v>
       </c>
@@ -16520,7 +16743,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
         <v>1085</v>
       </c>
@@ -16548,7 +16771,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
         <v>1086</v>
       </c>
@@ -16576,7 +16799,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
         <v>1087</v>
       </c>
@@ -16605,8 +16828,11 @@
       <c r="L174" s="2" t="s">
         <v>1671</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="M174" s="13" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
         <v>853</v>
       </c>
@@ -16635,8 +16861,11 @@
       <c r="L175" s="2" t="s">
         <v>1672</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M175" s="13" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
         <v>1099</v>
       </c>
@@ -16665,8 +16894,11 @@
       <c r="L176" s="2" t="s">
         <v>1673</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M176" s="13" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>1110</v>
       </c>
@@ -16698,7 +16930,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
         <v>1117</v>
       </c>
@@ -16730,7 +16962,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
         <v>1125</v>
       </c>
@@ -16756,7 +16988,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
         <v>1126</v>
       </c>
@@ -16786,7 +17018,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
         <v>1141</v>
       </c>
@@ -16816,7 +17048,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
         <v>1145</v>
       </c>
@@ -16848,7 +17080,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
         <v>1156</v>
       </c>
@@ -16876,8 +17108,11 @@
       <c r="L183" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M183" s="13" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="10" t="s">
         <v>1400</v>
       </c>
@@ -16889,7 +17124,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
         <v>1401</v>
       </c>
@@ -16905,7 +17140,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
         <v>1404</v>
       </c>
@@ -16919,7 +17154,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
         <v>1406</v>
       </c>
@@ -16931,7 +17166,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
         <v>1411</v>
       </c>
@@ -16943,7 +17178,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
         <v>975</v>
       </c>
@@ -16958,7 +17193,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
         <v>1158</v>
       </c>
@@ -16973,7 +17208,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
         <v>1414</v>
       </c>
@@ -16985,7 +17220,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
         <v>1415</v>
       </c>
@@ -18160,7 +18395,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="289" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>1722</v>
       </c>
@@ -18206,7 +18441,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>1706</v>
       </c>

--- a/raw/out.xlsx
+++ b/raw/out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianesamson/Projects/cnet-analysis/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344ED128-E9FE-5943-BE4F-B44DA29F0888}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDB67B0-838B-E24D-9E36-0C113E76C93C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="1739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="1829">
   <si>
     <t>Active</t>
   </si>
@@ -5251,6 +5251,276 @@
   </si>
   <si>
     <t>Yemen;Saudi Arabia;United Arab Emirates;United Kingdom;United States of America;NATO;Houthis;Southern Movement;Islamic State of Iraq and the Levant - Yemen Province</t>
+  </si>
+  <si>
+    <t>India;Bangladesh;Myanmar;United States;UNLFW;CorCom</t>
+  </si>
+  <si>
+    <t>Algeria;Niger;Mauritania;Mali;Tunisia;Libya;France;Morocco;Chad;Nigeria;United States of America;Islamic State of Iraq and the Levant - Libyan Province</t>
+  </si>
+  <si>
+    <t>Tripura</t>
+  </si>
+  <si>
+    <t>Al-Saiqa;Operation Dignity coalition</t>
+  </si>
+  <si>
+    <t>Tunisia;Algeria;Libya</t>
+  </si>
+  <si>
+    <t>Peshmerga;Iraq;Syria;Syrian Democratic Forces;United States of America</t>
+  </si>
+  <si>
+    <t>Mahdi Army;Iraq</t>
+  </si>
+  <si>
+    <t>Egypt;Israel;Palestine</t>
+  </si>
+  <si>
+    <t>Mali;Senegal;Mauritania;United States of America;France;National Movement for the Liberation of Azawad</t>
+  </si>
+  <si>
+    <t>Nigeria;Mali</t>
+  </si>
+  <si>
+    <t>Iraq;Popular Mobilization Forces;Asa'ib Ahl al-Haq;Kata'ib Hezbollah;Badr Brigades;Promised Day Brigades;Kurdistan Regional Government;Peshmerga;Iran;Islamic State of Iraq and Levant</t>
+  </si>
+  <si>
+    <t>Iraq;United States of America;United Kingdom;Islamic State of Iraq and the Levant;Al-Qaida in Iraq;Army of the Men of the Naqshbandi Order;Free Syrian Army;Islamic Front;Al-Nusra Front;Kurdistan Workers' Party;White Flags;Army of Conquest;Peshmerga</t>
+  </si>
+  <si>
+    <t>Nigeria;Cameroon;Niger;Chad;Benin</t>
+  </si>
+  <si>
+    <t>Russia;Chechnya;Dagestan;Ingushetia;Kabardino-Balkaria;Karachay-Cherkessia;North Ossetia-Alania;Adygea;Krasnodar Krai;Stavropol Krai;Azerbaijan;Georgia;Armenia;Syria;Rojava;Iraq;Iran;Pakistan;India;NATO</t>
+  </si>
+  <si>
+    <t>British Government;British Army;Police Service of Northern Ireland;An Garda Siochana;Irish Army</t>
+  </si>
+  <si>
+    <t>China;Pakistan;India;Jordan;Kazakhstan;Kyrgyzstan;Mongolia;Russia;Tajikistan;Turkmenistan;United Arab Emirates;Uzbekistan;United States of America;Syria;Syrian Armed Forces;National Defence Force;Liwa Fatemiyoun;Cyprus;Iraqi Shia militiasPeople's Protection Units;Syrian Democratic Forces;Hezbollah;Iranian Revolutionary Guard Corps</t>
+  </si>
+  <si>
+    <t>Islamic Republic of Afghanistan;NATO;Resolute Support Mission</t>
+  </si>
+  <si>
+    <t>Iraq;Islamic State of Iraq and the Levant;Free Syrian Army;Islamic Front;Ahrar al-Sham;Al-Nusra Front;Ajnad al-Sham;Tahrir al-Sham;Peshmerga;Army of Conquest</t>
+  </si>
+  <si>
+    <t>Syria;National Defense Force;Syrian Democratic Forces;Hezbollah;Liwa Fatemiyoun;Iran</t>
+  </si>
+  <si>
+    <t>Turkey;PKK</t>
+  </si>
+  <si>
+    <t>Yemen;Saudi Arabia;United Arab Emirates;Morocco;Senegal;Sudan;Somalia;United States of America;Israe;Bahrain;Egypt;AQAP;Islamic State of Iraq and the Levant - Yemen Province;Academi</t>
+  </si>
+  <si>
+    <t>United Kingdom;Republic of Ireland;Irish People's Liberation Organisation</t>
+  </si>
+  <si>
+    <t>United Kingdom;Royal Ulster Constabulary;British Army;Ulster Defence Association;Red Hand Commando;Ulster Volunteer Force;Irish National Liberation Army;Provisional IRA;IPLO Belfast Brigade</t>
+  </si>
+  <si>
+    <t>Afghanistan;Uzbekistan;China;ISAF;Germany;United States of America;Russia;Pakistan;India;Qatar</t>
+  </si>
+  <si>
+    <t>Uzbekistan;China;Russia;Kazakhstan;Kyrgyzstan;Tajikistan;Turkmenistan;United States of America;Pakistan;India;Afghanistan;International Security Assistance Force</t>
+  </si>
+  <si>
+    <t>Afghanistan;Algeria;Australia;Belgium;Canada;China;Denmark;Egypt;Estonia;Fiji;France;Greece;India;Indonesia;Iran;Iraq;Iraqi Kurdistan;Israel;Italy;Latvia;Lebanon;Libya;Lithuania;Netherlands;Pakistan;Philippines;Russia;Saudi Arabia;Syria;Tajikistan;Tunisia;Turkey;United Kingdom;United States of America;Syrian Democratic Forces;Nineveh Plain Protection Units;Hezbollah;Badr Organisation;Asa'ib Ahl al-Haq;Kata'ib Hezbollah;Harakat Hezbollah al-Nujaba;Kata'ib Sayyid al-Shuhada;Peshmerga;Kurdistan Communities Union;Free Syrian Army;al-Qaeda;Ahrar al-Sham;Al-Nusra Front;Libya Shield Force;Hamas;Shura Council of Mujahideen in Derna;Taliban;Army of Conquest</t>
+  </si>
+  <si>
+    <t>Russia;Georgia;Azerbaijan;Armenia;South Ossetia;Abkhazia;Artsakh</t>
+  </si>
+  <si>
+    <t>Afghanistan;Pakistan;United States of America;Taliban;Tehrik-i-Taliban</t>
+  </si>
+  <si>
+    <t>Libya;New General National Congress;Libya Shield Force;Shura Council of Mujahideen in Derna;Abu Salim Martyrs Brigade;Egypt;United States of America</t>
+  </si>
+  <si>
+    <t>Yemen;Saudi Arabia;Houthis;Al-Qaeda in the Arabian Peninsula;Southern Movement</t>
+  </si>
+  <si>
+    <t>Afghanistan;NATO;ISAF</t>
+  </si>
+  <si>
+    <t>Mali;Algeria;Tunisia;Niger;Libya;France;United States of America</t>
+  </si>
+  <si>
+    <t>Pakistan;United States of America</t>
+  </si>
+  <si>
+    <t>United Nations;United States of America;United Kingdom;France;Russia;China;Netherlands;Sweden;Poland;Brunei;Indonesia;Malaysia;Myanmar;Philippines;Singapore;Thailand;Vietnam;Kazakhstan;Pakistan;Uzbekistan</t>
+  </si>
+  <si>
+    <t>Syria;Iran;Russia;United States of America;Ahrar al-Sham;Suqour al-Sham Brigade;Sham Legion;Free Syrian Army;Tahrir al-Sham</t>
+  </si>
+  <si>
+    <t>Algeria;Morocco;Tunisia;Western Sahara</t>
+  </si>
+  <si>
+    <t>Syrian Armed Forces;Islamic State of Iraq and the Levant;Syrian Democratic Forces;Afghan National Security Forces</t>
+  </si>
+  <si>
+    <t>Iraq;United States of America;Israel;Islamic State of Iraq and the Levant;Mojahedin-e Khalq;Free Syrian Army;Peshmerga</t>
+  </si>
+  <si>
+    <t>Irish republicans;Irish nationalists;Irish Catholics;British Army;Royal Ulster Constabulary;Police Service of Northern Ireland;Ulster Volunteer Force</t>
+  </si>
+  <si>
+    <t>Morocco;Iraq</t>
+  </si>
+  <si>
+    <t>Indonesia;Turkey;United States of America</t>
+  </si>
+  <si>
+    <t>Israel;Egypt;Hamas</t>
+  </si>
+  <si>
+    <t>India;Bhutan</t>
+  </si>
+  <si>
+    <t>India;Myanmar</t>
+  </si>
+  <si>
+    <t>United States of America;Iraq;MNF-I;Free Syrian Army;Islamic State of Iraq and the Levant</t>
+  </si>
+  <si>
+    <t>United Kingdom;British Army;Royal Ulster Constabulary;Ulster loyalist paramilitaries;Official IRA;Irish People's Liberation Organisation</t>
+  </si>
+  <si>
+    <t>British Army;Police Service of Northern Ireland;An Garda Siochana;Irish Defence Forces</t>
+  </si>
+  <si>
+    <t>Colombia;United States of America</t>
+  </si>
+  <si>
+    <t>Syria;Iran;Russia;Lebanon;United States;Turkey;Syrian Democratic Forces;Liwa Zainebiyoun;Liwa Fatemiyoun;Free Syrian Army;Syrian National Army;National Front for Liberation;National Liberation Movement;Men of God Brigade;Hezbollah;Al-Abbas brigade;Harakat Hezbollah al-Nujaba;Islamic State</t>
+  </si>
+  <si>
+    <t>Afghanistan;India;United States of America;NATO;ISAF;Islamic State of Iraq and the Levant - Khorasan Province;Khorasan Province;Jamiat-e Islami;Junbish-i-Milli;Hezbe Wahdat</t>
+  </si>
+  <si>
+    <t>United States of America;Pakistan</t>
+  </si>
+  <si>
+    <t>Irish Republican Army;Irish National Liberation Army;Irish People's Liberation Organization;Irish republicans;Irish nationalists</t>
+  </si>
+  <si>
+    <t>Provisional IRA;Official IRA;Irish National Liberation Army;Irish People's Liberation Organization;Irish republicans;Irish nationalists;An Garda Siochana;British Army;Loyalist Volunteer Force</t>
+  </si>
+  <si>
+    <t>Syria;al-Nusra Front;Free Syrian Army</t>
+  </si>
+  <si>
+    <t>battles</t>
+  </si>
+  <si>
+    <t>Syrian Civil War;Battle of Aleppo;Siege of Nubl and Al-Zahraa;Operation al-Shabah;2013 Latakia offensive;Inter-rebel conflict during the Syrian Civil War;2014 Idlib offensive;al-Nusra Front-Syria Revolutionaries Front conflict;2015 Idlib offensive;Second Battle of Idlib;Siege of al-Fu'ah and Kafriya;Battle of Bosra;2015 Jisr al-Shughur offensive;Battle of Yarmouk Camp;Qalamoun offensive;Battle of Zabadani;2015 Hama Offensive;Northern Aleppo offensive;Idlib Governorate clashes;Syrian Civil War spillover in Lebanon;Battle of Arsal;Military intervention against ISIL;American-led intervention in Syria;Russian military intervention in Syria</t>
+  </si>
+  <si>
+    <t>Afghan Civil War;War in Afghanistan;Civil war in Tajikistan;Second Chechen War;al-Qaeda insurgency in Yemen;Yemeni Civil War;Maghreb insurgency;Northern Mali conflict;Iraq War;Iraqi insurgency;War in North-West Pakistan;Balochistan conflict;Somali Civil War;War in Somalia;Syrian Civil War;Military intervention against ISIL;American-led intervention in Syria;Sinai insurgency;Egyptian Crisis</t>
+  </si>
+  <si>
+    <t>Yemeni Insurgency;Operation Blow to the Head;Battle of Zinjibar;Siege of Dammaj;Battle of Dofas;First Battle of Lawdar;Battle of Radda;2012 Abyan offensive;2012 Sana'a bombing;2013 Sana'a attack;Al Bayda Clashes;Al Bayda Governorate clashes;Yemeni Civil War;Siege of Al Bayda Governorate;Battle of Mukalla;Battle of Mukalla;Hadramaut Insurgency;Abyan campaign;Al Bayda Offensive;Fall of Zinjibar and Jaar;Southern Abyan Offensive;Battle of Taiz;Aden unrest;Shabwah Governorate offensive;Abyan conflict;2017 Yakla raid;Al Hathla raid</t>
+  </si>
+  <si>
+    <t>Insurgency in the Maghreb;Operation Enduring Freedom - Trans Sahara;2016 Nassoumbou attack;Northern Mali conflict;Battle of Aguelhok;Battle of Tessalit;Battles of Gao and Timbuktu;Battle of Konna;Battle of Diabaly;Battle of Ifoghas;Second Battle of Timbuktu;Operation Serval;Battle of Dayet in Maharat</t>
+  </si>
+  <si>
+    <t>Iraq War;Kurdistan Islamist conflict;Syrian Civil War;Battle of Aleppo;2016 Aleppo summer campaign;2018 Idlib demilitarization;Iraqi Civil War</t>
+  </si>
+  <si>
+    <t>Boko Haram insurgency;Northern Mali conflict</t>
+  </si>
+  <si>
+    <t>Iraqi insurgency;Civil war in Iraq;Iraqi insurgency;2013 Hawija clashes;Anbar campaign;Northern Iraq offensive;First Battle of Tikrit;Northern Iraq offensive;Second Battle of Tikrit;Iraqi insurgency</t>
+  </si>
+  <si>
+    <t>Iraq War;Karbala provincial headquarters raid;Operation Together Forward;Siege of Sadr City;Siege of U.K. bases in Basra;Iraq spring fighting of 2008;Battle of Basra;Iraqi Civil War;Lifting of the Siege of Amirli;Operation Ashura;Battle of Baiji;Liberation of Jurf Al Sakhar;Second Battle of Tikrit;Siege of Fallujah;Hawija offensive;Battle of Mosul;Syrian Civil War;Battle of Aleppo;3rd Rif Dimashq offensive;Damascus offensive;4th Rif Dimashq offensive;5th Rif Dimashq offensive;Aleppo offensive;2017 Abu Kamal offensive</t>
+  </si>
+  <si>
+    <t>Boko Haram insurgency;2015 West African offensive</t>
+  </si>
+  <si>
+    <t>Second Chechen War;Insurgency in the North Caucasus;Syrian Civil war;Battle of Aleppo;2016 Southern Aleppo campaign</t>
+  </si>
+  <si>
+    <t>Baren Township riot;Xinjiang conflict;Syrian Civil War</t>
+  </si>
+  <si>
+    <t>Soviet-Afghan War;Afghan Civil War;Afghan Civil War;Afghan Civil War;War in Afghanistan;Taliban insurgency;Operation Zarb-e-Azb</t>
+  </si>
+  <si>
+    <t>Iraqi insurgency;Iraqi Civil War;Second Battle of Tikrit;Syrian Civil War;Siege of Nubl and al-Zahraa;Northwestern Syria offensive;Latakia offensive;Aleppo offensive;Northern Aleppo offensive;2017 Abu Kamal offensive;Rif Dimashq offensive</t>
+  </si>
+  <si>
+    <t>Syrian Civil War;Battle of Aleppo;Aleppo offensive;Aleppo offensive;2015 Jisr al-Shughur offensive;Al-Ghab offensive;Northwestern Syria offensive;2016 Hama offensive;2018 Idlib crisis</t>
+  </si>
+  <si>
+    <t>Insurgency in Egypt</t>
+  </si>
+  <si>
+    <t>Nagorno-Karabakh War;Afghan Civil War;Afghan Civil War;War in Afghanistan</t>
+  </si>
+  <si>
+    <t>Central Bar bombing 1975;Airey Neave killing 1979;Divis Flats bombing 1982;Ballykelly bombing 1982;Darkley Killings 1983;Rossnaree shooting 1987;1994 Shankill Road Killings;July 1997 riots;Newtownhamilton bombing 1998</t>
+  </si>
+  <si>
+    <t>George Seawright assassination;Rosnaree Hotel shooting;Orange Cross Social Club shooting;Donegall Arms shooting;Night of the Long Knives</t>
+  </si>
+  <si>
+    <t>Global War on Terrorism;War in Afghanistan;Taliban insurgency;War in North-West Pakistan;Operation Zarb-e-Azb</t>
+  </si>
+  <si>
+    <t>Islamic insurgency in Uzbekistan;Civil war in Afghanistan;War in Afghanistan;War in North-West Pakistan</t>
+  </si>
+  <si>
+    <t>Nangarhar Offensive;Battle of Darzab;Battle of Tora Bora;Operation Khyber;Battle of Darzab;Insurgency in Jammu and Kashmir;Kashmir Conflict</t>
+  </si>
+  <si>
+    <t>Syrian Civil War;Battle of Aleppo;Siege of Menagh Air Base;2013 Latakia offensive;2016 Latakia offensive;Northwestern Syria campaign;2018 Idlib crisis</t>
+  </si>
+  <si>
+    <t>Soviet war in Afghanistan;Civil war in Afghanistan;Civil war in Afghanistan;Civil war in Afghanistan;War in Afghanistan;War in Afghanistan</t>
+  </si>
+  <si>
+    <t>War in North-West Pakistan;Operation Zarb-e-Azb;Operation Khyber-1;Operation Ghazi</t>
+  </si>
+  <si>
+    <t>Syrian Civil War;Inter-rebel conflict during the Syrian Civil War;2014 Hama offensive;2014 Idlib offensive;Al-Nusra Front-SRF/Hazzm Movement conflict;Second Battle of Idlib;2015 Hama offensive;2016 Khanasir offensive;2016 Hama offensive;October 2016 Idlib Governorate clashes;Idlib Governorate clashes;Military intervention against ISIL;American-led intervention in Syria;Russian military intervention in Syria</t>
+  </si>
+  <si>
+    <t>Syrian Civil War;Siege of Al-Fu'ah-Kafriya;Battle of Aleppo;Northwestern Syria offensive;2016 Latakia offensive;War in Afghanistan</t>
+  </si>
+  <si>
+    <t>Iraq War;Iraqi Civil War;Salahuddin campaign;Lifting of the Siege of Amirli;Liberation of Jurf Al Sakhar;Dhuluiya offensive;Battle of Baiji;Second Battle of Tikrit;Syrian Civil War;Siege of al-Fu'ah and Kafriya;Aleppo offensive;Northern Aleppo offensive;Palmyra offensive;2017 Abu Kamal offensive;Rif Dimashq offensive</t>
+  </si>
+  <si>
+    <t>Northern Mali conflict;Battles of Gao and Timbuktu;Battle of Menaka;Battle of Ifoghas</t>
+  </si>
+  <si>
+    <t>Iraq War;Syrian Civil War</t>
+  </si>
+  <si>
+    <t>Iran-Iraq War;1982 Lebanon War;Bosnian War;South Lebanon conflict;Battle for Herat;Balochistan conflict;Iran-PJAK conflict;Syrian Civil War;2014 Northern Iraq offensive;Military intervention against ISIL;Siege of Amirli;Liberation of Jurf Al Sakhar;Battle of Baiji;Liberation of Tikrit</t>
+  </si>
+  <si>
+    <t>Syrian Civil War;Inter-rebel conflict during the Syrian Civil War;Idlib Governorate clashes;Syrian Liberation Front-Tahrir al-Sham conflict;Siege of al-Fu'ah and Kafriya;Daraa offensive;ISIL Daraa offensive;Qaboun offensive;2017 Hama offensive;Daraa offensive;Quneitra offensive;Syrian Civil War spillover in Lebanon;Qalamoun offensive;Military intervention against ISIL;American-led intervention in Syria;Russian military intervention in Syria;East Ghouta inter-rebel conflict;Turkish military operation in Idlib Governorate;Northwestern Syria campaign;2018 Southern Syria offensive;2018 Idlib crisis;5th Idlib inter-rebel conflict</t>
+  </si>
+  <si>
+    <t>Afghan Civil War;War in Afghanistan</t>
+  </si>
+  <si>
+    <t>War in Afghanistan;War in North-West Pakistan;Operation Zarb-e-Azb;Operation Radd-ul-Fasaad</t>
+  </si>
+  <si>
+    <t>Colombian Armed Conflict</t>
+  </si>
+  <si>
+    <t>Syrian Civil War;Quneitra Governorate clashes;2013 Daraa offensive;First Battle of Al-Shaykh Maskin;Inter-rebel conflict during the Syrian Civil War;Daraa offensive</t>
   </si>
 </sst>
 </file>
@@ -6156,8 +6426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FF183"/>
   <sheetViews>
-    <sheetView topLeftCell="BY1" workbookViewId="0">
-      <selection activeCell="BZ1" sqref="BZ1:BZ1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="BX4" sqref="BX4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6228,11 +6498,11 @@
     <col min="72" max="72" width="19.83203125" style="8" customWidth="1"/>
     <col min="73" max="73" width="62.1640625" style="7" hidden="1" customWidth="1"/>
     <col min="74" max="74" width="51.33203125" style="7" hidden="1" customWidth="1"/>
-    <col min="75" max="75" width="10.83203125" style="8"/>
-    <col min="76" max="76" width="36.5" style="8" customWidth="1"/>
-    <col min="77" max="77" width="86.33203125" style="7" customWidth="1"/>
-    <col min="78" max="78" width="51.83203125" style="7" customWidth="1"/>
-    <col min="79" max="79" width="49.33203125" style="7" customWidth="1"/>
+    <col min="75" max="75" width="10.83203125" style="7"/>
+    <col min="76" max="76" width="36.5" style="7" customWidth="1"/>
+    <col min="77" max="77" width="86.33203125" style="7" hidden="1" customWidth="1"/>
+    <col min="78" max="78" width="51.83203125" style="7" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="49.33203125" style="7" hidden="1" customWidth="1"/>
     <col min="80" max="80" width="32.5" style="7" customWidth="1"/>
     <col min="81" max="81" width="17.5" style="8" customWidth="1"/>
     <col min="82" max="82" width="18.33203125" style="8" customWidth="1"/>
@@ -6243,7 +6513,7 @@
     <col min="88" max="88" width="18" style="1" customWidth="1"/>
     <col min="89" max="89" width="17.33203125" style="1" customWidth="1"/>
     <col min="90" max="92" width="10.83203125" style="1"/>
-    <col min="93" max="93" width="25.5" style="1" customWidth="1"/>
+    <col min="93" max="93" width="25.5" style="2" customWidth="1"/>
     <col min="94" max="94" width="10.83203125" style="1"/>
     <col min="95" max="95" width="15.33203125" style="1" customWidth="1"/>
     <col min="96" max="96" width="14" style="1" customWidth="1"/>
@@ -6518,10 +6788,10 @@
       <c r="BV1" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="BW1" s="8" t="s">
+      <c r="BW1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="BX1" s="8" t="s">
+      <c r="BX1" s="7" t="s">
         <v>82</v>
       </c>
       <c r="BY1" s="7" t="s">
@@ -6572,7 +6842,7 @@
       <c r="CN1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CO1" s="2" t="s">
         <v>121</v>
       </c>
       <c r="CP1" s="1" t="s">
@@ -6836,7 +7106,7 @@
       <c r="CG4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="CO4" s="1" t="s">
+      <c r="CO4" s="2" t="s">
         <v>161</v>
       </c>
     </row>
@@ -6931,7 +7201,7 @@
       <c r="BU8" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="BW8" s="8" t="s">
+      <c r="BW8" s="7" t="s">
         <v>186</v>
       </c>
       <c r="DU8" s="1" t="s">
@@ -6988,7 +7258,7 @@
       <c r="BV11" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BX11" s="8" t="s">
+      <c r="BX11" s="7" t="s">
         <v>199</v>
       </c>
       <c r="CG11" s="7" t="s">
@@ -7025,7 +7295,7 @@
       <c r="BU13" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="BW13" s="8" t="s">
+      <c r="BW13" s="7" t="s">
         <v>186</v>
       </c>
       <c r="DU13" s="1" t="s">
@@ -7133,11 +7403,11 @@
       <c r="CG16" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="CO16" s="1" t="s">
+      <c r="CO16" s="2" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="17" spans="1:100" ht="119" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:100" ht="356" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>230</v>
       </c>
@@ -7165,7 +7435,7 @@
       <c r="CG17" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="CO17" s="1" t="s">
+      <c r="CO17" s="2" t="s">
         <v>1178</v>
       </c>
     </row>
@@ -7206,7 +7476,7 @@
       <c r="CG18" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="CO18" s="1" t="s">
+      <c r="CO18" s="2" t="s">
         <v>240</v>
       </c>
     </row>
@@ -7238,7 +7508,7 @@
       <c r="CC19" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="CO19" s="1" t="s">
+      <c r="CO19" s="2" t="s">
         <v>247</v>
       </c>
     </row>
@@ -7279,7 +7549,7 @@
       <c r="CG20" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="CO20" s="1" t="s">
+      <c r="CO20" s="2" t="s">
         <v>254</v>
       </c>
     </row>
@@ -7371,7 +7641,7 @@
       <c r="CG24" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="CO24" s="1" t="s">
+      <c r="CO24" s="2" t="s">
         <v>1191</v>
       </c>
     </row>
@@ -7403,7 +7673,7 @@
       <c r="CG25" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="CO25" s="1" t="s">
+      <c r="CO25" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -7450,7 +7720,7 @@
       <c r="CG26" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="CO26" s="1" t="s">
+      <c r="CO26" s="2" t="s">
         <v>291</v>
       </c>
     </row>
@@ -7488,7 +7758,7 @@
       <c r="CG27" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="CO27" s="1" t="s">
+      <c r="CO27" s="2" t="s">
         <v>300</v>
       </c>
     </row>
@@ -7529,7 +7799,7 @@
       <c r="CG28" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="CO28" s="1" t="s">
+      <c r="CO28" s="2" t="s">
         <v>1199</v>
       </c>
     </row>
@@ -7608,11 +7878,11 @@
       <c r="CG31" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="CO31" s="1" t="s">
+      <c r="CO31" s="2" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="32" spans="1:100" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:100" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>325</v>
       </c>
@@ -7622,7 +7892,7 @@
       <c r="AT32" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="BX32" s="8" t="s">
+      <c r="BX32" s="7" t="s">
         <v>330</v>
       </c>
       <c r="CG32" s="7" t="s">
@@ -7671,7 +7941,7 @@
       <c r="CG34" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="CO34" s="1" t="s">
+      <c r="CO34" s="2" t="s">
         <v>339</v>
       </c>
       <c r="FA34" s="1" t="s">
@@ -7712,7 +7982,7 @@
       <c r="CG35" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="CO35" s="1" t="s">
+      <c r="CO35" s="2" t="s">
         <v>348</v>
       </c>
       <c r="ET35" s="1" t="s">
@@ -7745,7 +8015,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="1:157" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:157" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>358</v>
       </c>
@@ -7761,7 +8031,7 @@
       <c r="AU37" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="BW37" s="8" t="s">
+      <c r="BW37" s="7" t="s">
         <v>370</v>
       </c>
       <c r="CH37" s="1" t="s">
@@ -7872,11 +8142,11 @@
       <c r="CG40" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="CO40" s="1" t="s">
+      <c r="CO40" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="1:157" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:157" ht="153" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>396</v>
       </c>
@@ -7907,7 +8177,7 @@
       <c r="CG41" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="CO41" s="1" t="s">
+      <c r="CO41" s="2" t="s">
         <v>1216</v>
       </c>
     </row>
@@ -8093,7 +8363,7 @@
       <c r="CG47" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="CO47" s="1" t="s">
+      <c r="CO47" s="2" t="s">
         <v>440</v>
       </c>
       <c r="DT47" s="1" t="s">
@@ -8142,7 +8412,7 @@
       <c r="AY49" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="BW49" s="8" t="s">
+      <c r="BW49" s="7" t="s">
         <v>454</v>
       </c>
       <c r="CN49" s="1" t="s">
@@ -8221,7 +8491,7 @@
       <c r="CM51" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="CO51" s="1">
+      <c r="CO51" s="2">
         <v>350</v>
       </c>
     </row>
@@ -8247,7 +8517,7 @@
       <c r="AY52" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="BW52" s="8" t="s">
+      <c r="BW52" s="7" t="s">
         <v>186</v>
       </c>
       <c r="EV52" s="1">
@@ -8400,7 +8670,7 @@
       <c r="CG61" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="CO61" s="1" t="s">
+      <c r="CO61" s="2" t="s">
         <v>516</v>
       </c>
       <c r="FA61" s="1" t="s">
@@ -8484,7 +8754,7 @@
       <c r="CG64" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="CO64" s="1" t="s">
+      <c r="CO64" s="2" t="s">
         <v>1235</v>
       </c>
     </row>
@@ -8532,14 +8802,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:157" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:157" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>546</v>
       </c>
       <c r="CG66" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="CO66" s="1" t="s">
+      <c r="CO66" s="2" t="s">
         <v>548</v>
       </c>
     </row>
@@ -8640,7 +8910,7 @@
       <c r="CG70" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="CO70" s="1" t="s">
+      <c r="CO70" s="2" t="s">
         <v>1247</v>
       </c>
     </row>
@@ -8815,7 +9085,7 @@
       <c r="CG81" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="CO81" s="1" t="s">
+      <c r="CO81" s="2" t="s">
         <v>603</v>
       </c>
       <c r="EU81" s="1" t="s">
@@ -8874,7 +9144,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="84" spans="1:157" ht="51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:157" ht="153" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>618</v>
       </c>
@@ -8908,7 +9178,7 @@
       <c r="CG84" s="7" t="s">
         <v>1258</v>
       </c>
-      <c r="CO84" s="1" t="s">
+      <c r="CO84" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -8943,7 +9213,7 @@
       <c r="CG85" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="CO85" s="1" t="s">
+      <c r="CO85" s="2" t="s">
         <v>1260</v>
       </c>
     </row>
@@ -9028,7 +9298,7 @@
       <c r="CG87" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="CO87" s="1" t="s">
+      <c r="CO87" s="2" t="s">
         <v>1264</v>
       </c>
     </row>
@@ -9049,7 +9319,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="89" spans="1:157" ht="272" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:157" ht="323" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>160</v>
       </c>
@@ -9080,7 +9350,7 @@
       <c r="CG89" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="CO89" s="1" t="s">
+      <c r="CO89" s="2" t="s">
         <v>1268</v>
       </c>
     </row>
@@ -9150,7 +9420,7 @@
       <c r="CG91" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="CO91" s="1" t="s">
+      <c r="CO91" s="2" t="s">
         <v>1274</v>
       </c>
     </row>
@@ -9182,7 +9452,7 @@
       <c r="CG92" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="CO92" s="1" t="s">
+      <c r="CO92" s="2" t="s">
         <v>676</v>
       </c>
     </row>
@@ -9217,7 +9487,7 @@
       <c r="CG93" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="CO93" s="1" t="s">
+      <c r="CO93" s="2" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -9272,7 +9542,7 @@
       <c r="CG95" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="CO95" s="1" t="s">
+      <c r="CO95" s="2" t="s">
         <v>688</v>
       </c>
     </row>
@@ -9339,7 +9609,7 @@
       <c r="CG97" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="CO97" s="1" t="s">
+      <c r="CO97" s="2" t="s">
         <v>703</v>
       </c>
     </row>
@@ -9442,7 +9712,7 @@
       <c r="CG102" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="CO102" s="1" t="s">
+      <c r="CO102" s="2" t="s">
         <v>727</v>
       </c>
     </row>
@@ -9494,7 +9764,7 @@
       <c r="CG104" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="CO104" s="1" t="s">
+      <c r="CO104" s="2" t="s">
         <v>736</v>
       </c>
     </row>
@@ -9526,7 +9796,7 @@
       <c r="CG105" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="CO105" s="1" t="s">
+      <c r="CO105" s="2" t="s">
         <v>742</v>
       </c>
     </row>
@@ -9631,7 +9901,7 @@
       <c r="CG111" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="CO111" s="1" t="s">
+      <c r="CO111" s="2" t="s">
         <v>767</v>
       </c>
       <c r="EU111" s="1" t="s">
@@ -9677,7 +9947,7 @@
       <c r="BV113" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="BX113" s="8" t="s">
+      <c r="BX113" s="7" t="s">
         <v>778</v>
       </c>
       <c r="CG113" s="7" t="s">
@@ -9782,7 +10052,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="118" spans="1:162" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:162" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>803</v>
       </c>
@@ -9810,7 +10080,7 @@
       <c r="CG118" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="CO118" s="1" t="s">
+      <c r="CO118" s="2" t="s">
         <v>805</v>
       </c>
     </row>
@@ -9862,7 +10132,7 @@
       <c r="BV120" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="BX120" s="8" t="s">
+      <c r="BX120" s="7" t="s">
         <v>821</v>
       </c>
       <c r="CG120" s="7" t="s">
@@ -9874,7 +10144,7 @@
       <c r="CM120" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="CO120" s="1" t="s">
+      <c r="CO120" s="2" t="s">
         <v>823</v>
       </c>
     </row>
@@ -9897,7 +10167,7 @@
       <c r="BV121" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="BX121" s="8" t="s">
+      <c r="BX121" s="7" t="s">
         <v>831</v>
       </c>
       <c r="CG121" s="7" t="s">
@@ -9999,7 +10269,7 @@
       <c r="CG124" s="7" t="s">
         <v>850</v>
       </c>
-      <c r="CO124" s="1" t="s">
+      <c r="CO124" s="2" t="s">
         <v>804</v>
       </c>
     </row>
@@ -10154,7 +10424,7 @@
       <c r="CG131" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="CO131" s="1" t="s">
+      <c r="CO131" s="2" t="s">
         <v>884</v>
       </c>
     </row>
@@ -10289,7 +10559,7 @@
       <c r="CG137" s="7" t="s">
         <v>916</v>
       </c>
-      <c r="CO137" s="1" t="s">
+      <c r="CO137" s="2" t="s">
         <v>918</v>
       </c>
     </row>
@@ -10312,7 +10582,7 @@
       <c r="CG138" s="7" t="s">
         <v>920</v>
       </c>
-      <c r="CO138" s="1" t="s">
+      <c r="CO138" s="2" t="s">
         <v>922</v>
       </c>
     </row>
@@ -10358,7 +10628,7 @@
       <c r="CJ140" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="CO140" s="1" t="s">
+      <c r="CO140" s="2" t="s">
         <v>933</v>
       </c>
       <c r="FA140" s="1" t="s">
@@ -10560,11 +10830,11 @@
       <c r="BZ148" s="7" t="s">
         <v>1320</v>
       </c>
-      <c r="CO148" s="1" t="s">
+      <c r="CO148" s="2" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="149" spans="1:149" ht="68" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:149" ht="388" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
         <v>441</v>
       </c>
@@ -10595,7 +10865,7 @@
       <c r="CG149" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="CO149" s="1" t="s">
+      <c r="CO149" s="2" t="s">
         <v>1322</v>
       </c>
     </row>
@@ -10615,7 +10885,7 @@
       <c r="AP150" s="8" t="s">
         <v>989</v>
       </c>
-      <c r="BW150" s="8" t="s">
+      <c r="BW150" s="7" t="s">
         <v>992</v>
       </c>
       <c r="CA150" s="7" t="s">
@@ -10624,7 +10894,7 @@
       <c r="CE150" s="7" t="s">
         <v>987</v>
       </c>
-      <c r="CO150" s="1" t="s">
+      <c r="CO150" s="2" t="s">
         <v>991</v>
       </c>
       <c r="CW150" s="2" t="s">
@@ -10656,7 +10926,7 @@
       <c r="CG151" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="CO151" s="1" t="s">
+      <c r="CO151" s="2" t="s">
         <v>1326</v>
       </c>
       <c r="DT151" s="1" t="s">
@@ -10694,7 +10964,7 @@
       <c r="CG152" s="7" t="s">
         <v>1003</v>
       </c>
-      <c r="CO152" s="1" t="s">
+      <c r="CO152" s="2" t="s">
         <v>1006</v>
       </c>
     </row>
@@ -10749,7 +11019,7 @@
       <c r="CK154" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="CO154" s="1" t="s">
+      <c r="CO154" s="2" t="s">
         <v>1331</v>
       </c>
     </row>
@@ -10804,7 +11074,7 @@
       <c r="CG156" s="7" t="s">
         <v>1334</v>
       </c>
-      <c r="CO156" s="1" t="s">
+      <c r="CO156" s="2" t="s">
         <v>804</v>
       </c>
     </row>
@@ -10859,7 +11129,7 @@
       <c r="BV158" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="BX158" s="8" t="s">
+      <c r="BX158" s="7" t="s">
         <v>1035</v>
       </c>
       <c r="CG158" s="7" t="s">
@@ -10868,7 +11138,7 @@
       <c r="CM158" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="CO158" s="1" t="s">
+      <c r="CO158" s="2" t="s">
         <v>804</v>
       </c>
     </row>
@@ -10965,7 +11235,7 @@
       <c r="CG163" s="7" t="s">
         <v>1051</v>
       </c>
-      <c r="CO163" s="1" t="s">
+      <c r="CO163" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -10979,7 +11249,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="166" spans="1:157" ht="17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:157" ht="68" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
         <v>1057</v>
       </c>
@@ -10992,7 +11262,7 @@
       <c r="AO166" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="BW166" s="8" t="s">
+      <c r="BW166" s="7" t="s">
         <v>1060</v>
       </c>
     </row>
@@ -11036,7 +11306,7 @@
       <c r="CG167" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="CO167" s="1" t="s">
+      <c r="CO167" s="2" t="s">
         <v>1342</v>
       </c>
     </row>
@@ -11074,7 +11344,7 @@
       <c r="CG168" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="CO168" s="1" t="s">
+      <c r="CO168" s="2" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -11123,7 +11393,7 @@
       <c r="CG170" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="CO170" s="1" t="s">
+      <c r="CO170" s="2" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -11170,11 +11440,11 @@
       <c r="CG174" s="7" t="s">
         <v>1091</v>
       </c>
-      <c r="CO174" s="1" t="s">
+      <c r="CO174" s="2" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="175" spans="1:157" ht="68" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:157" ht="85" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
         <v>853</v>
       </c>
@@ -11202,7 +11472,7 @@
       <c r="CG175" s="7" t="s">
         <v>1095</v>
       </c>
-      <c r="CO175" s="1" t="s">
+      <c r="CO175" s="2" t="s">
         <v>1098</v>
       </c>
     </row>
@@ -11369,7 +11639,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="181" spans="1:157" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:157" ht="34" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
         <v>1141</v>
       </c>
@@ -11382,7 +11652,7 @@
       <c r="AR181" s="8" t="s">
         <v>1142</v>
       </c>
-      <c r="BW181" s="8" t="s">
+      <c r="BW181" s="7" t="s">
         <v>1144</v>
       </c>
     </row>
@@ -11411,7 +11681,7 @@
       <c r="AY182" s="7" t="s">
         <v>1147</v>
       </c>
-      <c r="BW182" s="8" t="s">
+      <c r="BW182" s="7" t="s">
         <v>1154</v>
       </c>
       <c r="CN182" s="1" t="s">
@@ -11458,7 +11728,7 @@
       <c r="BZ183" s="7" t="s">
         <v>1160</v>
       </c>
-      <c r="CO183" s="1" t="s">
+      <c r="CO183" s="2" t="s">
         <v>1359</v>
       </c>
     </row>
@@ -11472,10 +11742,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14473BC5-CA06-354C-93C5-FC7E59939184}">
-  <dimension ref="A1:M440"/>
+  <dimension ref="A1:P440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J17" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11492,9 +11762,10 @@
     <col min="11" max="11" width="27" style="15" customWidth="1"/>
     <col min="12" max="12" width="29.1640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="51.83203125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="51.1640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1361</v>
       </c>
@@ -11534,8 +11805,11 @@
       <c r="M1" s="13" t="s">
         <v>1733</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N1" s="13" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>147</v>
       </c>
@@ -11566,8 +11840,9 @@
       <c r="L2" s="2" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>152</v>
       </c>
@@ -11594,8 +11869,9 @@
       <c r="L3" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N3" s="13"/>
+    </row>
+    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>153</v>
       </c>
@@ -11628,8 +11904,9 @@
       <c r="M4" s="13" t="s">
         <v>1734</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>162</v>
       </c>
@@ -11660,8 +11937,11 @@
       <c r="M5" s="13" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N5" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>171</v>
       </c>
@@ -11690,8 +11970,9 @@
       <c r="M6" s="13" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>176</v>
       </c>
@@ -11719,8 +12000,9 @@
       <c r="L7" s="2" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>181</v>
       </c>
@@ -11748,8 +12030,9 @@
       <c r="L8" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>188</v>
       </c>
@@ -11773,8 +12056,9 @@
       <c r="L9" s="2" t="s">
         <v>1595</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>191</v>
       </c>
@@ -11800,8 +12084,9 @@
       <c r="L10" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>195</v>
       </c>
@@ -11829,8 +12114,9 @@
       <c r="L11" s="2" t="s">
         <v>1596</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>201</v>
       </c>
@@ -11854,8 +12140,9 @@
       <c r="L12" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>202</v>
       </c>
@@ -11885,8 +12172,9 @@
       <c r="L13" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>208</v>
       </c>
@@ -11915,8 +12203,9 @@
       <c r="M14" s="13" t="s">
         <v>1735</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>216</v>
       </c>
@@ -11942,8 +12231,9 @@
       <c r="L15" s="2" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>222</v>
       </c>
@@ -11974,8 +12264,11 @@
       <c r="M16" s="13" t="s">
         <v>1736</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="404" x14ac:dyDescent="0.2">
+      <c r="N16" s="13" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="404" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>230</v>
       </c>
@@ -12004,8 +12297,11 @@
       <c r="M17" s="13" t="s">
         <v>1737</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="N17" s="13" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>234</v>
       </c>
@@ -12036,8 +12332,11 @@
       <c r="M18" s="13" t="s">
         <v>1738</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N18" s="13" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>1494</v>
       </c>
@@ -12066,10 +12365,11 @@
         <v>1418</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>1739</v>
+      </c>
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>878</v>
       </c>
@@ -12100,10 +12400,13 @@
         <v>1601</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1740</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>255</v>
       </c>
@@ -12127,8 +12430,9 @@
       <c r="L21" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>256</v>
       </c>
@@ -12154,11 +12458,9 @@
       <c r="L22" s="2" t="s">
         <v>1602</v>
       </c>
-      <c r="M22" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>261</v>
       </c>
@@ -12185,10 +12487,11 @@
         <v>263</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>1741</v>
+      </c>
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>266</v>
       </c>
@@ -12219,10 +12522,13 @@
         <v>1603</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1742</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>275</v>
       </c>
@@ -12251,10 +12557,11 @@
         <v>278</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>1743</v>
+      </c>
+      <c r="N25" s="13"/>
+    </row>
+    <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>283</v>
       </c>
@@ -12287,10 +12594,13 @@
         <v>1604</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>1744</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>292</v>
       </c>
@@ -12319,10 +12629,11 @@
         <v>1605</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1745</v>
+      </c>
+      <c r="N27" s="13"/>
+    </row>
+    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>301</v>
       </c>
@@ -12352,10 +12663,13 @@
         <v>307</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>1746</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>310</v>
       </c>
@@ -12385,10 +12699,11 @@
         <v>1606</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1747</v>
+      </c>
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>315</v>
       </c>
@@ -12415,8 +12730,9 @@
       <c r="L30" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>318</v>
       </c>
@@ -12445,10 +12761,13 @@
         <v>1607</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1748</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>325</v>
       </c>
@@ -12477,8 +12796,9 @@
       <c r="L32" s="2" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N32" s="13"/>
+    </row>
+    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>331</v>
       </c>
@@ -12505,8 +12825,9 @@
       <c r="L33" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>332</v>
       </c>
@@ -12535,10 +12856,13 @@
         <v>1609</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+        <v>1749</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>341</v>
       </c>
@@ -12565,10 +12889,13 @@
         <v>1610</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>1750</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>351</v>
       </c>
@@ -12596,8 +12923,9 @@
       <c r="L36" s="2" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N36" s="13"/>
+    </row>
+    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>1386</v>
       </c>
@@ -12625,8 +12953,9 @@
       <c r="L37" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N37" s="13"/>
+    </row>
+    <row r="38" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>371</v>
       </c>
@@ -12653,8 +12982,9 @@
       <c r="L38" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N38" s="13"/>
+    </row>
+    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>378</v>
       </c>
@@ -12682,8 +13012,9 @@
       <c r="L39" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N39" s="13"/>
+    </row>
+    <row r="40" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>388</v>
       </c>
@@ -12713,10 +13044,13 @@
         <v>392</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>396</v>
       </c>
@@ -12746,10 +13080,13 @@
         <v>1612</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>1751</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>403</v>
       </c>
@@ -12781,10 +13118,13 @@
         <v>1613</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1752</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>1223</v>
       </c>
@@ -12811,8 +13151,9 @@
       <c r="L43" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N43" s="13"/>
+    </row>
+    <row r="44" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>410</v>
       </c>
@@ -12839,8 +13180,9 @@
       <c r="L44" s="2" t="s">
         <v>1614</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="N44" s="13"/>
+    </row>
+    <row r="45" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>1225</v>
       </c>
@@ -12867,8 +13209,9 @@
       <c r="L45" s="2" t="s">
         <v>1614</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N45" s="13"/>
+    </row>
+    <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>428</v>
       </c>
@@ -12899,8 +13242,9 @@
       <c r="L46" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="N46" s="13"/>
+    </row>
+    <row r="47" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>433</v>
       </c>
@@ -12930,10 +13274,11 @@
         <v>1615</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>1753</v>
+      </c>
+      <c r="N47" s="13"/>
+    </row>
+    <row r="48" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>442</v>
       </c>
@@ -12962,8 +13307,9 @@
       <c r="L48" s="2" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N48" s="13"/>
+    </row>
+    <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>447</v>
       </c>
@@ -12992,8 +13338,9 @@
       <c r="L49" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N49" s="13"/>
+    </row>
+    <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>456</v>
       </c>
@@ -13020,8 +13367,9 @@
       <c r="L50" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N50" s="13"/>
+    </row>
+    <row r="51" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>469</v>
       </c>
@@ -13054,8 +13402,9 @@
       <c r="L51" s="2" t="s">
         <v>1617</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N51" s="13"/>
+    </row>
+    <row r="52" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>476</v>
       </c>
@@ -13084,8 +13433,9 @@
       <c r="L52" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N52" s="13"/>
+    </row>
+    <row r="53" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>482</v>
       </c>
@@ -13114,10 +13464,13 @@
         <v>1618</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>1754</v>
+      </c>
+      <c r="N53" s="13" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>492</v>
       </c>
@@ -13148,8 +13501,9 @@
       <c r="L54" s="2" t="s">
         <v>1619</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N54" s="13"/>
+    </row>
+    <row r="55" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>498</v>
       </c>
@@ -13176,8 +13530,9 @@
       <c r="L55" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N55" s="13"/>
+    </row>
+    <row r="56" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>499</v>
       </c>
@@ -13204,8 +13559,9 @@
       <c r="L56" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N56" s="13"/>
+    </row>
+    <row r="57" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>500</v>
       </c>
@@ -13234,8 +13590,9 @@
       <c r="L57" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N57" s="13"/>
+    </row>
+    <row r="58" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>505</v>
       </c>
@@ -13262,8 +13619,9 @@
       <c r="L58" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N58" s="13"/>
+    </row>
+    <row r="59" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>506</v>
       </c>
@@ -13294,8 +13652,9 @@
       <c r="L59" s="2" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N59" s="13"/>
+    </row>
+    <row r="60" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>512</v>
       </c>
@@ -13322,8 +13681,9 @@
       <c r="L60" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N60" s="13"/>
+    </row>
+    <row r="61" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>1372</v>
       </c>
@@ -13356,8 +13716,9 @@
       <c r="L61" s="2" t="s">
         <v>1621</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="N61" s="13"/>
+    </row>
+    <row r="62" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>519</v>
       </c>
@@ -13386,8 +13747,9 @@
       <c r="L62" s="2" t="s">
         <v>1622</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N62" s="13"/>
+    </row>
+    <row r="63" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>1232</v>
       </c>
@@ -13414,8 +13776,9 @@
       <c r="L63" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N63" s="13"/>
+    </row>
+    <row r="64" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>531</v>
       </c>
@@ -13444,10 +13807,13 @@
         <v>1623</v>
       </c>
       <c r="M64" s="13" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>1755</v>
+      </c>
+      <c r="N64" s="13" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>538</v>
       </c>
@@ -13479,10 +13845,13 @@
         <v>1624</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1756</v>
+      </c>
+      <c r="N65" s="13" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>546</v>
       </c>
@@ -13509,8 +13878,9 @@
       <c r="L66" s="2" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N66" s="13"/>
+    </row>
+    <row r="67" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>549</v>
       </c>
@@ -13539,8 +13909,9 @@
       <c r="L67" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="N67" s="13"/>
+    </row>
+    <row r="68" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>552</v>
       </c>
@@ -13567,10 +13938,13 @@
         <v>307</v>
       </c>
       <c r="M68" s="13" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1757</v>
+      </c>
+      <c r="N68" s="13" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>559</v>
       </c>
@@ -13600,10 +13974,13 @@
         <v>1625</v>
       </c>
       <c r="M69" s="13" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+      <c r="N69" s="13" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>563</v>
       </c>
@@ -13632,8 +14009,11 @@
       <c r="L70" s="2" t="s">
         <v>1626</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="N70" s="13" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>567</v>
       </c>
@@ -13662,8 +14042,9 @@
       <c r="L71" s="2" t="s">
         <v>1627</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N71" s="13"/>
+    </row>
+    <row r="72" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>576</v>
       </c>
@@ -13690,8 +14071,9 @@
       <c r="L72" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="N72" s="13"/>
+    </row>
+    <row r="73" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>577</v>
       </c>
@@ -13721,10 +14103,11 @@
         <v>1628</v>
       </c>
       <c r="M73" s="13" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1758</v>
+      </c>
+      <c r="N73" s="13"/>
+    </row>
+    <row r="74" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>581</v>
       </c>
@@ -13751,8 +14134,9 @@
       <c r="L74" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N74" s="13"/>
+    </row>
+    <row r="75" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>582</v>
       </c>
@@ -13779,8 +14163,9 @@
       <c r="L75" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N75" s="13"/>
+    </row>
+    <row r="76" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>583</v>
       </c>
@@ -13809,8 +14194,9 @@
       <c r="L76" s="2" t="s">
         <v>1629</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N76" s="13"/>
+    </row>
+    <row r="77" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
         <v>587</v>
       </c>
@@ -13837,8 +14223,9 @@
       <c r="L77" s="2" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N77" s="13"/>
+    </row>
+    <row r="78" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
         <v>593</v>
       </c>
@@ -13867,8 +14254,9 @@
       <c r="L78" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N78" s="13"/>
+    </row>
+    <row r="79" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
         <v>596</v>
       </c>
@@ -13895,8 +14283,9 @@
       <c r="L79" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N79" s="13"/>
+    </row>
+    <row r="80" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
         <v>597</v>
       </c>
@@ -13923,8 +14312,9 @@
       <c r="L80" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N80" s="13"/>
+    </row>
+    <row r="81" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
         <v>598</v>
       </c>
@@ -13954,10 +14344,11 @@
         <v>1631</v>
       </c>
       <c r="M81" s="13" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>1759</v>
+      </c>
+      <c r="N81" s="13"/>
+    </row>
+    <row r="82" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
         <v>605</v>
       </c>
@@ -13986,8 +14377,9 @@
       <c r="L82" s="2" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N82" s="13"/>
+    </row>
+    <row r="83" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
         <v>610</v>
       </c>
@@ -14009,17 +14401,16 @@
       <c r="I83" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="J83" s="13" t="s">
-        <v>0</v>
-      </c>
+      <c r="J83" s="13"/>
       <c r="K83" s="13" t="s">
         <v>1418</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N83" s="13"/>
+    </row>
+    <row r="84" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>618</v>
       </c>
@@ -14051,10 +14442,13 @@
         <v>1633</v>
       </c>
       <c r="M84" s="13" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+        <v>1760</v>
+      </c>
+      <c r="N84" s="13" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
         <v>627</v>
       </c>
@@ -14086,10 +14480,13 @@
         <v>1634</v>
       </c>
       <c r="M85" s="13" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>1761</v>
+      </c>
+      <c r="N85" s="13" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
         <v>633</v>
       </c>
@@ -14121,10 +14518,13 @@
         <v>636</v>
       </c>
       <c r="M86" s="13" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>1762</v>
+      </c>
+      <c r="N86" s="13" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
         <v>639</v>
       </c>
@@ -14156,10 +14556,13 @@
         <v>1635</v>
       </c>
       <c r="M87" s="13" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1763</v>
+      </c>
+      <c r="N87" s="13" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
         <v>650</v>
       </c>
@@ -14186,8 +14589,9 @@
       <c r="L88" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="289" x14ac:dyDescent="0.2">
+      <c r="N88" s="13"/>
+    </row>
+    <row r="89" spans="1:14" ht="289" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
         <v>160</v>
       </c>
@@ -14216,10 +14620,11 @@
         <v>1636</v>
       </c>
       <c r="M89" s="13" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>1764</v>
+      </c>
+      <c r="N89" s="13"/>
+    </row>
+    <row r="90" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
         <v>1269</v>
       </c>
@@ -14250,10 +14655,13 @@
         <v>1637</v>
       </c>
       <c r="M90" s="13" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>1765</v>
+      </c>
+      <c r="N90" s="13" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
         <v>1271</v>
       </c>
@@ -14284,10 +14692,13 @@
         <v>1637</v>
       </c>
       <c r="M91" s="13" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>1766</v>
+      </c>
+      <c r="N91" s="13" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>669</v>
       </c>
@@ -14316,10 +14727,11 @@
         <v>1637</v>
       </c>
       <c r="M92" s="13" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>1767</v>
+      </c>
+      <c r="N92" s="13"/>
+    </row>
+    <row r="93" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
         <v>1275</v>
       </c>
@@ -14348,10 +14760,13 @@
         <v>1637</v>
       </c>
       <c r="M93" s="13" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1768</v>
+      </c>
+      <c r="N93" s="13" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
         <v>680</v>
       </c>
@@ -14380,8 +14795,9 @@
       <c r="L94" s="2" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="N94" s="13"/>
+    </row>
+    <row r="95" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
         <v>683</v>
       </c>
@@ -14415,8 +14831,11 @@
       <c r="M95" s="13" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N95" s="13" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>689</v>
       </c>
@@ -14445,10 +14864,13 @@
         <v>693</v>
       </c>
       <c r="M96" s="13" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1769</v>
+      </c>
+      <c r="N96" s="13" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
         <v>696</v>
       </c>
@@ -14479,10 +14901,11 @@
         <v>1638</v>
       </c>
       <c r="M97" s="13" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1770</v>
+      </c>
+      <c r="N97" s="13"/>
+    </row>
+    <row r="98" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
         <v>704</v>
       </c>
@@ -14509,8 +14932,9 @@
       <c r="L98" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N98" s="13"/>
+    </row>
+    <row r="99" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
         <v>705</v>
       </c>
@@ -14542,10 +14966,13 @@
         <v>1418</v>
       </c>
       <c r="M99" s="13" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1771</v>
+      </c>
+      <c r="N99" s="13" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>712</v>
       </c>
@@ -14572,8 +14999,9 @@
       <c r="L100" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N100" s="13"/>
+    </row>
+    <row r="101" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>713</v>
       </c>
@@ -14600,8 +15028,9 @@
       <c r="L101" s="2" t="s">
         <v>1639</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="N101" s="13"/>
+    </row>
+    <row r="102" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
         <v>722</v>
       </c>
@@ -14631,10 +15060,11 @@
         <v>1640</v>
       </c>
       <c r="M102" s="13" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1772</v>
+      </c>
+      <c r="N102" s="13"/>
+    </row>
+    <row r="103" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
         <v>728</v>
       </c>
@@ -14661,8 +15091,9 @@
       <c r="L103" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N103" s="13"/>
+    </row>
+    <row r="104" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
         <v>729</v>
       </c>
@@ -14693,10 +15124,13 @@
         <v>307</v>
       </c>
       <c r="M104" s="13" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>1773</v>
+      </c>
+      <c r="N104" s="13" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
         <v>1291</v>
       </c>
@@ -14727,10 +15161,11 @@
         <v>1641</v>
       </c>
       <c r="M105" s="13" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1774</v>
+      </c>
+      <c r="N105" s="13"/>
+    </row>
+    <row r="106" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
         <v>743</v>
       </c>
@@ -14757,8 +15192,9 @@
       <c r="L106" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N106" s="13"/>
+    </row>
+    <row r="107" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
         <v>744</v>
       </c>
@@ -14785,8 +15221,9 @@
       <c r="L107" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N107" s="13"/>
+    </row>
+    <row r="108" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
         <v>745</v>
       </c>
@@ -14812,8 +15249,9 @@
       <c r="L108" s="2" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N108" s="13"/>
+    </row>
+    <row r="109" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>755</v>
       </c>
@@ -14840,10 +15278,13 @@
         <v>1418</v>
       </c>
       <c r="M109" s="13" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1775</v>
+      </c>
+      <c r="N109" s="13" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
         <v>759</v>
       </c>
@@ -14870,8 +15311,9 @@
       <c r="L110" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="N110" s="13"/>
+    </row>
+    <row r="111" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>760</v>
       </c>
@@ -14900,10 +15342,13 @@
         <v>1643</v>
       </c>
       <c r="M111" s="13" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1776</v>
+      </c>
+      <c r="N111" s="13" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
         <v>769</v>
       </c>
@@ -14931,8 +15376,9 @@
       <c r="L112" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N112" s="13"/>
+    </row>
+    <row r="113" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
         <v>772</v>
       </c>
@@ -14961,8 +15407,9 @@
       <c r="L113" s="2" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N113" s="13"/>
+    </row>
+    <row r="114" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>780</v>
       </c>
@@ -14989,8 +15436,9 @@
       <c r="L114" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="N114" s="13"/>
+    </row>
+    <row r="115" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>781</v>
       </c>
@@ -15019,8 +15467,9 @@
       <c r="L115" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N115" s="13"/>
+    </row>
+    <row r="116" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>792</v>
       </c>
@@ -15047,8 +15496,9 @@
       <c r="L116" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N116" s="13"/>
+    </row>
+    <row r="117" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
         <v>797</v>
       </c>
@@ -15079,8 +15529,9 @@
       <c r="L117" s="2" t="s">
         <v>1644</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N117" s="13"/>
+    </row>
+    <row r="118" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
         <v>803</v>
       </c>
@@ -15112,8 +15563,11 @@
       <c r="M118" s="13" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="N118" s="13" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
         <v>807</v>
       </c>
@@ -15142,8 +15596,9 @@
       <c r="L119" s="2" t="s">
         <v>1645</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N119" s="13"/>
+    </row>
+    <row r="120" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
         <v>815</v>
       </c>
@@ -15174,8 +15629,9 @@
       <c r="L120" s="2" t="s">
         <v>1646</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N120" s="13"/>
+    </row>
+    <row r="121" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
         <v>825</v>
       </c>
@@ -15206,8 +15662,9 @@
       <c r="L121" s="2" t="s">
         <v>1647</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N121" s="13"/>
+    </row>
+    <row r="122" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
         <v>833</v>
       </c>
@@ -15236,8 +15693,9 @@
       <c r="L122" s="2" t="s">
         <v>1648</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N122" s="13"/>
+    </row>
+    <row r="123" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
         <v>841</v>
       </c>
@@ -15268,8 +15726,9 @@
       <c r="L123" s="2" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N123" s="13"/>
+    </row>
+    <row r="124" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
         <v>846</v>
       </c>
@@ -15301,10 +15760,11 @@
         <v>850</v>
       </c>
       <c r="M124" s="13" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1777</v>
+      </c>
+      <c r="N124" s="13"/>
+    </row>
+    <row r="125" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
         <v>854</v>
       </c>
@@ -15331,8 +15791,9 @@
       <c r="L125" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N125" s="13"/>
+    </row>
+    <row r="126" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
         <v>866</v>
       </c>
@@ -15359,8 +15820,9 @@
       <c r="L126" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N126" s="13"/>
+    </row>
+    <row r="127" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
         <v>867</v>
       </c>
@@ -15387,8 +15849,9 @@
       <c r="L127" s="2" t="s">
         <v>1649</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N127" s="13"/>
+    </row>
+    <row r="128" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
         <v>1307</v>
       </c>
@@ -15415,8 +15878,9 @@
       <c r="L128" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N128" s="13"/>
+    </row>
+    <row r="129" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
         <v>870</v>
       </c>
@@ -15446,10 +15910,11 @@
         <v>685</v>
       </c>
       <c r="M129" s="13" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1778</v>
+      </c>
+      <c r="N129" s="13"/>
+    </row>
+    <row r="130" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>873</v>
       </c>
@@ -15480,8 +15945,11 @@
       <c r="L130" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N130" s="13" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
         <v>879</v>
       </c>
@@ -15510,10 +15978,11 @@
         <v>1593</v>
       </c>
       <c r="M131" s="13" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1779</v>
+      </c>
+      <c r="N131" s="13"/>
+    </row>
+    <row r="132" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
         <v>885</v>
       </c>
@@ -15542,10 +16011,11 @@
         <v>1418</v>
       </c>
       <c r="M132" s="13" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>1780</v>
+      </c>
+      <c r="N132" s="13"/>
+    </row>
+    <row r="133" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
         <v>891</v>
       </c>
@@ -15574,8 +16044,9 @@
       <c r="L133" s="2" t="s">
         <v>1650</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N133" s="13"/>
+    </row>
+    <row r="134" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
         <v>898</v>
       </c>
@@ -15602,8 +16073,9 @@
       <c r="L134" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N134" s="13"/>
+    </row>
+    <row r="135" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
         <v>899</v>
       </c>
@@ -15635,10 +16107,13 @@
         <v>1651</v>
       </c>
       <c r="M135" s="13" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1781</v>
+      </c>
+      <c r="N135" s="13" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
         <v>914</v>
       </c>
@@ -15665,8 +16140,9 @@
       <c r="L136" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N136" s="13"/>
+    </row>
+    <row r="137" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
         <v>915</v>
       </c>
@@ -15696,10 +16172,11 @@
         <v>1652</v>
       </c>
       <c r="M137" s="13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>1741</v>
+      </c>
+      <c r="N137" s="13"/>
+    </row>
+    <row r="138" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>919</v>
       </c>
@@ -15728,8 +16205,9 @@
       <c r="L138" s="2" t="s">
         <v>1653</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N138" s="13"/>
+    </row>
+    <row r="139" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
         <v>924</v>
       </c>
@@ -15758,8 +16236,9 @@
       <c r="L139" s="2" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N139" s="13"/>
+    </row>
+    <row r="140" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
         <v>930</v>
       </c>
@@ -15790,8 +16269,9 @@
       <c r="L140" s="2" t="s">
         <v>1654</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N140" s="13"/>
+    </row>
+    <row r="141" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
         <v>1314</v>
       </c>
@@ -15818,8 +16298,9 @@
       <c r="L141" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N141" s="13"/>
+    </row>
+    <row r="142" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
         <v>936</v>
       </c>
@@ -15846,8 +16327,9 @@
       <c r="L142" s="2" t="s">
         <v>1655</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N142" s="13"/>
+    </row>
+    <row r="143" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
         <v>943</v>
       </c>
@@ -15877,10 +16359,11 @@
         <v>946</v>
       </c>
       <c r="M143" s="13" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>1782</v>
+      </c>
+      <c r="N143" s="13"/>
+    </row>
+    <row r="144" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A144" s="10" t="s">
         <v>948</v>
       </c>
@@ -15911,8 +16394,9 @@
       <c r="L144" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N144" s="13"/>
+    </row>
+    <row r="145" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
         <v>957</v>
       </c>
@@ -15939,8 +16423,9 @@
       <c r="L145" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="N145" s="13"/>
+    </row>
+    <row r="146" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
         <v>958</v>
       </c>
@@ -15967,8 +16452,9 @@
       <c r="L146" s="2" t="s">
         <v>1656</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N146" s="13"/>
+    </row>
+    <row r="147" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
         <v>1318</v>
       </c>
@@ -15997,8 +16483,9 @@
       <c r="L147" s="2" t="s">
         <v>1657</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N147" s="13"/>
+    </row>
+    <row r="148" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
         <v>971</v>
       </c>
@@ -16031,10 +16518,13 @@
         <v>1418</v>
       </c>
       <c r="M148" s="13" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>1783</v>
+      </c>
+      <c r="N148" s="13" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A149" s="10" t="s">
         <v>441</v>
       </c>
@@ -16066,10 +16556,11 @@
         <v>1658</v>
       </c>
       <c r="M149" s="13" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1784</v>
+      </c>
+      <c r="N149" s="13"/>
+    </row>
+    <row r="150" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
         <v>986</v>
       </c>
@@ -16098,8 +16589,11 @@
       <c r="L150" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N150" s="13" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
         <v>993</v>
       </c>
@@ -16129,10 +16623,11 @@
         <v>1659</v>
       </c>
       <c r="M151" s="13" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>1785</v>
+      </c>
+      <c r="N151" s="13"/>
+    </row>
+    <row r="152" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
         <v>999</v>
       </c>
@@ -16164,8 +16659,9 @@
       <c r="M152" s="13" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N152" s="13"/>
+    </row>
+    <row r="153" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
         <v>1007</v>
       </c>
@@ -16194,8 +16690,9 @@
       <c r="L153" s="2" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="N153" s="13"/>
+    </row>
+    <row r="154" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
         <v>1009</v>
       </c>
@@ -16225,10 +16722,11 @@
         <v>1661</v>
       </c>
       <c r="M154" s="13" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>1786</v>
+      </c>
+      <c r="N154" s="13"/>
+    </row>
+    <row r="155" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
         <v>1014</v>
       </c>
@@ -16257,8 +16755,9 @@
       <c r="L155" s="2" t="s">
         <v>1662</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N155" s="13"/>
+    </row>
+    <row r="156" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
         <v>1019</v>
       </c>
@@ -16292,8 +16791,11 @@
       <c r="M156" s="13" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N156" s="13" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
         <v>1023</v>
       </c>
@@ -16319,8 +16821,9 @@
       <c r="L157" s="2" t="s">
         <v>1664</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N157" s="13"/>
+    </row>
+    <row r="158" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
         <v>1031</v>
       </c>
@@ -16349,8 +16852,9 @@
       <c r="L158" s="2" t="s">
         <v>1665</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N158" s="13"/>
+    </row>
+    <row r="159" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
         <v>1036</v>
       </c>
@@ -16379,8 +16883,9 @@
       <c r="L159" s="2" t="s">
         <v>1666</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N159" s="13"/>
+    </row>
+    <row r="160" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
         <v>1041</v>
       </c>
@@ -16407,8 +16912,9 @@
       <c r="L160" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N160" s="13"/>
+    </row>
+    <row r="161" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
         <v>1042</v>
       </c>
@@ -16435,8 +16941,9 @@
       <c r="L161" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N161" s="13"/>
+    </row>
+    <row r="162" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
         <v>1043</v>
       </c>
@@ -16465,8 +16972,9 @@
       <c r="L162" s="2" t="s">
         <v>1667</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N162" s="13"/>
+    </row>
+    <row r="163" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="10" t="s">
         <v>1050</v>
       </c>
@@ -16496,8 +17004,11 @@
       <c r="M163" s="13" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N163" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
         <v>1055</v>
       </c>
@@ -16524,8 +17035,9 @@
       <c r="L164" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N164" s="13"/>
+    </row>
+    <row r="165" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
         <v>1056</v>
       </c>
@@ -16552,8 +17064,9 @@
       <c r="L165" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N165" s="13"/>
+    </row>
+    <row r="166" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="10" t="s">
         <v>1057</v>
       </c>
@@ -16584,8 +17097,9 @@
       <c r="L166" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N166" s="13"/>
+    </row>
+    <row r="167" spans="1:14" ht="187" x14ac:dyDescent="0.2">
       <c r="A167" s="10" t="s">
         <v>1061</v>
       </c>
@@ -16618,10 +17132,13 @@
         <v>1669</v>
       </c>
       <c r="M167" s="13" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+        <v>1787</v>
+      </c>
+      <c r="N167" s="13" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A168" s="10" t="s">
         <v>1070</v>
       </c>
@@ -16651,10 +17168,13 @@
         <v>1670</v>
       </c>
       <c r="M168" s="13" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1788</v>
+      </c>
+      <c r="N168" s="13" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
         <v>1076</v>
       </c>
@@ -16683,8 +17203,9 @@
       <c r="L169" s="2" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N169" s="13"/>
+    </row>
+    <row r="170" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
         <v>1078</v>
       </c>
@@ -16712,10 +17233,13 @@
         <v>1077</v>
       </c>
       <c r="M170" s="13" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1789</v>
+      </c>
+      <c r="N170" s="13" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="10" t="s">
         <v>1084</v>
       </c>
@@ -16742,8 +17266,9 @@
       <c r="L171" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N171" s="13"/>
+    </row>
+    <row r="172" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
         <v>1085</v>
       </c>
@@ -16770,8 +17295,9 @@
       <c r="L172" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N172" s="13"/>
+    </row>
+    <row r="173" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
         <v>1086</v>
       </c>
@@ -16798,8 +17324,9 @@
       <c r="L173" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="N173" s="13"/>
+    </row>
+    <row r="174" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
         <v>1087</v>
       </c>
@@ -16829,10 +17356,11 @@
         <v>1671</v>
       </c>
       <c r="M174" s="13" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>1790</v>
+      </c>
+      <c r="N174" s="13"/>
+    </row>
+    <row r="175" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
         <v>853</v>
       </c>
@@ -16862,10 +17390,11 @@
         <v>1672</v>
       </c>
       <c r="M175" s="13" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>1791</v>
+      </c>
+      <c r="N175" s="13"/>
+    </row>
+    <row r="176" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
         <v>1099</v>
       </c>
@@ -16895,10 +17424,13 @@
         <v>1673</v>
       </c>
       <c r="M176" s="13" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+      <c r="N176" s="13" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>1110</v>
       </c>
@@ -16929,8 +17461,9 @@
       <c r="L177" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N177" s="13"/>
+    </row>
+    <row r="178" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
         <v>1117</v>
       </c>
@@ -16961,8 +17494,11 @@
       <c r="L178" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N178" s="13" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
         <v>1125</v>
       </c>
@@ -16987,8 +17523,9 @@
       <c r="L179" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="N179" s="13"/>
+    </row>
+    <row r="180" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
         <v>1126</v>
       </c>
@@ -17017,8 +17554,9 @@
       <c r="L180" s="2" t="s">
         <v>1674</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N180" s="13"/>
+    </row>
+    <row r="181" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
         <v>1141</v>
       </c>
@@ -17047,8 +17585,9 @@
       <c r="L181" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N181" s="13"/>
+    </row>
+    <row r="182" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
         <v>1145</v>
       </c>
@@ -17079,8 +17618,9 @@
       <c r="L182" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N182" s="13"/>
+    </row>
+    <row r="183" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
         <v>1156</v>
       </c>
@@ -17109,10 +17649,13 @@
         <v>1418</v>
       </c>
       <c r="M183" s="13" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>1792</v>
+      </c>
+      <c r="N183" s="13" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="10" t="s">
         <v>1400</v>
       </c>
@@ -17123,8 +17666,9 @@
       <c r="L184" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N184" s="13"/>
+    </row>
+    <row r="185" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
         <v>1401</v>
       </c>
@@ -17139,8 +17683,9 @@
       <c r="L185" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N185" s="13"/>
+    </row>
+    <row r="186" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
         <v>1404</v>
       </c>
@@ -17153,8 +17698,9 @@
       <c r="L186" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N186" s="13"/>
+    </row>
+    <row r="187" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
         <v>1406</v>
       </c>
@@ -17165,8 +17711,9 @@
       <c r="L187" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N187" s="13"/>
+    </row>
+    <row r="188" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
         <v>1411</v>
       </c>
@@ -17177,8 +17724,9 @@
       <c r="L188" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N188" s="13"/>
+    </row>
+    <row r="189" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
         <v>975</v>
       </c>
@@ -17192,8 +17740,9 @@
       <c r="L189" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N189" s="13"/>
+    </row>
+    <row r="190" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
         <v>1158</v>
       </c>
@@ -17207,8 +17756,9 @@
       <c r="L190" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N190" s="13"/>
+    </row>
+    <row r="191" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
         <v>1414</v>
       </c>
@@ -17220,7 +17770,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
         <v>1415</v>
       </c>

--- a/raw/out.xlsx
+++ b/raw/out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianesamson/Projects/cnet-analysis/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDB67B0-838B-E24D-9E36-0C113E76C93C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D224E5-DC5D-024E-9DD0-819850E82531}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out" sheetId="1" r:id="rId1"/>
@@ -6426,8 +6426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FF183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="BX4" sqref="BX4"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="CB1" sqref="CB1:CE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6503,10 +6503,10 @@
     <col min="77" max="77" width="86.33203125" style="7" hidden="1" customWidth="1"/>
     <col min="78" max="78" width="51.83203125" style="7" hidden="1" customWidth="1"/>
     <col min="79" max="79" width="49.33203125" style="7" hidden="1" customWidth="1"/>
-    <col min="80" max="80" width="32.5" style="7" customWidth="1"/>
-    <col min="81" max="81" width="17.5" style="8" customWidth="1"/>
-    <col min="82" max="82" width="18.33203125" style="8" customWidth="1"/>
-    <col min="83" max="83" width="24.83203125" style="7" customWidth="1"/>
+    <col min="80" max="80" width="32.5" style="7" hidden="1" customWidth="1"/>
+    <col min="81" max="81" width="17.5" style="8" hidden="1" customWidth="1"/>
+    <col min="82" max="82" width="18.33203125" style="8" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="24.83203125" style="7" hidden="1" customWidth="1"/>
     <col min="84" max="84" width="24.1640625" style="7" hidden="1" customWidth="1"/>
     <col min="85" max="85" width="30.5" style="7" hidden="1" customWidth="1"/>
     <col min="86" max="87" width="10.83203125" style="1"/>
@@ -11742,10 +11742,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14473BC5-CA06-354C-93C5-FC7E59939184}">
-  <dimension ref="A1:P440"/>
+  <dimension ref="A1:N440"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/raw/out.xlsx
+++ b/raw/out.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianesamson/Projects/cnet-analysis/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7291B4-8196-6F45-86E4-B1EE585EE0EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9D2B39-781D-8D43-BE35-4CB13F85CBFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out" sheetId="1" r:id="rId1"/>
     <sheet name="Nodes" sheetId="3" r:id="rId2"/>
-    <sheet name="MERGED_TO" sheetId="4" r:id="rId3"/>
-    <sheet name="SPLIT_INTO" sheetId="5" r:id="rId4"/>
-    <sheet name="ACTIVE_IN" sheetId="2" r:id="rId5"/>
+    <sheet name="MERGED_TO" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="SPLIT_INTO" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="ACTIVE_IN" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -11575,7 +11575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14473BC5-CA06-354C-93C5-FC7E59939184}">
   <dimension ref="A1:N440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>

--- a/raw/out.xlsx
+++ b/raw/out.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianesamson/Projects/cnet-analysis/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4906D229-44B5-AC40-9C7B-E70F3FC5B62A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703CF236-4683-A44F-9920-77EC41772628}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-780" yWindow="-17700" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="1797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="1830">
   <si>
     <t>Active</t>
   </si>
@@ -4812,30 +4812,6 @@
     <t>Political Wing;Sanjukta Mukti Fouj</t>
   </si>
   <si>
-    <t>opponent</t>
-  </si>
-  <si>
-    <t>Philippines;Australia;Canada;Indonesia;Japan;Malaysia;United Kingdom;United States of America;Vietnam;Moro National Liberation Front;Moro Islamic Liberation Front</t>
-  </si>
-  <si>
-    <t>Transitional Federal Government;Ethiopia;United States of America;Somali Salvation Democratic Front;Isaaq clan;Dhulbahante clan;Absguul clan</t>
-  </si>
-  <si>
-    <t>Syria;Lebanon;Iran;Russia;Iraq;United States of America;Syrian Democratic Forces;People's Protection Units;Army of Revolutionaries;Free Syrian Army;Ahrar al-Sham;Suqour al-Sham Brigade;Hezbollah;Kata'ib Hezbollah;Asa'ib Ahl al-Haq;Al-Abbas brigade;Kata'ib Sayyid al-Shuhada;Harakat Hezbollah al-Nujaba;Houthis;Islamic State and Islamic State affiliates;Islamic State of Iraq and the Levant;Yarmouk Martyrs Brigade;Jaysh al-Jihad;Islamic Muthanna Movement</t>
-  </si>
-  <si>
-    <t>NATO;ISAF;United States of America;United Kingdom;France;Russia;China;Islamic State of Iraq and the Levant;Hezbollah;Hamas;Houthis;Southern Movement</t>
-  </si>
-  <si>
-    <t>Yemen;Saudi Arabia;United Arab Emirates;United Kingdom;United States of America;NATO;Houthis;Southern Movement;Islamic State of Iraq and the Levant - Yemen Province</t>
-  </si>
-  <si>
-    <t>India;Bangladesh;Myanmar;United States;UNLFW;CorCom</t>
-  </si>
-  <si>
-    <t>Algeria;Niger;Mauritania;Mali;Tunisia;Libya;France;Morocco;Chad;Nigeria;United States of America;Islamic State of Iraq and the Levant - Libyan Province</t>
-  </si>
-  <si>
     <t>Tripura</t>
   </si>
   <si>
@@ -4845,84 +4821,18 @@
     <t>Tunisia;Algeria;Libya</t>
   </si>
   <si>
-    <t>Peshmerga;Iraq;Syria;Syrian Democratic Forces;United States of America</t>
-  </si>
-  <si>
-    <t>Mahdi Army;Iraq</t>
-  </si>
-  <si>
     <t>Egypt;Israel;Palestine</t>
   </si>
   <si>
-    <t>Mali;Senegal;Mauritania;United States of America;France;National Movement for the Liberation of Azawad</t>
-  </si>
-  <si>
     <t>Nigeria;Mali</t>
   </si>
   <si>
-    <t>Iraq;Popular Mobilization Forces;Asa'ib Ahl al-Haq;Kata'ib Hezbollah;Badr Brigades;Promised Day Brigades;Kurdistan Regional Government;Peshmerga;Iran;Islamic State of Iraq and Levant</t>
-  </si>
-  <si>
-    <t>Iraq;United States of America;United Kingdom;Islamic State of Iraq and the Levant;Al-Qaida in Iraq;Army of the Men of the Naqshbandi Order;Free Syrian Army;Islamic Front;Al-Nusra Front;Kurdistan Workers' Party;White Flags;Army of Conquest;Peshmerga</t>
-  </si>
-  <si>
     <t>Nigeria;Cameroon;Niger;Chad;Benin</t>
   </si>
   <si>
-    <t>Russia;Chechnya;Dagestan;Ingushetia;Kabardino-Balkaria;Karachay-Cherkessia;North Ossetia-Alania;Adygea;Krasnodar Krai;Stavropol Krai;Azerbaijan;Georgia;Armenia;Syria;Rojava;Iraq;Iran;Pakistan;India;NATO</t>
-  </si>
-  <si>
     <t>British Government;British Army;Police Service of Northern Ireland;An Garda Siochana;Irish Army</t>
   </si>
   <si>
-    <t>China;Pakistan;India;Jordan;Kazakhstan;Kyrgyzstan;Mongolia;Russia;Tajikistan;Turkmenistan;United Arab Emirates;Uzbekistan;United States of America;Syria;Syrian Armed Forces;National Defence Force;Liwa Fatemiyoun;Cyprus;Iraqi Shia militiasPeople's Protection Units;Syrian Democratic Forces;Hezbollah;Iranian Revolutionary Guard Corps</t>
-  </si>
-  <si>
-    <t>Islamic Republic of Afghanistan;NATO;Resolute Support Mission</t>
-  </si>
-  <si>
-    <t>Iraq;Islamic State of Iraq and the Levant;Free Syrian Army;Islamic Front;Ahrar al-Sham;Al-Nusra Front;Ajnad al-Sham;Tahrir al-Sham;Peshmerga;Army of Conquest</t>
-  </si>
-  <si>
-    <t>Syria;National Defense Force;Syrian Democratic Forces;Hezbollah;Liwa Fatemiyoun;Iran</t>
-  </si>
-  <si>
-    <t>Turkey;PKK</t>
-  </si>
-  <si>
-    <t>Yemen;Saudi Arabia;United Arab Emirates;Morocco;Senegal;Sudan;Somalia;United States of America;Israe;Bahrain;Egypt;AQAP;Islamic State of Iraq and the Levant - Yemen Province;Academi</t>
-  </si>
-  <si>
-    <t>United Kingdom;Republic of Ireland;Irish People's Liberation Organisation</t>
-  </si>
-  <si>
-    <t>United Kingdom;Royal Ulster Constabulary;British Army;Ulster Defence Association;Red Hand Commando;Ulster Volunteer Force;Irish National Liberation Army;Provisional IRA;IPLO Belfast Brigade</t>
-  </si>
-  <si>
-    <t>Afghanistan;Uzbekistan;China;ISAF;Germany;United States of America;Russia;Pakistan;India;Qatar</t>
-  </si>
-  <si>
-    <t>Uzbekistan;China;Russia;Kazakhstan;Kyrgyzstan;Tajikistan;Turkmenistan;United States of America;Pakistan;India;Afghanistan;International Security Assistance Force</t>
-  </si>
-  <si>
-    <t>Afghanistan;Algeria;Australia;Belgium;Canada;China;Denmark;Egypt;Estonia;Fiji;France;Greece;India;Indonesia;Iran;Iraq;Iraqi Kurdistan;Israel;Italy;Latvia;Lebanon;Libya;Lithuania;Netherlands;Pakistan;Philippines;Russia;Saudi Arabia;Syria;Tajikistan;Tunisia;Turkey;United Kingdom;United States of America;Syrian Democratic Forces;Nineveh Plain Protection Units;Hezbollah;Badr Organisation;Asa'ib Ahl al-Haq;Kata'ib Hezbollah;Harakat Hezbollah al-Nujaba;Kata'ib Sayyid al-Shuhada;Peshmerga;Kurdistan Communities Union;Free Syrian Army;al-Qaeda;Ahrar al-Sham;Al-Nusra Front;Libya Shield Force;Hamas;Shura Council of Mujahideen in Derna;Taliban;Army of Conquest</t>
-  </si>
-  <si>
-    <t>Russia;Georgia;Azerbaijan;Armenia;South Ossetia;Abkhazia;Artsakh</t>
-  </si>
-  <si>
-    <t>Afghanistan;Pakistan;United States of America;Taliban;Tehrik-i-Taliban</t>
-  </si>
-  <si>
-    <t>Libya;New General National Congress;Libya Shield Force;Shura Council of Mujahideen in Derna;Abu Salim Martyrs Brigade;Egypt;United States of America</t>
-  </si>
-  <si>
-    <t>Yemen;Saudi Arabia;Houthis;Al-Qaeda in the Arabian Peninsula;Southern Movement</t>
-  </si>
-  <si>
-    <t>Afghanistan;NATO;ISAF</t>
-  </si>
-  <si>
     <t>Mali;Algeria;Tunisia;Niger;Libya;France;United States of America</t>
   </si>
   <si>
@@ -4932,66 +4842,27 @@
     <t>United Nations;United States of America;United Kingdom;France;Russia;China;Netherlands;Sweden;Poland;Brunei;Indonesia;Malaysia;Myanmar;Philippines;Singapore;Thailand;Vietnam;Kazakhstan;Pakistan;Uzbekistan</t>
   </si>
   <si>
-    <t>Syria;Iran;Russia;United States of America;Ahrar al-Sham;Suqour al-Sham Brigade;Sham Legion;Free Syrian Army;Tahrir al-Sham</t>
-  </si>
-  <si>
-    <t>Algeria;Morocco;Tunisia;Western Sahara</t>
-  </si>
-  <si>
-    <t>Syrian Armed Forces;Islamic State of Iraq and the Levant;Syrian Democratic Forces;Afghan National Security Forces</t>
-  </si>
-  <si>
-    <t>Iraq;United States of America;Israel;Islamic State of Iraq and the Levant;Mojahedin-e Khalq;Free Syrian Army;Peshmerga</t>
-  </si>
-  <si>
-    <t>Irish republicans;Irish nationalists;Irish Catholics;British Army;Royal Ulster Constabulary;Police Service of Northern Ireland;Ulster Volunteer Force</t>
-  </si>
-  <si>
     <t>Morocco;Iraq</t>
   </si>
   <si>
     <t>Indonesia;Turkey;United States of America</t>
   </si>
   <si>
-    <t>Israel;Egypt;Hamas</t>
-  </si>
-  <si>
     <t>India;Bhutan</t>
   </si>
   <si>
     <t>India;Myanmar</t>
   </si>
   <si>
-    <t>United States of America;Iraq;MNF-I;Free Syrian Army;Islamic State of Iraq and the Levant</t>
-  </si>
-  <si>
-    <t>United Kingdom;British Army;Royal Ulster Constabulary;Ulster loyalist paramilitaries;Official IRA;Irish People's Liberation Organisation</t>
-  </si>
-  <si>
-    <t>British Army;Police Service of Northern Ireland;An Garda Siochana;Irish Defence Forces</t>
-  </si>
-  <si>
     <t>Colombia;United States of America</t>
   </si>
   <si>
-    <t>Syria;Iran;Russia;Lebanon;United States;Turkey;Syrian Democratic Forces;Liwa Zainebiyoun;Liwa Fatemiyoun;Free Syrian Army;Syrian National Army;National Front for Liberation;National Liberation Movement;Men of God Brigade;Hezbollah;Al-Abbas brigade;Harakat Hezbollah al-Nujaba;Islamic State</t>
-  </si>
-  <si>
-    <t>Afghanistan;India;United States of America;NATO;ISAF;Islamic State of Iraq and the Levant - Khorasan Province;Khorasan Province;Jamiat-e Islami;Junbish-i-Milli;Hezbe Wahdat</t>
-  </si>
-  <si>
     <t>United States of America;Pakistan</t>
   </si>
   <si>
     <t>Irish Republican Army;Irish National Liberation Army;Irish People's Liberation Organization;Irish republicans;Irish nationalists</t>
   </si>
   <si>
-    <t>Provisional IRA;Official IRA;Irish National Liberation Army;Irish People's Liberation Organization;Irish republicans;Irish nationalists;An Garda Siochana;British Army;Loyalist Volunteer Force</t>
-  </si>
-  <si>
-    <t>Syria;al-Nusra Front;Free Syrian Army</t>
-  </si>
-  <si>
     <t>battles</t>
   </si>
   <si>
@@ -5425,6 +5296,234 @@
   </si>
   <si>
     <t>Australia;Canada;Japan;New Zealand;United Kingdom;United States of America</t>
+  </si>
+  <si>
+    <t>opponent_country</t>
+  </si>
+  <si>
+    <t>opponent_group</t>
+  </si>
+  <si>
+    <t>opponent_entity</t>
+  </si>
+  <si>
+    <t>Philippines;Australia;Canada;Indonesia;Japan;Malaysia;United Kingdom;United States of America;Vietnam</t>
+  </si>
+  <si>
+    <t>Moro National Liberation Front;Moro Islamic Liberation Front</t>
+  </si>
+  <si>
+    <t>Transitional Federal Government</t>
+  </si>
+  <si>
+    <t>Ethiopia;United States of America</t>
+  </si>
+  <si>
+    <t>Somali Salvation Democratic Front;Isaaq clan;Dhulbahante clan;Absguul clan</t>
+  </si>
+  <si>
+    <t>People's Protection Units;Army of Revolutionaries;Free Syrian Army;Ahrar al-Sham;Suqour al-Sham Brigade;Hezbollah;Kata'ib Hezbollah;Asa'ib Ahl al-Haq;Al-Abbas brigade;Kata'ib Sayyid al-Shuhada;Harakat Hezbollah al-Nujaba;Houthis;Islamic State and Islamic State affiliates;Islamic State of Iraq and the Levant;Yarmouk Martyrs Brigade;Jaysh al-Jihad;Islamic Muthanna Movement</t>
+  </si>
+  <si>
+    <t>Syria;Lebanon;Iran;Russia;Iraq;United States of America</t>
+  </si>
+  <si>
+    <t>Syrian Democratic Forces</t>
+  </si>
+  <si>
+    <t>NATO;ISAF</t>
+  </si>
+  <si>
+    <t>United States of America;United Kingdom;France;Russia;China</t>
+  </si>
+  <si>
+    <t>Islamic State of Iraq and the Levant;Hezbollah;Hamas;Houthis;Southern Movement</t>
+  </si>
+  <si>
+    <t>Houthis;Southern Movement;Islamic State of Iraq and the Levant - Yemen Province</t>
+  </si>
+  <si>
+    <t>Yemen;Saudi Arabia;United Arab Emirates;United Kingdom;United States of America</t>
+  </si>
+  <si>
+    <t>NATO</t>
+  </si>
+  <si>
+    <t>UNLFW;CorCom</t>
+  </si>
+  <si>
+    <t>India;Bangladesh;Myanmar;United States of America</t>
+  </si>
+  <si>
+    <t>Algeria;Niger;Mauritania;Mali;Tunisia;Libya;France;Morocco;Chad;Nigeria;United States of America</t>
+  </si>
+  <si>
+    <t>Islamic State of Iraq and the Levant - Libyan Province</t>
+  </si>
+  <si>
+    <t>Iraq;Syria;United States of America</t>
+  </si>
+  <si>
+    <t>Peshmerga;Syrian Democratic Forces</t>
+  </si>
+  <si>
+    <t>Mali;Senegal;Mauritania;United States of America;France</t>
+  </si>
+  <si>
+    <t>National Movement for the Liberation of Azawad</t>
+  </si>
+  <si>
+    <t>Popular Mobilization Forces;Asa'ib Ahl al-Haq;Kata'ib Hezbollah;Badr Brigades;Promised Day Brigades;Kurdistan Regional Government;Peshmerga;Iran;Islamic State of Iraq and Levant</t>
+  </si>
+  <si>
+    <t>Iraq;United States of America;United Kingdom</t>
+  </si>
+  <si>
+    <t>Islamic State of Iraq and the Levant;Al-Qaida in Iraq;Army of the Men of the Naqshbandi Order;Free Syrian Army;Islamic Front;Al-Nusra Front;Kurdistan Workers' Party;White Flags;Army of Conquest;Peshmerga</t>
+  </si>
+  <si>
+    <t>Russia;Azerbaijan;Georgia;Armenia;Syria;Iraq;Iran;Pakistan;India</t>
+  </si>
+  <si>
+    <t>NATO;Rojava;Chechnya;Dagestan;Ingushetia;Kabardino-Balkaria;Karachay-Cherkessia;North Ossetia-Alania;Adygea;Krasnodar Krai;Stavropol Krai</t>
+  </si>
+  <si>
+    <t>China;Pakistan;India;Jordan;Kazakhstan;Kyrgyzstan;Mongolia;Russia;Tajikistan;Turkmenistan;United Arab Emirates;Uzbekistan;United States of America;Syria</t>
+  </si>
+  <si>
+    <t>Resolute Support Mission</t>
+  </si>
+  <si>
+    <t>Islamic State of Iraq and the Levant;Free Syrian Army;Islamic Front;Ahrar al-Sham;Al-Nusra Front;Ajnad al-Sham;Tahrir al-Sham;Peshmerga;Army of Conquest</t>
+  </si>
+  <si>
+    <t>Hezbollah;Liwa Fatemiyoun;</t>
+  </si>
+  <si>
+    <t>National Defense Force;Syrian Democratic Forces</t>
+  </si>
+  <si>
+    <t>Liwa Fatemiyoun;Cyprus;Iraqi Shia militiasPeople's Protection Units;Syrian Democratic Forces;Hezbollah;Iranian Revolutionary Guard Corps</t>
+  </si>
+  <si>
+    <t>Syrian Armed Forces;National Defence Force</t>
+  </si>
+  <si>
+    <t>PKK</t>
+  </si>
+  <si>
+    <t>AQAP;Islamic State of Iraq and the Levant - Yemen Province;Academi</t>
+  </si>
+  <si>
+    <t>Yemen;Saudi Arabia;United Arab Emirates;Morocco;Senegal;Sudan;Somalia;United States of America;Israel;Bahrain;Egypt</t>
+  </si>
+  <si>
+    <t>United Kingdom;Ireland</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Royal Ulster Constabulary;British Army;Ulster Defence Association;Red Hand Commando;Ulster Volunteer Force;Irish National Liberation Army;Provisional IRA;IPLO Belfast Brigade</t>
+  </si>
+  <si>
+    <t>Afghanistan;Uzbekistan;China;Germany;United States of America;Russia;Pakistan;India;Qatar</t>
+  </si>
+  <si>
+    <t>ISAF</t>
+  </si>
+  <si>
+    <t>Uzbekistan;China;Russia;Kazakhstan;Kyrgyzstan;Tajikistan;Turkmenistan;United States of America;Pakistan;India;Afghanistan</t>
+  </si>
+  <si>
+    <t>Nineveh Plain Protection Units;Hezbollah;Badr Organisation;Asa'ib Ahl al-Haq;Kata'ib Hezbollah;Harakat Hezbollah al-Nujaba;Kata'ib Sayyid al-Shuhada;Peshmerga;Kurdistan Communities Union;Free Syrian Army;al-Qaeda;Ahrar al-Sham;Al-Nusra Front;Libya Shield Force;Hamas;Shura Council of Mujahideen in Derna;Taliban;Army of Conquest</t>
+  </si>
+  <si>
+    <t>Afghanistan;Algeria;Australia;Belgium;Canada;China;Denmark;Egypt;Estonia;Fiji;France;Greece;India;Indonesia;Iran;Iraq;Iraqi Kurdistan;Israel;Italy;Latvia;Lebanon;Libya;Lithuania;Netherlands;Pakistan;Philippines;Russia;Saudi Arabia;Syria;Tajikistan;Tunisia;Turkey;United Kingdom;United States of America</t>
+  </si>
+  <si>
+    <t>Russia;Georgia;Azerbaijan;Armenia</t>
+  </si>
+  <si>
+    <t>South Ossetia;Abkhazia;Artsakh</t>
+  </si>
+  <si>
+    <t>Afghanistan;Pakistan;United States of America</t>
+  </si>
+  <si>
+    <t>Taliban;Tehrik-i-Taliban</t>
+  </si>
+  <si>
+    <t>Libya;Egypt;United States of America</t>
+  </si>
+  <si>
+    <t>New General National Congress;Libya Shield Force;Shura Council of Mujahideen in Derna;Abu Salim Martyrs Brigade</t>
+  </si>
+  <si>
+    <t>Houthis;Al-Qaeda in the Arabian Peninsula;Southern Movement</t>
+  </si>
+  <si>
+    <t>Syria;Iran;Russia;United States of America</t>
+  </si>
+  <si>
+    <t>Ahrar al-Sham;Suqour al-Sham Brigade;Sham Legion;Free Syrian Army;Tahrir al-Sham</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Algeria;Morocco;Tunisia</t>
+  </si>
+  <si>
+    <t>Syrian Armed Forces;Syrian Democratic Forces;Afghan National Security Forces</t>
+  </si>
+  <si>
+    <t>Iraq;United States of America;Israel</t>
+  </si>
+  <si>
+    <t>Islamic State of Iraq and the Levant;Mojahedin-e Khalq;Free Syrian Army;Peshmerga</t>
+  </si>
+  <si>
+    <t>Irish republicans;Irish nationalists;Irish Catholics;Royal Ulster Constabulary;Police Service of Northern Ireland;Ulster Volunteer Force</t>
+  </si>
+  <si>
+    <t>British Army</t>
+  </si>
+  <si>
+    <t>Israel;Egypt</t>
+  </si>
+  <si>
+    <t>United States of America;Iraq</t>
+  </si>
+  <si>
+    <t>MNF-I;Free Syrian Army;Islamic State of Iraq and the Levant</t>
+  </si>
+  <si>
+    <t>Royal Ulster Constabulary;Ulster loyalist paramilitaries;Official IRA;Irish People's Liberation Organisation</t>
+  </si>
+  <si>
+    <t>British Army;Police Service of Northern Ireland;Irish Defence Forces</t>
+  </si>
+  <si>
+    <t>An Garda Siochana</t>
+  </si>
+  <si>
+    <t>Liwa Zainebiyoun;Liwa Fatemiyoun;Free Syrian Army;Syrian National Army;National Front for Liberation;National Liberation Movement;Men of God Brigade;Hezbollah;Al-Abbas brigade;Harakat Hezbollah al-Nujaba;Islamic State</t>
+  </si>
+  <si>
+    <t>Syria;Iran;Russia;Lebanon;United States;Turkey</t>
+  </si>
+  <si>
+    <t>Afghanistan;India;United States of America</t>
+  </si>
+  <si>
+    <t>Islamic State of Iraq and the Levant - Khorasan Province;Khorasan Province;Jamiat-e Islami;Junbish-i-Milli;Hezbe Wahdat</t>
+  </si>
+  <si>
+    <t>Provisional IRA;Official IRA;Irish National Liberation Army;Irish People's Liberation Organization;Irish republicans;Irish nationalists;An Garda Siochana;Loyalist Volunteer Force</t>
+  </si>
+  <si>
+    <t>al-Nusra Front;Free Syrian Army</t>
   </si>
 </sst>
 </file>
@@ -11646,10 +11745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14473BC5-CA06-354C-93C5-FC7E59939184}">
-  <dimension ref="A1:R440"/>
+  <dimension ref="A1:T440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11664,12 +11763,12 @@
     <col min="12" max="13" width="47.83203125" style="2" customWidth="1"/>
     <col min="14" max="14" width="49.6640625" style="15" customWidth="1"/>
     <col min="15" max="15" width="27" style="15" customWidth="1"/>
-    <col min="16" max="16" width="29.1640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="51.83203125" style="13" customWidth="1"/>
-    <col min="18" max="18" width="51.1640625" style="15" customWidth="1"/>
+    <col min="16" max="18" width="29.1640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="51.83203125" style="13" customWidth="1"/>
+    <col min="20" max="20" width="51.1640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1356</v>
       </c>
@@ -11686,31 +11785,31 @@
         <v>1412</v>
       </c>
       <c r="F1" t="s">
-        <v>1690</v>
+        <v>1647</v>
       </c>
       <c r="G1" t="s">
-        <v>1689</v>
+        <v>1646</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>1431</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>1759</v>
+        <v>1716</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>1758</v>
+        <v>1715</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>1762</v>
+        <v>1719</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>1761</v>
+        <v>1718</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>1784</v>
+        <v>1741</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>1783</v>
+        <v>1740</v>
       </c>
       <c r="O1" s="15" t="s">
         <v>1490</v>
@@ -11718,14 +11817,20 @@
       <c r="P1" s="2" t="s">
         <v>1501</v>
       </c>
-      <c r="Q1" s="13" t="s">
-        <v>1592</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="Q1" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>1754</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>147</v>
       </c>
@@ -11738,7 +11843,7 @@
         <v>1413</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1691</v>
+        <v>1648</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>352</v>
@@ -11755,7 +11860,7 @@
         <v>1485</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>1785</v>
+        <v>1742</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>1413</v>
@@ -11763,9 +11868,9 @@
       <c r="P2" s="2" t="s">
         <v>1502</v>
       </c>
-      <c r="R2" s="13"/>
-    </row>
-    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T2" s="13"/>
+    </row>
+    <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>152</v>
       </c>
@@ -11794,9 +11899,9 @@
       <c r="P3" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R3" s="13"/>
-    </row>
-    <row r="4" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T3" s="13"/>
+    </row>
+    <row r="4" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>153</v>
       </c>
@@ -11828,12 +11933,15 @@
       <c r="P4" s="2" t="s">
         <v>1503</v>
       </c>
-      <c r="Q4" s="13" t="s">
-        <v>1593</v>
-      </c>
-      <c r="R4" s="13"/>
-    </row>
-    <row r="5" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q4" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>1757</v>
+      </c>
+      <c r="T4" s="13"/>
+    </row>
+    <row r="5" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>162</v>
       </c>
@@ -11863,14 +11971,14 @@
       <c r="P5" s="2" t="s">
         <v>1504</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="S5" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="T5" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>171</v>
       </c>
@@ -11898,12 +12006,12 @@
       <c r="P6" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="S6" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="R6" s="13"/>
-    </row>
-    <row r="7" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T6" s="13"/>
+    </row>
+    <row r="7" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>176</v>
       </c>
@@ -11916,7 +12024,7 @@
         <v>1413</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1703</v>
+        <v>1660</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>611</v>
@@ -11935,9 +12043,9 @@
       <c r="P7" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="T7" s="13"/>
+    </row>
+    <row r="8" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>181</v>
       </c>
@@ -11959,10 +12067,10 @@
         <v>1413</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>1787</v>
+        <v>1744</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>1786</v>
+        <v>1743</v>
       </c>
       <c r="O8" s="13" t="s">
         <v>1413</v>
@@ -11970,9 +12078,9 @@
       <c r="P8" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R8" s="13"/>
-    </row>
-    <row r="9" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="T8" s="13"/>
+    </row>
+    <row r="9" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>188</v>
       </c>
@@ -11998,9 +12106,9 @@
       <c r="P9" s="2" t="s">
         <v>1505</v>
       </c>
-      <c r="R9" s="13"/>
-    </row>
-    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T9" s="13"/>
+    </row>
+    <row r="10" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>191</v>
       </c>
@@ -12028,9 +12136,9 @@
       <c r="P10" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R10" s="13"/>
-    </row>
-    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>195</v>
       </c>
@@ -12055,7 +12163,7 @@
         <v>1371</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>1788</v>
+        <v>1745</v>
       </c>
       <c r="O11" s="13" t="s">
         <v>1413</v>
@@ -12063,9 +12171,9 @@
       <c r="P11" s="2" t="s">
         <v>1506</v>
       </c>
-      <c r="R11" s="13"/>
-    </row>
-    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T11" s="13"/>
+    </row>
+    <row r="12" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>201</v>
       </c>
@@ -12091,9 +12199,9 @@
       <c r="P12" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R12" s="13"/>
-    </row>
-    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T12" s="13"/>
+    </row>
+    <row r="13" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>202</v>
       </c>
@@ -12125,9 +12233,9 @@
       <c r="P13" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R13" s="13"/>
-    </row>
-    <row r="14" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T13" s="13"/>
+    </row>
+    <row r="14" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>208</v>
       </c>
@@ -12140,10 +12248,10 @@
         <v>2006</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1693</v>
+        <v>1650</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1692</v>
+        <v>1649</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -12157,12 +12265,18 @@
       <c r="P14" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="Q14" s="13" t="s">
-        <v>1594</v>
-      </c>
-      <c r="R14" s="13"/>
-    </row>
-    <row r="15" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="Q14" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>1760</v>
+      </c>
+      <c r="T14" s="13"/>
+    </row>
+    <row r="15" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>216</v>
       </c>
@@ -12190,9 +12304,9 @@
       <c r="P15" s="2" t="s">
         <v>1507</v>
       </c>
-      <c r="R15" s="13"/>
-    </row>
-    <row r="16" spans="1:18" ht="204" x14ac:dyDescent="0.2">
+      <c r="T15" s="13"/>
+    </row>
+    <row r="16" spans="1:20" ht="221" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>222</v>
       </c>
@@ -12207,34 +12321,40 @@
         <v>2017</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>1695</v>
+        <v>1652</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1694</v>
+        <v>1651</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>1433</v>
       </c>
       <c r="I16" s="13"/>
       <c r="K16" s="14" t="s">
-        <v>1764</v>
+        <v>1721</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>1763</v>
+        <v>1720</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="2" t="s">
         <v>1508</v>
       </c>
-      <c r="Q16" s="13" t="s">
-        <v>1595</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="404" x14ac:dyDescent="0.2">
+      <c r="Q16" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>1763</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="404" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>230</v>
       </c>
@@ -12247,18 +12367,18 @@
         <v>1413</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>1691</v>
+        <v>1648</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1696</v>
+        <v>1653</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="K17" s="14" t="s">
-        <v>1766</v>
+        <v>1723</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>1765</v>
+        <v>1722</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="13" t="s">
@@ -12267,14 +12387,20 @@
       <c r="P17" s="2" t="s">
         <v>1509</v>
       </c>
-      <c r="Q17" s="13" t="s">
-        <v>1596</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="170" x14ac:dyDescent="0.2">
+      <c r="Q17" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>1766</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="170" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>234</v>
       </c>
@@ -12287,7 +12413,7 @@
         <v>1413</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>1697</v>
+        <v>1654</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>169</v>
@@ -12297,10 +12423,10 @@
       </c>
       <c r="I18" s="13"/>
       <c r="K18" s="14" t="s">
-        <v>1764</v>
+        <v>1721</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>1767</v>
+        <v>1724</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="13" t="s">
@@ -12309,14 +12435,20 @@
       <c r="P18" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="Q18" s="13" t="s">
-        <v>1597</v>
-      </c>
-      <c r="R18" s="13" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="Q18" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>1769</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>1432</v>
       </c>
@@ -12340,7 +12472,7 @@
         <v>550</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>1768</v>
+        <v>1725</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="13" t="s">
@@ -12349,12 +12481,15 @@
       <c r="P19" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="Q19" s="13" t="s">
-        <v>1598</v>
-      </c>
-      <c r="R19" s="13"/>
-    </row>
-    <row r="20" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+      <c r="R19" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>1772</v>
+      </c>
+      <c r="T19" s="13"/>
+    </row>
+    <row r="20" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>877</v>
       </c>
@@ -12386,14 +12521,17 @@
       <c r="P20" s="2" t="s">
         <v>1511</v>
       </c>
-      <c r="Q20" s="13" t="s">
-        <v>1599</v>
-      </c>
-      <c r="R20" s="13" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>1773</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>255</v>
       </c>
@@ -12419,9 +12557,9 @@
       <c r="P21" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R21" s="13"/>
-    </row>
-    <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T21" s="13"/>
+    </row>
+    <row r="22" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>256</v>
       </c>
@@ -12449,9 +12587,9 @@
       <c r="P22" s="2" t="s">
         <v>1512</v>
       </c>
-      <c r="R22" s="13"/>
-    </row>
-    <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T22" s="13"/>
+    </row>
+    <row r="23" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>261</v>
       </c>
@@ -12464,7 +12602,7 @@
         <v>1413</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>611</v>
@@ -12481,12 +12619,12 @@
       <c r="P23" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="Q23" s="13" t="s">
-        <v>1600</v>
-      </c>
-      <c r="R23" s="13"/>
-    </row>
-    <row r="24" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="R23" s="13" t="s">
+        <v>1592</v>
+      </c>
+      <c r="T23" s="13"/>
+    </row>
+    <row r="24" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>266</v>
       </c>
@@ -12501,7 +12639,7 @@
         <v>2017</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>1698</v>
+        <v>1655</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>671</v>
@@ -12520,14 +12658,14 @@
       <c r="P24" s="2" t="s">
         <v>1513</v>
       </c>
-      <c r="Q24" s="13" t="s">
-        <v>1601</v>
-      </c>
       <c r="R24" s="13" t="s">
+        <v>1593</v>
+      </c>
+      <c r="T24" s="13" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>275</v>
       </c>
@@ -12557,12 +12695,12 @@
       <c r="P25" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="Q25" s="13" t="s">
-        <v>1602</v>
-      </c>
-      <c r="R25" s="13"/>
-    </row>
-    <row r="26" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S25" s="13" t="s">
+        <v>1594</v>
+      </c>
+      <c r="T25" s="13"/>
+    </row>
+    <row r="26" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>283</v>
       </c>
@@ -12579,10 +12717,10 @@
         <v>2014</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1700</v>
+        <v>1657</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>1699</v>
+        <v>1656</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>1435</v>
@@ -12598,14 +12736,17 @@
       <c r="P26" s="2" t="s">
         <v>1514</v>
       </c>
-      <c r="Q26" s="13" t="s">
-        <v>1603</v>
-      </c>
-      <c r="R26" s="13" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="R26" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="S26" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="T26" s="13" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>292</v>
       </c>
@@ -12635,12 +12776,15 @@
       <c r="P27" s="2" t="s">
         <v>1515</v>
       </c>
-      <c r="Q27" s="13" t="s">
-        <v>1604</v>
-      </c>
-      <c r="R27" s="13"/>
-    </row>
-    <row r="28" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="Q27" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="S27" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="T27" s="13"/>
+    </row>
+    <row r="28" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>301</v>
       </c>
@@ -12653,7 +12797,7 @@
         <v>2014</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>1701</v>
+        <v>1658</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>560</v>
@@ -12673,14 +12817,14 @@
       <c r="P28" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="Q28" s="13" t="s">
-        <v>1605</v>
-      </c>
-      <c r="R28" s="13" t="s">
+      <c r="S28" s="13" t="s">
+        <v>1595</v>
+      </c>
+      <c r="T28" s="13" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>310</v>
       </c>
@@ -12694,7 +12838,7 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="12" t="s">
-        <v>1688</v>
+        <v>1645</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -12711,12 +12855,15 @@
       <c r="P29" s="2" t="s">
         <v>1516</v>
       </c>
-      <c r="Q29" s="13" t="s">
-        <v>1606</v>
-      </c>
-      <c r="R29" s="13"/>
-    </row>
-    <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q29" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>1777</v>
+      </c>
+      <c r="T29" s="13"/>
+    </row>
+    <row r="30" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>315</v>
       </c>
@@ -12745,9 +12892,9 @@
       <c r="P30" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R30" s="13"/>
-    </row>
-    <row r="31" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="T30" s="13"/>
+    </row>
+    <row r="31" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>318</v>
       </c>
@@ -12763,7 +12910,7 @@
         <v>320</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>1702</v>
+        <v>1659</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>1436</v>
@@ -12779,14 +12926,14 @@
       <c r="P31" s="2" t="s">
         <v>1517</v>
       </c>
-      <c r="Q31" s="13" t="s">
-        <v>1607</v>
-      </c>
-      <c r="R31" s="13" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="S31" s="13" t="s">
+        <v>1596</v>
+      </c>
+      <c r="T31" s="13" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>325</v>
       </c>
@@ -12817,9 +12964,9 @@
       <c r="P32" s="2" t="s">
         <v>1518</v>
       </c>
-      <c r="R32" s="13"/>
-    </row>
-    <row r="33" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T32" s="13"/>
+    </row>
+    <row r="33" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>331</v>
       </c>
@@ -12848,9 +12995,9 @@
       <c r="P33" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R33" s="13"/>
-    </row>
-    <row r="34" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="T33" s="13"/>
+    </row>
+    <row r="34" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>332</v>
       </c>
@@ -12882,14 +13029,17 @@
       <c r="P34" s="2" t="s">
         <v>1519</v>
       </c>
-      <c r="Q34" s="13" t="s">
-        <v>1608</v>
-      </c>
-      <c r="R34" s="13" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="170" x14ac:dyDescent="0.2">
+      <c r="Q34" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="S34" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="T34" s="13" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="170" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>341</v>
       </c>
@@ -12902,34 +13052,37 @@
         <v>1413</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>1704</v>
+        <v>1661</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>1699</v>
+        <v>1656</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>1437</v>
       </c>
       <c r="I35" s="13"/>
       <c r="K35" s="14" t="s">
-        <v>1770</v>
+        <v>1727</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>1769</v>
+        <v>1726</v>
       </c>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
       <c r="P35" s="2" t="s">
         <v>1520</v>
       </c>
-      <c r="Q35" s="13" t="s">
-        <v>1609</v>
-      </c>
-      <c r="R35" s="13" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q35" s="2" t="s">
+        <v>1781</v>
+      </c>
+      <c r="S35" s="13" t="s">
+        <v>1780</v>
+      </c>
+      <c r="T35" s="13" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>351</v>
       </c>
@@ -12954,7 +13107,7 @@
         <v>1485</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>1789</v>
+        <v>1746</v>
       </c>
       <c r="O36" s="13" t="s">
         <v>1413</v>
@@ -12962,9 +13115,9 @@
       <c r="P36" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="R36" s="13"/>
-    </row>
-    <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T36" s="13"/>
+    </row>
+    <row r="37" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>1381</v>
       </c>
@@ -12994,9 +13147,9 @@
       <c r="P37" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R37" s="13"/>
-    </row>
-    <row r="38" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="T37" s="13"/>
+    </row>
+    <row r="38" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>371</v>
       </c>
@@ -13024,9 +13177,9 @@
       <c r="P38" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="R38" s="13"/>
-    </row>
-    <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T38" s="13"/>
+    </row>
+    <row r="39" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>378</v>
       </c>
@@ -13056,9 +13209,9 @@
       <c r="P39" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R39" s="13"/>
-    </row>
-    <row r="40" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T39" s="13"/>
+    </row>
+    <row r="40" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>388</v>
       </c>
@@ -13071,10 +13224,10 @@
         <v>1413</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>1706</v>
+        <v>1663</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>1705</v>
+        <v>1662</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
@@ -13091,14 +13244,14 @@
       <c r="P40" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="Q40" s="13" t="s">
+      <c r="S40" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="R40" s="13" t="s">
+      <c r="T40" s="13" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>396</v>
       </c>
@@ -13111,10 +13264,10 @@
         <v>1413</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>1708</v>
+        <v>1665</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>1707</v>
+        <v>1664</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
@@ -13131,14 +13284,14 @@
       <c r="P41" s="2" t="s">
         <v>1522</v>
       </c>
-      <c r="Q41" s="13" t="s">
-        <v>1610</v>
-      </c>
-      <c r="R41" s="13" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="S41" s="13" t="s">
+        <v>1597</v>
+      </c>
+      <c r="T41" s="13" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>403</v>
       </c>
@@ -13156,7 +13309,7 @@
         <v>405</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>1709</v>
+        <v>1666</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
@@ -13173,14 +13326,17 @@
       <c r="P42" s="2" t="s">
         <v>1523</v>
       </c>
-      <c r="Q42" s="13" t="s">
-        <v>1611</v>
-      </c>
-      <c r="R42" s="13" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="R42" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="S42" s="13" t="s">
+        <v>1782</v>
+      </c>
+      <c r="T42" s="13" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>1218</v>
       </c>
@@ -13209,9 +13365,9 @@
       <c r="P43" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="R43" s="13"/>
-    </row>
-    <row r="44" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T43" s="13"/>
+    </row>
+    <row r="44" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>410</v>
       </c>
@@ -13239,9 +13395,9 @@
       <c r="P44" s="2" t="s">
         <v>1524</v>
       </c>
-      <c r="R44" s="13"/>
-    </row>
-    <row r="45" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="T44" s="13"/>
+    </row>
+    <row r="45" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>1220</v>
       </c>
@@ -13269,9 +13425,9 @@
       <c r="P45" s="2" t="s">
         <v>1524</v>
       </c>
-      <c r="R45" s="13"/>
-    </row>
-    <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T45" s="13"/>
+    </row>
+    <row r="46" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>428</v>
       </c>
@@ -13304,9 +13460,9 @@
       <c r="P46" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="R46" s="13"/>
-    </row>
-    <row r="47" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="T46" s="13"/>
+    </row>
+    <row r="47" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>433</v>
       </c>
@@ -13339,12 +13495,12 @@
       <c r="P47" s="2" t="s">
         <v>1525</v>
       </c>
-      <c r="Q47" s="13" t="s">
-        <v>1612</v>
-      </c>
-      <c r="R47" s="13"/>
-    </row>
-    <row r="48" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="R47" s="13" t="s">
+        <v>1598</v>
+      </c>
+      <c r="T47" s="13"/>
+    </row>
+    <row r="48" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>442</v>
       </c>
@@ -13374,9 +13530,9 @@
       <c r="P48" s="2" t="s">
         <v>1526</v>
       </c>
-      <c r="R48" s="13"/>
-    </row>
-    <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T48" s="13"/>
+    </row>
+    <row r="49" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>447</v>
       </c>
@@ -13389,10 +13545,10 @@
         <v>1413</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>1711</v>
+        <v>1668</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>1710</v>
+        <v>1667</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
@@ -13406,9 +13562,9 @@
       <c r="P49" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R49" s="13"/>
-    </row>
-    <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T49" s="13"/>
+    </row>
+    <row r="50" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>456</v>
       </c>
@@ -13437,9 +13593,9 @@
       <c r="P50" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R50" s="13"/>
-    </row>
-    <row r="51" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="T50" s="13"/>
+    </row>
+    <row r="51" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>469</v>
       </c>
@@ -13474,9 +13630,9 @@
       <c r="P51" s="2" t="s">
         <v>1527</v>
       </c>
-      <c r="R51" s="13"/>
-    </row>
-    <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T51" s="13"/>
+    </row>
+    <row r="52" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>476</v>
       </c>
@@ -13496,7 +13652,7 @@
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="14" t="s">
-        <v>1760</v>
+        <v>1717</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>1413</v>
@@ -13508,9 +13664,9 @@
       <c r="P52" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R52" s="13"/>
-    </row>
-    <row r="53" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+      <c r="T52" s="13"/>
+    </row>
+    <row r="53" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>482</v>
       </c>
@@ -13521,10 +13677,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>1713</v>
+        <v>1670</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>1712</v>
+        <v>1669</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>1438</v>
@@ -13540,14 +13696,20 @@
       <c r="P53" s="2" t="s">
         <v>1528</v>
       </c>
-      <c r="Q53" s="13" t="s">
-        <v>1613</v>
-      </c>
-      <c r="R53" s="13" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q53" s="2" t="s">
+        <v>1789</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>1790</v>
+      </c>
+      <c r="S53" s="13" t="s">
+        <v>1784</v>
+      </c>
+      <c r="T53" s="13" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>492</v>
       </c>
@@ -13563,7 +13725,7 @@
         <v>493</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>1714</v>
+        <v>1671</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
@@ -13582,9 +13744,9 @@
       <c r="P54" s="2" t="s">
         <v>1529</v>
       </c>
-      <c r="R54" s="13"/>
-    </row>
-    <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T54" s="13"/>
+    </row>
+    <row r="55" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>498</v>
       </c>
@@ -13613,9 +13775,9 @@
       <c r="P55" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R55" s="13"/>
-    </row>
-    <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T55" s="13"/>
+    </row>
+    <row r="56" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>499</v>
       </c>
@@ -13644,9 +13806,9 @@
       <c r="P56" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R56" s="13"/>
-    </row>
-    <row r="57" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="T56" s="13"/>
+    </row>
+    <row r="57" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>500</v>
       </c>
@@ -13676,9 +13838,9 @@
       <c r="P57" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R57" s="13"/>
-    </row>
-    <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T57" s="13"/>
+    </row>
+    <row r="58" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>505</v>
       </c>
@@ -13707,9 +13869,9 @@
       <c r="P58" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R58" s="13"/>
-    </row>
-    <row r="59" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="T58" s="13"/>
+    </row>
+    <row r="59" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>506</v>
       </c>
@@ -13737,7 +13899,7 @@
         <v>1371</v>
       </c>
       <c r="N59" s="13" t="s">
-        <v>1790</v>
+        <v>1747</v>
       </c>
       <c r="O59" s="13" t="s">
         <v>1413</v>
@@ -13745,9 +13907,9 @@
       <c r="P59" s="2" t="s">
         <v>1530</v>
       </c>
-      <c r="R59" s="13"/>
-    </row>
-    <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T59" s="13"/>
+    </row>
+    <row r="60" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>512</v>
       </c>
@@ -13776,9 +13938,9 @@
       <c r="P60" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R60" s="13"/>
-    </row>
-    <row r="61" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T60" s="13"/>
+    </row>
+    <row r="61" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>1367</v>
       </c>
@@ -13794,7 +13956,7 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="12" t="s">
-        <v>1715</v>
+        <v>1672</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
@@ -13805,10 +13967,10 @@
         <v>1413</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>1792</v>
+        <v>1749</v>
       </c>
       <c r="N61" s="13" t="s">
-        <v>1791</v>
+        <v>1748</v>
       </c>
       <c r="O61" s="13" t="s">
         <v>1413</v>
@@ -13816,9 +13978,9 @@
       <c r="P61" s="2" t="s">
         <v>1531</v>
       </c>
-      <c r="R61" s="13"/>
-    </row>
-    <row r="62" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="T61" s="13"/>
+    </row>
+    <row r="62" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>519</v>
       </c>
@@ -13847,9 +14009,9 @@
       <c r="P62" s="2" t="s">
         <v>1532</v>
       </c>
-      <c r="R62" s="13"/>
-    </row>
-    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T62" s="13"/>
+    </row>
+    <row r="63" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>1227</v>
       </c>
@@ -13878,9 +14040,9 @@
       <c r="P63" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R63" s="13"/>
-    </row>
-    <row r="64" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T63" s="13"/>
+    </row>
+    <row r="64" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>531</v>
       </c>
@@ -13913,14 +14075,20 @@
       <c r="P64" s="2" t="s">
         <v>1533</v>
       </c>
-      <c r="Q64" s="13" t="s">
-        <v>1614</v>
-      </c>
-      <c r="R64" s="13" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="Q64" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="S64" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="T64" s="13" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>538</v>
       </c>
@@ -13935,7 +14103,7 @@
         <v>1413</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>1716</v>
+        <v>1673</v>
       </c>
       <c r="G65" s="12" t="s">
         <v>294</v>
@@ -13947,24 +14115,27 @@
         <v>1450</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>1770</v>
+        <v>1727</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>1771</v>
+        <v>1728</v>
       </c>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
       <c r="P65" s="2" t="s">
         <v>1534</v>
       </c>
-      <c r="Q65" s="13" t="s">
-        <v>1615</v>
-      </c>
-      <c r="R65" s="13" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q65" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="S65" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="T65" s="13" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>546</v>
       </c>
@@ -13992,9 +14163,9 @@
       <c r="P66" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="R66" s="13"/>
-    </row>
-    <row r="67" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T66" s="13"/>
+    </row>
+    <row r="67" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>549</v>
       </c>
@@ -14024,9 +14195,9 @@
       <c r="P67" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R67" s="13"/>
-    </row>
-    <row r="68" spans="1:18" ht="170" x14ac:dyDescent="0.2">
+      <c r="T67" s="13"/>
+    </row>
+    <row r="68" spans="1:20" ht="170" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>552</v>
       </c>
@@ -14053,14 +14224,20 @@
       <c r="P68" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="Q68" s="13" t="s">
-        <v>1616</v>
-      </c>
-      <c r="R68" s="13" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q68" s="2" t="s">
+        <v>1787</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="S68" s="13" t="s">
+        <v>1734</v>
+      </c>
+      <c r="T68" s="13" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>559</v>
       </c>
@@ -14090,14 +14267,14 @@
       <c r="P69" s="2" t="s">
         <v>1535</v>
       </c>
-      <c r="Q69" s="13" t="s">
+      <c r="S69" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="R69" s="13" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="T69" s="13" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>563</v>
       </c>
@@ -14127,11 +14304,11 @@
       <c r="P70" s="2" t="s">
         <v>1536</v>
       </c>
-      <c r="R70" s="13" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="T70" s="13" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>567</v>
       </c>
@@ -14161,9 +14338,9 @@
       <c r="P71" s="2" t="s">
         <v>1537</v>
       </c>
-      <c r="R71" s="13"/>
-    </row>
-    <row r="72" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T71" s="13"/>
+    </row>
+    <row r="72" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>576</v>
       </c>
@@ -14192,9 +14369,9 @@
       <c r="P72" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R72" s="13"/>
-    </row>
-    <row r="73" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="T72" s="13"/>
+    </row>
+    <row r="73" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>577</v>
       </c>
@@ -14225,12 +14402,15 @@
       <c r="P73" s="2" t="s">
         <v>1538</v>
       </c>
-      <c r="Q73" s="13" t="s">
-        <v>1617</v>
-      </c>
-      <c r="R73" s="13"/>
-    </row>
-    <row r="74" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q73" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="S73" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="T73" s="13"/>
+    </row>
+    <row r="74" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>581</v>
       </c>
@@ -14259,9 +14439,9 @@
       <c r="P74" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R74" s="13"/>
-    </row>
-    <row r="75" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T74" s="13"/>
+    </row>
+    <row r="75" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>582</v>
       </c>
@@ -14290,9 +14470,9 @@
       <c r="P75" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R75" s="13"/>
-    </row>
-    <row r="76" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T75" s="13"/>
+    </row>
+    <row r="76" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>583</v>
       </c>
@@ -14323,9 +14503,9 @@
       <c r="P76" s="2" t="s">
         <v>1539</v>
       </c>
-      <c r="R76" s="13"/>
-    </row>
-    <row r="77" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="T76" s="13"/>
+    </row>
+    <row r="77" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
         <v>587</v>
       </c>
@@ -14354,9 +14534,9 @@
       <c r="P77" s="2" t="s">
         <v>1540</v>
       </c>
-      <c r="R77" s="13"/>
-    </row>
-    <row r="78" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="T77" s="13"/>
+    </row>
+    <row r="78" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
         <v>593</v>
       </c>
@@ -14387,9 +14567,9 @@
       <c r="P78" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R78" s="13"/>
-    </row>
-    <row r="79" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T78" s="13"/>
+    </row>
+    <row r="79" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
         <v>596</v>
       </c>
@@ -14418,9 +14598,9 @@
       <c r="P79" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R79" s="13"/>
-    </row>
-    <row r="80" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T79" s="13"/>
+    </row>
+    <row r="80" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
         <v>597</v>
       </c>
@@ -14449,9 +14629,9 @@
       <c r="P80" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R80" s="13"/>
-    </row>
-    <row r="81" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="T80" s="13"/>
+    </row>
+    <row r="81" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
         <v>598</v>
       </c>
@@ -14473,10 +14653,10 @@
         <v>1413</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>1773</v>
+        <v>1730</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>1772</v>
+        <v>1729</v>
       </c>
       <c r="N81" s="13"/>
       <c r="O81" s="13" t="s">
@@ -14485,12 +14665,15 @@
       <c r="P81" s="2" t="s">
         <v>1541</v>
       </c>
-      <c r="Q81" s="13" t="s">
-        <v>1618</v>
-      </c>
-      <c r="R81" s="13"/>
-    </row>
-    <row r="82" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q81" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="S81" s="13" t="s">
+        <v>1793</v>
+      </c>
+      <c r="T81" s="13"/>
+    </row>
+    <row r="82" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
         <v>605</v>
       </c>
@@ -14521,9 +14704,9 @@
       <c r="P82" s="2" t="s">
         <v>1542</v>
       </c>
-      <c r="R82" s="13"/>
-    </row>
-    <row r="83" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T82" s="13"/>
+    </row>
+    <row r="83" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
         <v>610</v>
       </c>
@@ -14554,9 +14737,9 @@
       <c r="P83" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="R83" s="13"/>
-    </row>
-    <row r="84" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="T83" s="13"/>
+    </row>
+    <row r="84" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>618</v>
       </c>
@@ -14589,14 +14772,17 @@
       <c r="P84" s="2" t="s">
         <v>1543</v>
       </c>
-      <c r="Q84" s="13" t="s">
-        <v>1619</v>
-      </c>
-      <c r="R84" s="13" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="Q84" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="S84" s="13" t="s">
+        <v>1794</v>
+      </c>
+      <c r="T84" s="13" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
         <v>627</v>
       </c>
@@ -14628,14 +14814,17 @@
       <c r="P85" s="2" t="s">
         <v>1544</v>
       </c>
-      <c r="Q85" s="13" t="s">
-        <v>1620</v>
-      </c>
-      <c r="R85" s="13" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="Q85" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="S85" s="13" t="s">
+        <v>1795</v>
+      </c>
+      <c r="T85" s="13" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
         <v>633</v>
       </c>
@@ -14667,14 +14856,17 @@
       <c r="P86" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="Q86" s="13" t="s">
-        <v>1621</v>
-      </c>
-      <c r="R86" s="13" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="R86" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="S86" s="13" t="s">
+        <v>1797</v>
+      </c>
+      <c r="T86" s="13" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
         <v>639</v>
       </c>
@@ -14687,10 +14879,10 @@
         <v>2015</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>1718</v>
+        <v>1675</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>1717</v>
+        <v>1674</v>
       </c>
       <c r="H87" s="13" t="s">
         <v>160</v>
@@ -14708,14 +14900,17 @@
       <c r="P87" s="2" t="s">
         <v>1545</v>
       </c>
-      <c r="Q87" s="13" t="s">
-        <v>1622</v>
-      </c>
-      <c r="R87" s="13" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="R87" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="S87" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T87" s="13" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
         <v>650</v>
       </c>
@@ -14744,9 +14939,9 @@
       <c r="P88" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R88" s="13"/>
-    </row>
-    <row r="89" spans="1:18" ht="289" x14ac:dyDescent="0.2">
+      <c r="T88" s="13"/>
+    </row>
+    <row r="89" spans="1:20" ht="289" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
         <v>160</v>
       </c>
@@ -14761,10 +14956,10 @@
         <v>1413</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>1719</v>
+        <v>1676</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>1699</v>
+        <v>1656</v>
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
@@ -14778,12 +14973,18 @@
       <c r="P89" s="2" t="s">
         <v>1546</v>
       </c>
-      <c r="Q89" s="13" t="s">
-        <v>1623</v>
-      </c>
-      <c r="R89" s="13"/>
-    </row>
-    <row r="90" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q89" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="S89" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="T89" s="13"/>
+    </row>
+    <row r="90" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
         <v>1264</v>
       </c>
@@ -14814,14 +15015,17 @@
       <c r="P90" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="Q90" s="13" t="s">
-        <v>1624</v>
-      </c>
-      <c r="R90" s="13" t="s">
+      <c r="R90" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="S90" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="T90" s="13" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
         <v>1266</v>
       </c>
@@ -14839,7 +15043,7 @@
         <v>470</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>1720</v>
+        <v>1677</v>
       </c>
       <c r="H91" s="13" t="s">
         <v>160</v>
@@ -14855,14 +15059,17 @@
       <c r="P91" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="Q91" s="13" t="s">
-        <v>1625</v>
-      </c>
-      <c r="R91" s="13" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="Q91" s="2" t="s">
+        <v>1805</v>
+      </c>
+      <c r="S91" s="13" t="s">
+        <v>1804</v>
+      </c>
+      <c r="T91" s="13" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>669</v>
       </c>
@@ -14875,7 +15082,7 @@
         <v>1413</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>1721</v>
+        <v>1678</v>
       </c>
       <c r="G92" s="12" t="s">
         <v>671</v>
@@ -14893,12 +15100,15 @@
       <c r="P92" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="Q92" s="13" t="s">
-        <v>1626</v>
-      </c>
-      <c r="R92" s="13"/>
-    </row>
-    <row r="93" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q92" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="S92" s="13" t="s">
+        <v>1806</v>
+      </c>
+      <c r="T92" s="13"/>
+    </row>
+    <row r="93" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
         <v>1270</v>
       </c>
@@ -14928,14 +15138,17 @@
       <c r="P93" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="Q93" s="13" t="s">
-        <v>1627</v>
-      </c>
-      <c r="R93" s="13" t="s">
+      <c r="Q93" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="S93" s="13" t="s">
+        <v>1423</v>
+      </c>
+      <c r="T93" s="13" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
         <v>680</v>
       </c>
@@ -14948,7 +15161,7 @@
         <v>1413</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>1722</v>
+        <v>1679</v>
       </c>
       <c r="G94" s="12" t="s">
         <v>550</v>
@@ -14968,9 +15181,9 @@
       <c r="P94" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="R94" s="13"/>
-    </row>
-    <row r="95" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="T94" s="13"/>
+    </row>
+    <row r="95" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
         <v>683</v>
       </c>
@@ -15003,14 +15216,14 @@
       <c r="P95" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="Q95" s="13" t="s">
+      <c r="R95" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="R95" s="13" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T95" s="13" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>689</v>
       </c>
@@ -15023,7 +15236,7 @@
         <v>1413</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>1723</v>
+        <v>1680</v>
       </c>
       <c r="G96" s="12" t="s">
         <v>533</v>
@@ -15042,14 +15255,17 @@
       <c r="P96" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="Q96" s="13" t="s">
-        <v>1628</v>
-      </c>
-      <c r="R96" s="13" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R96" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="S96" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="T96" s="13" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
         <v>696</v>
       </c>
@@ -15081,12 +15297,12 @@
       <c r="P97" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="Q97" s="13" t="s">
-        <v>1629</v>
-      </c>
-      <c r="R97" s="13"/>
-    </row>
-    <row r="98" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="S97" s="13" t="s">
+        <v>1599</v>
+      </c>
+      <c r="T97" s="13"/>
+    </row>
+    <row r="98" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
         <v>704</v>
       </c>
@@ -15115,9 +15331,9 @@
       <c r="P98" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R98" s="13"/>
-    </row>
-    <row r="99" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T98" s="13"/>
+    </row>
+    <row r="99" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
         <v>705</v>
       </c>
@@ -15132,7 +15348,7 @@
         <v>1413</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>1724</v>
+        <v>1681</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>533</v>
@@ -15152,14 +15368,14 @@
       <c r="P99" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="Q99" s="13" t="s">
-        <v>1630</v>
-      </c>
-      <c r="R99" s="13" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="S99" s="13" t="s">
+        <v>1600</v>
+      </c>
+      <c r="T99" s="13" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>712</v>
       </c>
@@ -15188,9 +15404,9 @@
       <c r="P100" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R100" s="13"/>
-    </row>
-    <row r="101" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="T100" s="13"/>
+    </row>
+    <row r="101" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>713</v>
       </c>
@@ -15219,9 +15435,9 @@
       <c r="P101" s="2" t="s">
         <v>1549</v>
       </c>
-      <c r="R101" s="13"/>
-    </row>
-    <row r="102" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="T101" s="13"/>
+    </row>
+    <row r="102" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
         <v>722</v>
       </c>
@@ -15234,10 +15450,10 @@
         <v>1413</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>1726</v>
+        <v>1683</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>1725</v>
+        <v>1682</v>
       </c>
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
@@ -15254,12 +15470,12 @@
       <c r="P102" s="2" t="s">
         <v>1550</v>
       </c>
-      <c r="Q102" s="13" t="s">
-        <v>1631</v>
-      </c>
-      <c r="R102" s="13"/>
-    </row>
-    <row r="103" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="S102" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="T102" s="13"/>
+    </row>
+    <row r="103" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
         <v>728</v>
       </c>
@@ -15288,9 +15504,9 @@
       <c r="P103" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R103" s="13"/>
-    </row>
-    <row r="104" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+      <c r="T103" s="13"/>
+    </row>
+    <row r="104" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
         <v>729</v>
       </c>
@@ -15305,7 +15521,7 @@
         <v>2017</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>1727</v>
+        <v>1684</v>
       </c>
       <c r="G104" s="12" t="s">
         <v>1425</v>
@@ -15324,14 +15540,17 @@
       <c r="P104" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="Q104" s="13" t="s">
-        <v>1632</v>
-      </c>
-      <c r="R104" s="13" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q104" s="2" t="s">
+        <v>1810</v>
+      </c>
+      <c r="S104" s="13" t="s">
+        <v>1809</v>
+      </c>
+      <c r="T104" s="13" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
         <v>1286</v>
       </c>
@@ -15363,12 +15582,15 @@
       <c r="P105" s="2" t="s">
         <v>1551</v>
       </c>
-      <c r="Q105" s="13" t="s">
-        <v>1633</v>
-      </c>
-      <c r="R105" s="13"/>
-    </row>
-    <row r="106" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="R105" s="2" t="s">
+        <v>1811</v>
+      </c>
+      <c r="S105" s="13" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T105" s="13"/>
+    </row>
+    <row r="106" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
         <v>743</v>
       </c>
@@ -15397,9 +15619,9 @@
       <c r="P106" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R106" s="13"/>
-    </row>
-    <row r="107" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T106" s="13"/>
+    </row>
+    <row r="107" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
         <v>744</v>
       </c>
@@ -15428,9 +15650,9 @@
       <c r="P107" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R107" s="13"/>
-    </row>
-    <row r="108" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+      <c r="T107" s="13"/>
+    </row>
+    <row r="108" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
         <v>745</v>
       </c>
@@ -15446,7 +15668,7 @@
         <v>747</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>1728</v>
+        <v>1685</v>
       </c>
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
@@ -15460,9 +15682,9 @@
       <c r="P108" s="2" t="s">
         <v>1552</v>
       </c>
-      <c r="R108" s="13"/>
-    </row>
-    <row r="109" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T108" s="13"/>
+    </row>
+    <row r="109" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>755</v>
       </c>
@@ -15490,14 +15712,17 @@
       <c r="P109" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="Q109" s="13" t="s">
-        <v>1634</v>
+      <c r="Q109" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="R109" s="13" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+        <v>1813</v>
+      </c>
+      <c r="T109" s="13" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
         <v>759</v>
       </c>
@@ -15526,9 +15751,9 @@
       <c r="P110" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R110" s="13"/>
-    </row>
-    <row r="111" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+      <c r="T110" s="13"/>
+    </row>
+    <row r="111" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>760</v>
       </c>
@@ -15549,10 +15774,10 @@
       </c>
       <c r="I111" s="13"/>
       <c r="K111" s="14" t="s">
-        <v>1775</v>
+        <v>1732</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>1774</v>
+        <v>1731</v>
       </c>
       <c r="N111" s="13"/>
       <c r="O111" s="13" t="s">
@@ -15561,14 +15786,17 @@
       <c r="P111" s="2" t="s">
         <v>1553</v>
       </c>
-      <c r="Q111" s="13" t="s">
-        <v>1635</v>
-      </c>
-      <c r="R111" s="13" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q111" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="S111" s="13" t="s">
+        <v>1814</v>
+      </c>
+      <c r="T111" s="13" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
         <v>769</v>
       </c>
@@ -15598,9 +15826,9 @@
       <c r="P112" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R112" s="13"/>
-    </row>
-    <row r="113" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="T112" s="13"/>
+    </row>
+    <row r="113" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
         <v>772</v>
       </c>
@@ -15633,9 +15861,9 @@
       <c r="P113" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="R113" s="13"/>
-    </row>
-    <row r="114" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T113" s="13"/>
+    </row>
+    <row r="114" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>780</v>
       </c>
@@ -15664,9 +15892,9 @@
       <c r="P114" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R114" s="13"/>
-    </row>
-    <row r="115" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="T114" s="13"/>
+    </row>
+    <row r="115" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>781</v>
       </c>
@@ -15697,9 +15925,9 @@
       <c r="P115" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R115" s="13"/>
-    </row>
-    <row r="116" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+      <c r="T115" s="13"/>
+    </row>
+    <row r="116" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>792</v>
       </c>
@@ -15728,9 +15956,9 @@
       <c r="P116" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R116" s="13"/>
-    </row>
-    <row r="117" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T116" s="13"/>
+    </row>
+    <row r="117" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
         <v>796</v>
       </c>
@@ -15762,9 +15990,9 @@
       <c r="P117" s="2" t="s">
         <v>1554</v>
       </c>
-      <c r="R117" s="13"/>
-    </row>
-    <row r="118" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T117" s="13"/>
+    </row>
+    <row r="118" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
         <v>802</v>
       </c>
@@ -15795,14 +16023,14 @@
       <c r="P118" s="2" t="s">
         <v>1554</v>
       </c>
-      <c r="Q118" s="13" t="s">
+      <c r="S118" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="R118" s="13" t="s">
+      <c r="T118" s="13" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
         <v>806</v>
       </c>
@@ -15831,9 +16059,9 @@
       <c r="P119" s="2" t="s">
         <v>1555</v>
       </c>
-      <c r="R119" s="13"/>
-    </row>
-    <row r="120" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="T119" s="13"/>
+    </row>
+    <row r="120" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
         <v>814</v>
       </c>
@@ -15846,10 +16074,10 @@
         <v>1413</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>1730</v>
+        <v>1687</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>1729</v>
+        <v>1686</v>
       </c>
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
@@ -15863,7 +16091,7 @@
         <v>1371</v>
       </c>
       <c r="N120" s="13" t="s">
-        <v>1793</v>
+        <v>1750</v>
       </c>
       <c r="O120" s="13" t="s">
         <v>1413</v>
@@ -15871,9 +16099,9 @@
       <c r="P120" s="2" t="s">
         <v>1556</v>
       </c>
-      <c r="R120" s="13"/>
-    </row>
-    <row r="121" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T120" s="13"/>
+    </row>
+    <row r="121" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
         <v>824</v>
       </c>
@@ -15901,7 +16129,7 @@
         <v>1371</v>
       </c>
       <c r="N121" s="13" t="s">
-        <v>1794</v>
+        <v>1751</v>
       </c>
       <c r="O121" s="13" t="s">
         <v>1413</v>
@@ -15909,9 +16137,9 @@
       <c r="P121" s="2" t="s">
         <v>1557</v>
       </c>
-      <c r="R121" s="13"/>
-    </row>
-    <row r="122" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T121" s="13"/>
+    </row>
+    <row r="122" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
         <v>832</v>
       </c>
@@ -15942,9 +16170,9 @@
       <c r="P122" s="2" t="s">
         <v>1558</v>
       </c>
-      <c r="R122" s="13"/>
-    </row>
-    <row r="123" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T122" s="13"/>
+    </row>
+    <row r="123" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
         <v>840</v>
       </c>
@@ -15972,7 +16200,7 @@
         <v>1485</v>
       </c>
       <c r="N123" s="13" t="s">
-        <v>1795</v>
+        <v>1752</v>
       </c>
       <c r="O123" s="13" t="s">
         <v>1413</v>
@@ -15980,9 +16208,9 @@
       <c r="P123" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="R123" s="13"/>
-    </row>
-    <row r="124" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T123" s="13"/>
+    </row>
+    <row r="124" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
         <v>845</v>
       </c>
@@ -15997,7 +16225,7 @@
         <v>2005</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>1731</v>
+        <v>1688</v>
       </c>
       <c r="G124" s="12" t="s">
         <v>445</v>
@@ -16018,11 +16246,14 @@
         <v>849</v>
       </c>
       <c r="Q124" s="13" t="s">
-        <v>1636</v>
-      </c>
-      <c r="R124" s="13"/>
-    </row>
-    <row r="125" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+        <v>1816</v>
+      </c>
+      <c r="R124" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="T124" s="13"/>
+    </row>
+    <row r="125" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
         <v>853</v>
       </c>
@@ -16051,9 +16282,9 @@
       <c r="P125" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R125" s="13"/>
-    </row>
-    <row r="126" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T125" s="13"/>
+    </row>
+    <row r="126" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
         <v>865</v>
       </c>
@@ -16082,9 +16313,9 @@
       <c r="P126" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R126" s="13"/>
-    </row>
-    <row r="127" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T126" s="13"/>
+    </row>
+    <row r="127" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
         <v>866</v>
       </c>
@@ -16113,9 +16344,9 @@
       <c r="P127" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="R127" s="13"/>
-    </row>
-    <row r="128" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T127" s="13"/>
+    </row>
+    <row r="128" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
         <v>1302</v>
       </c>
@@ -16144,9 +16375,9 @@
       <c r="P128" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R128" s="13"/>
-    </row>
-    <row r="129" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T128" s="13"/>
+    </row>
+    <row r="129" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
         <v>869</v>
       </c>
@@ -16159,10 +16390,10 @@
         <v>1413</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1733</v>
+        <v>1690</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>1732</v>
+        <v>1689</v>
       </c>
       <c r="H129" s="13"/>
       <c r="I129" s="13"/>
@@ -16179,12 +16410,12 @@
       <c r="P129" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="Q129" s="13" t="s">
-        <v>1637</v>
-      </c>
-      <c r="R129" s="13"/>
-    </row>
-    <row r="130" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="S129" s="13" t="s">
+        <v>1602</v>
+      </c>
+      <c r="T129" s="13"/>
+    </row>
+    <row r="130" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>872</v>
       </c>
@@ -16217,11 +16448,11 @@
       <c r="P130" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R130" s="13" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="T130" s="13" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
         <v>878</v>
       </c>
@@ -16234,10 +16465,10 @@
         <v>1413</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1735</v>
+        <v>1692</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>1734</v>
+        <v>1691</v>
       </c>
       <c r="H131" s="13" t="s">
         <v>160</v>
@@ -16253,12 +16484,12 @@
       <c r="P131" s="2" t="s">
         <v>1503</v>
       </c>
-      <c r="Q131" s="13" t="s">
-        <v>1638</v>
-      </c>
-      <c r="R131" s="13"/>
-    </row>
-    <row r="132" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="S131" s="13" t="s">
+        <v>1603</v>
+      </c>
+      <c r="T131" s="13"/>
+    </row>
+    <row r="132" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
         <v>884</v>
       </c>
@@ -16287,12 +16518,15 @@
       <c r="P132" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="Q132" s="13" t="s">
-        <v>1639</v>
-      </c>
-      <c r="R132" s="13"/>
-    </row>
-    <row r="133" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="Q132" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="S132" s="13" t="s">
+        <v>1818</v>
+      </c>
+      <c r="T132" s="13"/>
+    </row>
+    <row r="133" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
         <v>890</v>
       </c>
@@ -16323,9 +16557,9 @@
       <c r="P133" s="2" t="s">
         <v>1560</v>
       </c>
-      <c r="R133" s="13"/>
-    </row>
-    <row r="134" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T133" s="13"/>
+    </row>
+    <row r="134" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
         <v>897</v>
       </c>
@@ -16354,9 +16588,9 @@
       <c r="P134" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R134" s="13"/>
-    </row>
-    <row r="135" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T134" s="13"/>
+    </row>
+    <row r="135" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
         <v>898</v>
       </c>
@@ -16371,10 +16605,10 @@
         <v>1413</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1737</v>
+        <v>1694</v>
       </c>
       <c r="G135" s="12" t="s">
-        <v>1736</v>
+        <v>1693</v>
       </c>
       <c r="H135" s="13"/>
       <c r="I135" s="13"/>
@@ -16391,14 +16625,14 @@
       <c r="P135" s="2" t="s">
         <v>1561</v>
       </c>
-      <c r="Q135" s="13" t="s">
-        <v>1640</v>
-      </c>
-      <c r="R135" s="13" t="s">
+      <c r="S135" s="13" t="s">
+        <v>1604</v>
+      </c>
+      <c r="T135" s="13" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
         <v>913</v>
       </c>
@@ -16427,9 +16661,9 @@
       <c r="P136" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R136" s="13"/>
-    </row>
-    <row r="137" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T136" s="13"/>
+    </row>
+    <row r="137" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
         <v>914</v>
       </c>
@@ -16442,7 +16676,7 @@
         <v>1413</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
       <c r="G137" s="12" t="s">
         <v>611</v>
@@ -16462,12 +16696,12 @@
       <c r="P137" s="2" t="s">
         <v>1562</v>
       </c>
-      <c r="Q137" s="13" t="s">
-        <v>1600</v>
-      </c>
-      <c r="R137" s="13"/>
-    </row>
-    <row r="138" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="S137" s="13" t="s">
+        <v>1592</v>
+      </c>
+      <c r="T137" s="13"/>
+    </row>
+    <row r="138" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>918</v>
       </c>
@@ -16497,9 +16731,9 @@
       <c r="P138" s="2" t="s">
         <v>1563</v>
       </c>
-      <c r="R138" s="13"/>
-    </row>
-    <row r="139" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T138" s="13"/>
+    </row>
+    <row r="139" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
         <v>923</v>
       </c>
@@ -16512,10 +16746,10 @@
         <v>1413</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>1739</v>
+        <v>1696</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>1738</v>
+        <v>1695</v>
       </c>
       <c r="H139" s="13"/>
       <c r="I139" s="14" t="s">
@@ -16531,9 +16765,9 @@
       <c r="P139" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="R139" s="13"/>
-    </row>
-    <row r="140" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T139" s="13"/>
+    </row>
+    <row r="140" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
         <v>929</v>
       </c>
@@ -16559,7 +16793,7 @@
         <v>1371</v>
       </c>
       <c r="N140" s="13" t="s">
-        <v>1796</v>
+        <v>1753</v>
       </c>
       <c r="O140" s="13" t="s">
         <v>1413</v>
@@ -16567,9 +16801,9 @@
       <c r="P140" s="2" t="s">
         <v>1564</v>
       </c>
-      <c r="R140" s="13"/>
-    </row>
-    <row r="141" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T140" s="13"/>
+    </row>
+    <row r="141" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
         <v>1309</v>
       </c>
@@ -16597,9 +16831,9 @@
       <c r="P141" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R141" s="13"/>
-    </row>
-    <row r="142" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T141" s="13"/>
+    </row>
+    <row r="142" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
         <v>935</v>
       </c>
@@ -16627,9 +16861,9 @@
       <c r="P142" s="2" t="s">
         <v>1565</v>
       </c>
-      <c r="R142" s="13"/>
-    </row>
-    <row r="143" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="T142" s="13"/>
+    </row>
+    <row r="143" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
         <v>942</v>
       </c>
@@ -16661,12 +16895,12 @@
       <c r="P143" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="Q143" s="13" t="s">
-        <v>1641</v>
-      </c>
-      <c r="R143" s="13"/>
-    </row>
-    <row r="144" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="S143" s="13" t="s">
+        <v>1605</v>
+      </c>
+      <c r="T143" s="13"/>
+    </row>
+    <row r="144" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A144" s="10" t="s">
         <v>947</v>
       </c>
@@ -16681,10 +16915,10 @@
         <v>1413</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>1741</v>
+        <v>1698</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>1740</v>
+        <v>1697</v>
       </c>
       <c r="H144" s="13"/>
       <c r="I144" s="14" t="s">
@@ -16700,9 +16934,9 @@
       <c r="P144" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="R144" s="13"/>
-    </row>
-    <row r="145" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T144" s="13"/>
+    </row>
+    <row r="145" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
         <v>956</v>
       </c>
@@ -16730,9 +16964,9 @@
       <c r="P145" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R145" s="13"/>
-    </row>
-    <row r="146" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+      <c r="T145" s="13"/>
+    </row>
+    <row r="146" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
         <v>957</v>
       </c>
@@ -16760,9 +16994,9 @@
       <c r="P146" s="2" t="s">
         <v>1566</v>
       </c>
-      <c r="R146" s="13"/>
-    </row>
-    <row r="147" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="T146" s="13"/>
+    </row>
+    <row r="147" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
         <v>1313</v>
       </c>
@@ -16775,7 +17009,7 @@
         <v>1413</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>1742</v>
+        <v>1699</v>
       </c>
       <c r="G147" s="12" t="s">
         <v>1425</v>
@@ -16795,9 +17029,9 @@
       <c r="P147" s="2" t="s">
         <v>1567</v>
       </c>
-      <c r="R147" s="13"/>
-    </row>
-    <row r="148" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="T147" s="13"/>
+    </row>
+    <row r="148" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
         <v>970</v>
       </c>
@@ -16814,20 +17048,20 @@
         <v>2014</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>1743</v>
+        <v>1700</v>
       </c>
       <c r="G148" s="12" t="s">
-        <v>1699</v>
+        <v>1656</v>
       </c>
       <c r="H148" s="13" t="s">
         <v>765</v>
       </c>
       <c r="I148" s="13"/>
       <c r="K148" s="14" t="s">
-        <v>1777</v>
+        <v>1734</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>1776</v>
+        <v>1733</v>
       </c>
       <c r="N148" s="13"/>
       <c r="O148" s="13" t="s">
@@ -16836,14 +17070,17 @@
       <c r="P148" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="Q148" s="13" t="s">
-        <v>1642</v>
-      </c>
-      <c r="R148" s="13" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="Q148" s="2" t="s">
+        <v>1820</v>
+      </c>
+      <c r="S148" s="13" t="s">
+        <v>1819</v>
+      </c>
+      <c r="T148" s="13" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A149" s="10" t="s">
         <v>441</v>
       </c>
@@ -16858,7 +17095,7 @@
         <v>1998</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1744</v>
+        <v>1701</v>
       </c>
       <c r="G149" s="12" t="s">
         <v>445</v>
@@ -16878,12 +17115,18 @@
       <c r="P149" s="2" t="s">
         <v>1568</v>
       </c>
-      <c r="Q149" s="13" t="s">
-        <v>1643</v>
-      </c>
-      <c r="R149" s="13"/>
-    </row>
-    <row r="150" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+      <c r="Q149" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="R149" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="S149" s="13" t="s">
+        <v>1795</v>
+      </c>
+      <c r="T149" s="13"/>
+    </row>
+    <row r="150" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
         <v>985</v>
       </c>
@@ -16914,11 +17157,11 @@
       <c r="P150" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R150" s="13" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T150" s="13" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
         <v>992</v>
       </c>
@@ -16934,7 +17177,7 @@
         <v>628</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>1745</v>
+        <v>1702</v>
       </c>
       <c r="H151" s="13"/>
       <c r="I151" s="13"/>
@@ -16951,12 +17194,15 @@
       <c r="P151" s="2" t="s">
         <v>1569</v>
       </c>
-      <c r="Q151" s="13" t="s">
-        <v>1644</v>
-      </c>
-      <c r="R151" s="13"/>
-    </row>
-    <row r="152" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q151" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="R151" s="13" t="s">
+        <v>1822</v>
+      </c>
+      <c r="T151" s="13"/>
+    </row>
+    <row r="152" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
         <v>998</v>
       </c>
@@ -16969,7 +17215,7 @@
         <v>2009</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>1746</v>
+        <v>1703</v>
       </c>
       <c r="G152" s="12" t="s">
         <v>445</v>
@@ -16992,9 +17238,9 @@
       <c r="Q152" s="13" t="s">
         <v>1003</v>
       </c>
-      <c r="R152" s="13"/>
-    </row>
-    <row r="153" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T152" s="13"/>
+    </row>
+    <row r="153" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
         <v>1005</v>
       </c>
@@ -17024,9 +17270,9 @@
       <c r="P153" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="R153" s="13"/>
-    </row>
-    <row r="154" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="T153" s="13"/>
+    </row>
+    <row r="154" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
         <v>1007</v>
       </c>
@@ -17039,10 +17285,10 @@
         <v>2017</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>1748</v>
+        <v>1705</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>1747</v>
+        <v>1704</v>
       </c>
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
@@ -17059,12 +17305,12 @@
       <c r="P154" s="2" t="s">
         <v>1571</v>
       </c>
-      <c r="Q154" s="13" t="s">
-        <v>1645</v>
-      </c>
-      <c r="R154" s="13"/>
-    </row>
-    <row r="155" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="S154" s="13" t="s">
+        <v>1606</v>
+      </c>
+      <c r="T154" s="13"/>
+    </row>
+    <row r="155" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
         <v>1012</v>
       </c>
@@ -17095,9 +17341,9 @@
       <c r="P155" s="2" t="s">
         <v>1572</v>
       </c>
-      <c r="R155" s="13"/>
-    </row>
-    <row r="156" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T155" s="13"/>
+    </row>
+    <row r="156" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
         <v>1017</v>
       </c>
@@ -17112,7 +17358,7 @@
         <v>1413</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>1749</v>
+        <v>1706</v>
       </c>
       <c r="G156" s="12" t="s">
         <v>507</v>
@@ -17132,14 +17378,14 @@
       <c r="P156" s="2" t="s">
         <v>1573</v>
       </c>
-      <c r="Q156" s="13" t="s">
+      <c r="S156" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="R156" s="13" t="s">
+      <c r="T156" s="13" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
         <v>1021</v>
       </c>
@@ -17167,9 +17413,9 @@
       <c r="P157" s="2" t="s">
         <v>1574</v>
       </c>
-      <c r="R157" s="13"/>
-    </row>
-    <row r="158" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T157" s="13"/>
+    </row>
+    <row r="158" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
         <v>1029</v>
       </c>
@@ -17200,9 +17446,9 @@
       <c r="P158" s="2" t="s">
         <v>1575</v>
       </c>
-      <c r="R158" s="13"/>
-    </row>
-    <row r="159" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T158" s="13"/>
+    </row>
+    <row r="159" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
         <v>1034</v>
       </c>
@@ -17233,9 +17479,9 @@
       <c r="P159" s="2" t="s">
         <v>1576</v>
       </c>
-      <c r="R159" s="13"/>
-    </row>
-    <row r="160" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T159" s="13"/>
+    </row>
+    <row r="160" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
         <v>1039</v>
       </c>
@@ -17264,9 +17510,9 @@
       <c r="P160" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R160" s="13"/>
-    </row>
-    <row r="161" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T160" s="13"/>
+    </row>
+    <row r="161" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
         <v>1040</v>
       </c>
@@ -17295,9 +17541,9 @@
       <c r="P161" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R161" s="13"/>
-    </row>
-    <row r="162" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T161" s="13"/>
+    </row>
+    <row r="162" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
         <v>1041</v>
       </c>
@@ -17327,9 +17573,9 @@
       <c r="P162" s="2" t="s">
         <v>1577</v>
       </c>
-      <c r="R162" s="13"/>
-    </row>
-    <row r="163" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T162" s="13"/>
+    </row>
+    <row r="163" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="10" t="s">
         <v>1048</v>
       </c>
@@ -17361,11 +17607,11 @@
       <c r="Q163" s="13" t="s">
         <v>1051</v>
       </c>
-      <c r="R163" s="13" t="s">
+      <c r="T163" s="13" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
         <v>1053</v>
       </c>
@@ -17394,9 +17640,9 @@
       <c r="P164" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R164" s="13"/>
-    </row>
-    <row r="165" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T164" s="13"/>
+    </row>
+    <row r="165" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
         <v>1054</v>
       </c>
@@ -17425,9 +17671,9 @@
       <c r="P165" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R165" s="13"/>
-    </row>
-    <row r="166" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T165" s="13"/>
+    </row>
+    <row r="166" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="10" t="s">
         <v>1055</v>
       </c>
@@ -17460,9 +17706,9 @@
       <c r="P166" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R166" s="13"/>
-    </row>
-    <row r="167" spans="1:18" ht="187" x14ac:dyDescent="0.2">
+      <c r="T166" s="13"/>
+    </row>
+    <row r="167" spans="1:20" ht="187" x14ac:dyDescent="0.2">
       <c r="A167" s="10" t="s">
         <v>1059</v>
       </c>
@@ -17479,17 +17725,17 @@
         <v>1413</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>1750</v>
+        <v>1707</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>1694</v>
+        <v>1651</v>
       </c>
       <c r="H167" s="13" t="s">
         <v>230</v>
       </c>
       <c r="I167" s="13"/>
       <c r="L167" s="2" t="s">
-        <v>1778</v>
+        <v>1735</v>
       </c>
       <c r="N167" s="13"/>
       <c r="O167" s="13" t="s">
@@ -17498,14 +17744,20 @@
       <c r="P167" s="2" t="s">
         <v>1579</v>
       </c>
-      <c r="Q167" s="13" t="s">
-        <v>1646</v>
-      </c>
-      <c r="R167" s="13" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="Q167" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="R167" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="S167" s="13" t="s">
+        <v>1825</v>
+      </c>
+      <c r="T167" s="13" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A168" s="10" t="s">
         <v>1068</v>
       </c>
@@ -17520,7 +17772,7 @@
         <v>1413</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>1751</v>
+        <v>1708</v>
       </c>
       <c r="G168" s="12" t="s">
         <v>1427</v>
@@ -17531,24 +17783,30 @@
         <v>1413</v>
       </c>
       <c r="K168" s="14" t="s">
-        <v>1780</v>
+        <v>1737</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>1779</v>
+        <v>1736</v>
       </c>
       <c r="N168" s="13"/>
       <c r="O168" s="13"/>
       <c r="P168" s="2" t="s">
         <v>1580</v>
       </c>
-      <c r="Q168" s="13" t="s">
-        <v>1647</v>
-      </c>
-      <c r="R168" s="13" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q168" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="R168" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="S168" s="13" t="s">
+        <v>1826</v>
+      </c>
+      <c r="T168" s="13" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
         <v>1074</v>
       </c>
@@ -17579,9 +17837,9 @@
       <c r="P169" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="R169" s="13"/>
-    </row>
-    <row r="170" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="T169" s="13"/>
+    </row>
+    <row r="170" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
         <v>1076</v>
       </c>
@@ -17601,10 +17859,10 @@
         <v>1413</v>
       </c>
       <c r="K170" s="14" t="s">
-        <v>1782</v>
+        <v>1739</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>1781</v>
+        <v>1738</v>
       </c>
       <c r="N170" s="13"/>
       <c r="O170" s="13" t="s">
@@ -17613,14 +17871,14 @@
       <c r="P170" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="Q170" s="13" t="s">
-        <v>1648</v>
-      </c>
-      <c r="R170" s="13" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="S170" s="13" t="s">
+        <v>1607</v>
+      </c>
+      <c r="T170" s="13" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="10" t="s">
         <v>1082</v>
       </c>
@@ -17649,9 +17907,9 @@
       <c r="P171" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R171" s="13"/>
-    </row>
-    <row r="172" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T171" s="13"/>
+    </row>
+    <row r="172" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
         <v>1083</v>
       </c>
@@ -17680,9 +17938,9 @@
       <c r="P172" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R172" s="13"/>
-    </row>
-    <row r="173" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T172" s="13"/>
+    </row>
+    <row r="173" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
         <v>1084</v>
       </c>
@@ -17711,9 +17969,9 @@
       <c r="P173" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R173" s="13"/>
-    </row>
-    <row r="174" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="T173" s="13"/>
+    </row>
+    <row r="174" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
         <v>1085</v>
       </c>
@@ -17726,7 +17984,7 @@
         <v>1413</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>1746</v>
+        <v>1703</v>
       </c>
       <c r="G174" s="12" t="s">
         <v>445</v>
@@ -17747,11 +18005,11 @@
         <v>1581</v>
       </c>
       <c r="Q174" s="13" t="s">
-        <v>1649</v>
-      </c>
-      <c r="R174" s="13"/>
-    </row>
-    <row r="175" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+        <v>1608</v>
+      </c>
+      <c r="T174" s="13"/>
+    </row>
+    <row r="175" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
         <v>852</v>
       </c>
@@ -17764,7 +18022,7 @@
         <v>1413</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>1746</v>
+        <v>1703</v>
       </c>
       <c r="G175" s="12" t="s">
         <v>445</v>
@@ -17785,11 +18043,14 @@
         <v>1582</v>
       </c>
       <c r="Q175" s="13" t="s">
-        <v>1650</v>
-      </c>
-      <c r="R175" s="13"/>
-    </row>
-    <row r="176" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>1828</v>
+      </c>
+      <c r="R175" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="T175" s="13"/>
+    </row>
+    <row r="176" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
         <v>1095</v>
       </c>
@@ -17802,10 +18063,10 @@
         <v>1413</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>1737</v>
+        <v>1694</v>
       </c>
       <c r="G176" s="12" t="s">
-        <v>1752</v>
+        <v>1709</v>
       </c>
       <c r="H176" s="13"/>
       <c r="I176" s="13"/>
@@ -17822,14 +18083,14 @@
       <c r="P176" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="Q176" s="13" t="s">
+      <c r="S176" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="R176" s="13" t="s">
+      <c r="T176" s="13" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="177" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>1105</v>
       </c>
@@ -17861,9 +18122,9 @@
       <c r="P177" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R177" s="13"/>
-    </row>
-    <row r="178" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T177" s="13"/>
+    </row>
+    <row r="178" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
         <v>1112</v>
       </c>
@@ -17896,11 +18157,11 @@
       <c r="P178" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R178" s="13" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T178" s="13" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
         <v>1120</v>
       </c>
@@ -17927,9 +18188,9 @@
       <c r="P179" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R179" s="13"/>
-    </row>
-    <row r="180" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="T179" s="13"/>
+    </row>
+    <row r="180" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
         <v>1121</v>
       </c>
@@ -17959,9 +18220,9 @@
       <c r="P180" s="2" t="s">
         <v>1584</v>
       </c>
-      <c r="R180" s="13"/>
-    </row>
-    <row r="181" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T180" s="13"/>
+    </row>
+    <row r="181" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
         <v>1136</v>
       </c>
@@ -17974,10 +18235,10 @@
         <v>1413</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>1754</v>
+        <v>1711</v>
       </c>
       <c r="G181" s="12" t="s">
-        <v>1753</v>
+        <v>1710</v>
       </c>
       <c r="H181" s="13"/>
       <c r="I181" s="14" t="s">
@@ -17993,9 +18254,9 @@
       <c r="P181" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R181" s="13"/>
-    </row>
-    <row r="182" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T181" s="13"/>
+    </row>
+    <row r="182" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
         <v>1140</v>
       </c>
@@ -18010,7 +18271,7 @@
         <v>1413</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>1755</v>
+        <v>1712</v>
       </c>
       <c r="G182" s="12" t="s">
         <v>1415</v>
@@ -18029,9 +18290,9 @@
       <c r="P182" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R182" s="13"/>
-    </row>
-    <row r="183" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="T182" s="13"/>
+    </row>
+    <row r="183" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
         <v>1151</v>
       </c>
@@ -18044,7 +18305,7 @@
         <v>2016</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>1756</v>
+        <v>1713</v>
       </c>
       <c r="G183" s="12" t="s">
         <v>1425</v>
@@ -18063,14 +18324,17 @@
       <c r="P183" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="Q183" s="13" t="s">
-        <v>1651</v>
-      </c>
-      <c r="R183" s="13" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q183" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="S183" s="13" t="s">
+        <v>1425</v>
+      </c>
+      <c r="T183" s="13" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="10" t="s">
         <v>1395</v>
       </c>
@@ -18081,9 +18345,9 @@
       <c r="P184" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R184" s="13"/>
-    </row>
-    <row r="185" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T184" s="13"/>
+    </row>
+    <row r="185" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
         <v>1396</v>
       </c>
@@ -18098,9 +18362,9 @@
       <c r="P185" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R185" s="13"/>
-    </row>
-    <row r="186" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T185" s="13"/>
+    </row>
+    <row r="186" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
         <v>1399</v>
       </c>
@@ -18113,9 +18377,9 @@
       <c r="P186" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R186" s="13"/>
-    </row>
-    <row r="187" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T186" s="13"/>
+    </row>
+    <row r="187" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
         <v>1401</v>
       </c>
@@ -18126,9 +18390,9 @@
       <c r="P187" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R187" s="13"/>
-    </row>
-    <row r="188" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T187" s="13"/>
+    </row>
+    <row r="188" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
         <v>1406</v>
       </c>
@@ -18139,9 +18403,9 @@
       <c r="P188" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R188" s="13"/>
-    </row>
-    <row r="189" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T188" s="13"/>
+    </row>
+    <row r="189" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
         <v>974</v>
       </c>
@@ -18155,9 +18419,9 @@
       <c r="P189" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R189" s="13"/>
-    </row>
-    <row r="190" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T189" s="13"/>
+    </row>
+    <row r="190" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
         <v>1153</v>
       </c>
@@ -18171,9 +18435,9 @@
       <c r="P190" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="R190" s="13"/>
-    </row>
-    <row r="191" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="T190" s="13"/>
+    </row>
+    <row r="191" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
         <v>1409</v>
       </c>
@@ -18185,7 +18449,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="192" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
         <v>1410</v>
       </c>
@@ -19195,7 +19459,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1757</v>
+        <v>1714</v>
       </c>
     </row>
   </sheetData>
